--- a/data/cci/cci-platform.xlsx
+++ b/data/cci/cci-platform.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1091BF1B-7FC9-7F4B-BEB8-0A808B4292E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFF290D-AE04-4045-BEA4-1CD4B79AEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{BDBA2DAF-A69F-8943-8914-2639318A6149}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{1C9BF221-BF04-2F46-91C8-1781F5B972F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="692">
   <si>
     <t>URI</t>
   </si>
@@ -1657,7 +1657,7 @@
     <t>Sentinel-1A</t>
   </si>
   <si>
-    <t>ESA Sentinel 1 programme, 1st flight</t>
+    <t>Sentinel 1 programme, 1st flight</t>
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satellites/view/396</t>
@@ -1670,14 +1670,15 @@
   </si>
   <si>
     <r>
-      <t>ESA Sentinel 1 programme, 2</t>
+      <t>Sentinel 1 programme, 2</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -1685,7 +1686,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> flight</t>
     </r>
@@ -1700,7 +1702,7 @@
     <t>Sentinel-2A</t>
   </si>
   <si>
-    <t>ESA Sentinel 2 programme, 1st flight</t>
+    <t>Sentinel 2 programme, 1st flight</t>
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satellites/view/398</t>
@@ -1713,14 +1715,15 @@
   </si>
   <si>
     <r>
-      <t>ESA Sentinel 2 programme, 2</t>
+      <t>Sentinel 2 programme, 2</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>nd</t>
     </r>
@@ -1728,7 +1731,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> flight</t>
     </r>
@@ -1743,7 +1747,7 @@
     <t>Sentinel-3A</t>
   </si>
   <si>
-    <t>ESA Sentinel 3 programme, 1st flight</t>
+    <t>Sentinel 3 programme, 1st flight</t>
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satellites/view/400</t>
@@ -1755,7 +1759,7 @@
     <t>Sentinel-3B</t>
   </si>
   <si>
-    <t>ESA Sentinel 3 programme, 2nd flight</t>
+    <t>Sentinel 3 programme, 2nd flight</t>
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satellites/view/401</t>
@@ -2110,6 +2114,72 @@
   </si>
   <si>
     <t>https://www.wmo-sat.info/oscar/satellites/view/gpm_core_observatory</t>
+  </si>
+  <si>
+    <t>plat_sentinel6a</t>
+  </si>
+  <si>
+    <t>Sentinel-6A</t>
+  </si>
+  <si>
+    <r>
+      <t>Sentinel 6 programme, 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> flight</t>
+    </r>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satellites/view/sentinel_6a</t>
+  </si>
+  <si>
+    <t>plat_sentinel6b</t>
+  </si>
+  <si>
+    <t>Sentinel-6B</t>
+  </si>
+  <si>
+    <r>
+      <t>Sentinel 6 programme, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> flight</t>
+    </r>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satellites/view/sentinel_6b</t>
   </si>
 </sst>
 </file>
@@ -2123,73 +2193,86 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2197,13 +2280,15 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2214,14 +2299,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Calibri1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2313,33 +2398,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2362,31 +2450,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Accent" xfId="7" xr:uid="{05F09F7A-1873-5F4E-912A-D5AD3ACD3D18}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{26BFB547-0557-1E46-BD3F-F80FB4D4AE9F}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{381AEF86-7671-DE48-9479-95561DBB4A3F}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{9E59177B-88EF-B341-9179-0B10FC41B16A}"/>
+  <cellStyles count="21">
+    <cellStyle name="Accent" xfId="7" xr:uid="{38CCD445-3D93-374F-BB12-845CF953AC85}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{CAB56601-39F2-8A41-84BD-0B3CB41EDB67}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{7B47F374-0379-CF4D-9D36-36F77A7956A2}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{4C5489E2-3F5A-BF48-9A40-871BEEB9FD4B}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{03F058F6-58A1-5F44-859A-20B5E7EC327E}"/>
-    <cellStyle name="Footnote" xfId="12" xr:uid="{6A500D58-66F3-B847-90D9-48EE6ADF6E15}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{638210C7-55D1-BB46-9937-55B9B287C573}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{9317A39F-66E1-B64A-ACFD-F9B2D3EAF31D}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13" xr:uid="{AECC35C3-27B2-E44A-9356-F6ECFD127EF4}"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{87DF4CA1-401E-5544-A0E2-CE9905F4E398}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14" xr:uid="{C40177E4-2BE6-CE4B-AEEA-28E3E0E5116D}"/>
+    <cellStyle name="Heading1" xfId="14" xr:uid="{B8767FB3-91A5-2949-BC81-FA02A2D59398}"/>
+    <cellStyle name="Hyperlink" xfId="15" xr:uid="{62C26C70-87D7-E84B-BE7C-428DC1A73ECC}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15" xr:uid="{E6430383-AF74-CC40-952C-A4C9FF8A28F5}"/>
-    <cellStyle name="Result2" xfId="16" xr:uid="{A8617990-0332-E446-9622-5704942676FB}"/>
-    <cellStyle name="Status" xfId="17" xr:uid="{D937928B-7B81-D74E-BD83-5C0AFAAA9F3B}"/>
-    <cellStyle name="Text" xfId="18" xr:uid="{4466C39C-A009-8E4D-A119-C05D71DD2D73}"/>
-    <cellStyle name="Warning" xfId="19" xr:uid="{D63389C2-13E0-9443-9C2E-EFEAEA55C1C5}"/>
+    <cellStyle name="Result" xfId="16" xr:uid="{E21F30DF-FCC0-C849-8FD3-74D279D3AB7F}"/>
+    <cellStyle name="Result2" xfId="17" xr:uid="{43075E9E-2AB3-0B48-AACE-B1EC5C580C96}"/>
+    <cellStyle name="Status" xfId="18" xr:uid="{206B8F27-8977-0444-BBCC-81AB722496CC}"/>
+    <cellStyle name="Text" xfId="19" xr:uid="{A42CCCE7-B3EC-3D42-B29B-78D847865618}"/>
+    <cellStyle name="Warning" xfId="20" xr:uid="{F1FB52B6-E760-6946-9F83-3F5007F74EED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2402,1035 +2489,1035 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BD769C3-EF82-A04C-8C04-9C6DC2F8E76A}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048576" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C64CB1E-72E8-C54D-8F5F-7E06676E9948}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048576" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMJ1048576">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="1024">
-    <tableColumn id="1" xr3:uid="{3F15A4E6-7295-5445-BADC-5C239F1506F1}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{D1F0E186-C3FF-CD4E-A104-942B8F1E4C5A}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{0A7F41B2-62BD-AE4C-82ED-D1058B0CA454}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{4E943964-ED88-A54A-8428-A864745A8F94}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{B7BA157A-949F-7648-A640-D7C471A91591}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{30B95341-2B2C-4843-8DC0-98DBFC9F9E8B}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{0760D5B3-C20B-FF4A-AB34-46DF4267E052}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{4BF33058-7A69-5543-AF12-EB4A260566B4}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{79A001E7-A89B-584F-97BD-3CBA6A849BD7}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{0F52F9D5-D0FC-FB49-8A3A-1D189BED1CD2}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{AFD957FF-759C-F74C-A3C6-F8BDE304BBA0}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{EC9C4867-CC0C-904B-B31E-92E615F636B2}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{017DF8E4-D903-2F4F-8703-F74B6CC7B9CF}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{8DB81EE8-23FA-F343-B781-60A355898B32}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{5D8F9234-0460-6D43-BE47-D599466601C9}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{00EBC5D0-0305-2A40-901C-73645274D3B4}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{D73FCEBF-FA2F-8C42-9403-CB89002D94E1}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{EDFA7714-6E18-2B46-B685-79A14E16494A}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{1ACE51E7-4A39-8A4B-8742-E310A8DF1518}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{8CCFBC03-0C8A-934A-A0F0-26F06324AC54}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{687991EC-4E7E-B44D-987A-669E7BA0254C}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{0EEC5177-67A2-404C-89BE-30AA919CCE89}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{7CD1DB89-E6F9-3043-9A22-AB3233512EB6}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{5AC6A6E7-3270-B44F-A52A-E697DCFC112F}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{1AC27C7B-FF2F-314D-B8DD-5959E0867EFA}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{1935A7D9-FFC6-724E-8377-9EB0111950D9}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{C2FD4C73-87A5-B249-8805-81FB61B8F33B}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{C1BD45AE-6213-E941-8EC2-87BC1577DE96}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{F538FF16-7BA0-2D47-AC54-64A0C12EE396}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{B4FC7A5B-7BB8-A24B-AF11-5D6AD3719F02}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{9A125544-DA9B-4A49-94E8-1416F137F682}" name="Column31"/>
-    <tableColumn id="32" xr3:uid="{96D73A2E-A586-D044-9B82-7E30E578C3F3}" name="Column32"/>
-    <tableColumn id="33" xr3:uid="{F6B89FD9-E488-F946-A697-D637101DC13E}" name="Column33"/>
-    <tableColumn id="34" xr3:uid="{0425E59A-BEF0-AA4B-BE99-03195F3F6367}" name="Column34"/>
-    <tableColumn id="35" xr3:uid="{8E9F8E24-424F-B246-935C-1B7701D99795}" name="Column35"/>
-    <tableColumn id="36" xr3:uid="{669386E8-3848-EA4C-B74A-4E2DC76EF83E}" name="Column36"/>
-    <tableColumn id="37" xr3:uid="{C66F4859-D209-A04B-A93F-666E40D1A71E}" name="Column37"/>
-    <tableColumn id="38" xr3:uid="{C2C36AD0-A7B0-CA4A-A961-80768CE59C1C}" name="Column38"/>
-    <tableColumn id="39" xr3:uid="{04D56EFC-CAD2-034F-8EC2-9285EC2E7D65}" name="Column39"/>
-    <tableColumn id="40" xr3:uid="{553BAF1D-0EB9-D948-852F-917A026F3C16}" name="Column40"/>
-    <tableColumn id="41" xr3:uid="{934DF61C-7C20-4343-8864-7849B47A3665}" name="Column41"/>
-    <tableColumn id="42" xr3:uid="{0EF5A2F0-935E-7A4B-A265-21D81810A28A}" name="Column42"/>
-    <tableColumn id="43" xr3:uid="{920DA64A-DF89-6849-AFFF-092BB3574A50}" name="Column43"/>
-    <tableColumn id="44" xr3:uid="{639047BA-A9D6-494A-9924-B0B9B81D0D1F}" name="Column44"/>
-    <tableColumn id="45" xr3:uid="{4A7E89F4-6627-BC4C-8603-DFF5650637DE}" name="Column45"/>
-    <tableColumn id="46" xr3:uid="{2AD538AC-6038-154B-B3EC-4D469FF8988F}" name="Column46"/>
-    <tableColumn id="47" xr3:uid="{2E3CBE0C-298E-2945-9BE6-3FC973DEEAE8}" name="Column47"/>
-    <tableColumn id="48" xr3:uid="{06B86D34-AF34-1C44-81B6-2E2B80B5BF1A}" name="Column48"/>
-    <tableColumn id="49" xr3:uid="{2F2AB833-4B44-3445-B22C-97A8AC505A3C}" name="Column49"/>
-    <tableColumn id="50" xr3:uid="{FEFB5896-6371-464C-8B0F-879BB3F149CF}" name="Column50"/>
-    <tableColumn id="51" xr3:uid="{45F334DE-C28F-BE44-AC83-03B6D16367FE}" name="Column51"/>
-    <tableColumn id="52" xr3:uid="{F15570D4-3E04-1846-A04D-3EA15C9E9BE0}" name="Column52"/>
-    <tableColumn id="53" xr3:uid="{97C2914F-C871-CC43-B903-38E7ADCD7F4A}" name="Column53"/>
-    <tableColumn id="54" xr3:uid="{2C61EFB6-B35A-3D41-A056-FF071AC4772F}" name="Column54"/>
-    <tableColumn id="55" xr3:uid="{2507BF1C-645B-0E4B-84A4-B246DEBD23F0}" name="Column55"/>
-    <tableColumn id="56" xr3:uid="{FEBF6E54-DD94-C64D-8C0D-27417C3E43A5}" name="Column56"/>
-    <tableColumn id="57" xr3:uid="{8FB97485-028C-C240-9EA3-644E4E0987C1}" name="Column57"/>
-    <tableColumn id="58" xr3:uid="{6CB128FB-AD4C-3942-A143-7B77C1DC505B}" name="Column58"/>
-    <tableColumn id="59" xr3:uid="{9CC2E9F7-314C-684F-890D-67FF49A7249E}" name="Column59"/>
-    <tableColumn id="60" xr3:uid="{4E271D32-0E5A-204A-9EBD-CFEF8F44479C}" name="Column60"/>
-    <tableColumn id="61" xr3:uid="{50429C83-135E-274A-B168-0E1A0D935D75}" name="Column61"/>
-    <tableColumn id="62" xr3:uid="{B361A8E6-C5D2-1B47-8C5C-8C4DB9057732}" name="Column62"/>
-    <tableColumn id="63" xr3:uid="{6095D62A-211D-7249-9725-19D0FD07DD8A}" name="Column63"/>
-    <tableColumn id="64" xr3:uid="{2D405D8E-6BD4-004B-BDFB-79CB9DA62225}" name="Column64"/>
-    <tableColumn id="65" xr3:uid="{8A3195BA-DBA1-1C43-90CA-3C69AD09B792}" name="Column65"/>
-    <tableColumn id="66" xr3:uid="{F020D50B-9240-4240-BA41-8D93F9D6C41B}" name="Column66"/>
-    <tableColumn id="67" xr3:uid="{1E777DCD-EAA7-7D48-90AB-D8600BF3CCB9}" name="Column67"/>
-    <tableColumn id="68" xr3:uid="{20FF8199-9C16-594D-92C7-3AA5629F2021}" name="Column68"/>
-    <tableColumn id="69" xr3:uid="{E7A29B04-C768-604F-A4D5-A5A396124FEA}" name="Column69"/>
-    <tableColumn id="70" xr3:uid="{AC5F0255-8FFB-E740-A682-E7D9F079B19B}" name="Column70"/>
-    <tableColumn id="71" xr3:uid="{B8332FD0-72EE-314A-A8DD-59A1799E4745}" name="Column71"/>
-    <tableColumn id="72" xr3:uid="{911D5E10-AE60-FF44-88EE-D2C51D1AE866}" name="Column72"/>
-    <tableColumn id="73" xr3:uid="{7A3C67FE-436E-184C-AB02-F5668EE66D06}" name="Column73"/>
-    <tableColumn id="74" xr3:uid="{3D2ADF52-6F06-7C43-B4CA-FF7F7C1EC135}" name="Column74"/>
-    <tableColumn id="75" xr3:uid="{D6168643-97DB-BD45-82AB-64ADB282D15F}" name="Column75"/>
-    <tableColumn id="76" xr3:uid="{65A6C235-5A1F-674E-A40C-257A8ABCC89B}" name="Column76"/>
-    <tableColumn id="77" xr3:uid="{EF34B780-2035-EC4A-91DB-4B370EC35C36}" name="Column77"/>
-    <tableColumn id="78" xr3:uid="{5CECA9A4-F4F9-CA4F-85B6-529FCB487C97}" name="Column78"/>
-    <tableColumn id="79" xr3:uid="{8305CD12-B115-A349-9B3F-D99D10D8851F}" name="Column79"/>
-    <tableColumn id="80" xr3:uid="{02CC943B-F414-6D40-A083-4C9BB55E18D5}" name="Column80"/>
-    <tableColumn id="81" xr3:uid="{C676B933-F303-3A47-B724-223A042643E3}" name="Column81"/>
-    <tableColumn id="82" xr3:uid="{7B020FD2-2180-194C-89D2-0D136A7DAE4C}" name="Column82"/>
-    <tableColumn id="83" xr3:uid="{E371C2C0-40DC-7A48-9476-C2F787F4767D}" name="Column83"/>
-    <tableColumn id="84" xr3:uid="{2F78D26E-098B-3E46-8710-19C9764E4F99}" name="Column84"/>
-    <tableColumn id="85" xr3:uid="{075D16AA-A0D9-4843-A399-FB5823117816}" name="Column85"/>
-    <tableColumn id="86" xr3:uid="{5FD9702D-8712-5B41-BFF2-96CAF1282AF7}" name="Column86"/>
-    <tableColumn id="87" xr3:uid="{FAC58C81-E7EE-B64A-BDFE-E2C2F32B76DF}" name="Column87"/>
-    <tableColumn id="88" xr3:uid="{908C3FD4-7A71-0A45-892B-769D9010C288}" name="Column88"/>
-    <tableColumn id="89" xr3:uid="{0410719E-9665-3142-AEF4-0738B8B30A95}" name="Column89"/>
-    <tableColumn id="90" xr3:uid="{B6BA2716-4286-EB40-A8BD-6A208FAB2F2C}" name="Column90"/>
-    <tableColumn id="91" xr3:uid="{263C8CB2-BF0B-504E-A605-83B42A1E7429}" name="Column91"/>
-    <tableColumn id="92" xr3:uid="{9FE4C4BA-6185-FB49-8540-D0768DB7631C}" name="Column92"/>
-    <tableColumn id="93" xr3:uid="{88FA886C-96CA-954F-9FFC-DECEDEC35C0F}" name="Column93"/>
-    <tableColumn id="94" xr3:uid="{499ABD47-84FC-624B-BD25-58EDCC8E9E36}" name="Column94"/>
-    <tableColumn id="95" xr3:uid="{4AB2A3DC-C755-A148-ADCF-E20128B583E4}" name="Column95"/>
-    <tableColumn id="96" xr3:uid="{B1F4F5AF-1403-244F-8947-1F19B54BDF54}" name="Column96"/>
-    <tableColumn id="97" xr3:uid="{2D600CF0-D780-4F46-BBA2-ECF7E5B1AECB}" name="Column97"/>
-    <tableColumn id="98" xr3:uid="{BC92E869-5A3A-274D-85F9-739D89E657B4}" name="Column98"/>
-    <tableColumn id="99" xr3:uid="{B1590775-1891-594C-8CC4-0D0E0163C7D5}" name="Column99"/>
-    <tableColumn id="100" xr3:uid="{476F2B96-38A1-644C-A069-122F577F19D8}" name="Column100"/>
-    <tableColumn id="101" xr3:uid="{EAE869DE-4CC2-3441-AC39-0A3CF9C8A309}" name="Column101"/>
-    <tableColumn id="102" xr3:uid="{50399367-8702-8243-990B-DDA51F7C1BD5}" name="Column102"/>
-    <tableColumn id="103" xr3:uid="{EC949B4A-79F6-2844-A2C9-548835D1AD43}" name="Column103"/>
-    <tableColumn id="104" xr3:uid="{F239BF70-762D-6A4E-84C3-5BD3ADFB6ED2}" name="Column104"/>
-    <tableColumn id="105" xr3:uid="{323A2B3A-6BBA-4840-B31A-5BFD7906F578}" name="Column105"/>
-    <tableColumn id="106" xr3:uid="{E835242F-9C72-1545-A7EA-001C7B73EE74}" name="Column106"/>
-    <tableColumn id="107" xr3:uid="{6FB5FFB8-924B-5142-B46A-138042D173ED}" name="Column107"/>
-    <tableColumn id="108" xr3:uid="{4F31C168-BABC-0C49-8B26-69F1A4643EA9}" name="Column108"/>
-    <tableColumn id="109" xr3:uid="{21A11CBC-65DD-744E-9E09-217034C5646C}" name="Column109"/>
-    <tableColumn id="110" xr3:uid="{11453922-C320-4048-92D6-E723FF1A97D7}" name="Column110"/>
-    <tableColumn id="111" xr3:uid="{4183AE3D-C71F-F445-A5FA-E7B36FE5D7FB}" name="Column111"/>
-    <tableColumn id="112" xr3:uid="{27AC0A57-BEFD-854D-BE17-E340E7CD365C}" name="Column112"/>
-    <tableColumn id="113" xr3:uid="{97DF728B-87AD-AA4E-8585-A5A40A662A3D}" name="Column113"/>
-    <tableColumn id="114" xr3:uid="{C3587C35-71C2-504B-8F7D-CC91697B5399}" name="Column114"/>
-    <tableColumn id="115" xr3:uid="{B7693E51-4BE3-8E43-9BAF-CC3F39DDB2F2}" name="Column115"/>
-    <tableColumn id="116" xr3:uid="{3745F831-5587-D843-9F64-BEE89B076D4E}" name="Column116"/>
-    <tableColumn id="117" xr3:uid="{23D88BEA-4A6C-FF4D-8435-1455AF50163D}" name="Column117"/>
-    <tableColumn id="118" xr3:uid="{715452F2-602B-8B44-8920-5AE73847DE97}" name="Column118"/>
-    <tableColumn id="119" xr3:uid="{9118468D-EFC3-B246-9518-044DFB12DB32}" name="Column119"/>
-    <tableColumn id="120" xr3:uid="{4CC5FD5F-1AEC-9542-BD3D-82A97A38B584}" name="Column120"/>
-    <tableColumn id="121" xr3:uid="{765DE7FA-47CB-D848-BE34-CE6835EEBF4D}" name="Column121"/>
-    <tableColumn id="122" xr3:uid="{4B881FDC-0383-1C41-A4EF-D2F7650BC448}" name="Column122"/>
-    <tableColumn id="123" xr3:uid="{BC9B0429-5B46-B549-A3DF-3CEFF27A79AF}" name="Column123"/>
-    <tableColumn id="124" xr3:uid="{60B17B70-82EC-3A42-8526-33A15A522ED3}" name="Column124"/>
-    <tableColumn id="125" xr3:uid="{38EDE6E2-D131-B54A-BE13-B08C410BA5C0}" name="Column125"/>
-    <tableColumn id="126" xr3:uid="{2B543BB1-0458-2242-80F1-6462E810F234}" name="Column126"/>
-    <tableColumn id="127" xr3:uid="{5DF84532-B50B-5942-B04C-651AA644D81F}" name="Column127"/>
-    <tableColumn id="128" xr3:uid="{848BAB0C-134E-DE4A-AA53-6308B37B5694}" name="Column128"/>
-    <tableColumn id="129" xr3:uid="{D6F9F130-F066-1445-84B0-5CC9501EE3CC}" name="Column129"/>
-    <tableColumn id="130" xr3:uid="{962FE998-0C6A-464F-829F-C7D82381B0FE}" name="Column130"/>
-    <tableColumn id="131" xr3:uid="{EBF9E42C-84ED-D948-A4BA-4BA149C3F2D3}" name="Column131"/>
-    <tableColumn id="132" xr3:uid="{86E823F1-100D-AB4B-AFF9-0276715DB1BD}" name="Column132"/>
-    <tableColumn id="133" xr3:uid="{483D3F1C-F6E6-974B-910E-687B5D02567F}" name="Column133"/>
-    <tableColumn id="134" xr3:uid="{4CC84DC8-FE9B-1B4B-80C0-9EA0093D210D}" name="Column134"/>
-    <tableColumn id="135" xr3:uid="{14271318-CB1D-574E-A067-351503982CE5}" name="Column135"/>
-    <tableColumn id="136" xr3:uid="{9FB89323-1AAB-9F46-A532-0732900C7880}" name="Column136"/>
-    <tableColumn id="137" xr3:uid="{7C28CB35-6C63-4247-8746-1D033CE6428A}" name="Column137"/>
-    <tableColumn id="138" xr3:uid="{EFE4E171-00F4-9147-A45E-8F2780C9CF67}" name="Column138"/>
-    <tableColumn id="139" xr3:uid="{BD1A4515-45D2-1943-A2F2-B1BC527D21C2}" name="Column139"/>
-    <tableColumn id="140" xr3:uid="{35978ABE-90A3-1242-9721-A6821BFC4AFD}" name="Column140"/>
-    <tableColumn id="141" xr3:uid="{E8F8EB7F-8E85-434F-B7F6-B57A7B01F9B6}" name="Column141"/>
-    <tableColumn id="142" xr3:uid="{5F70649C-380E-0147-9C78-62D90F3EB9A9}" name="Column142"/>
-    <tableColumn id="143" xr3:uid="{DC38B4F0-4862-4E49-8901-FE839DE45332}" name="Column143"/>
-    <tableColumn id="144" xr3:uid="{4FFFFA68-89DF-C248-BE89-D1148811EE1F}" name="Column144"/>
-    <tableColumn id="145" xr3:uid="{2E2D6EF0-494C-F84F-A39B-952AB03809E0}" name="Column145"/>
-    <tableColumn id="146" xr3:uid="{816FDBB0-822C-E54F-9F7F-F37E4914A428}" name="Column146"/>
-    <tableColumn id="147" xr3:uid="{AE991067-8965-C940-9942-7107820DD9C1}" name="Column147"/>
-    <tableColumn id="148" xr3:uid="{AFDCBF3D-FB36-0844-916F-795633F7670E}" name="Column148"/>
-    <tableColumn id="149" xr3:uid="{DA1EC3EC-A760-FB40-90B8-18A9E4FB55D9}" name="Column149"/>
-    <tableColumn id="150" xr3:uid="{20863F79-0110-8D47-8700-D982C5C7BB38}" name="Column150"/>
-    <tableColumn id="151" xr3:uid="{B8956237-4BAC-2549-9F44-4D7BA2D753B9}" name="Column151"/>
-    <tableColumn id="152" xr3:uid="{9982140C-37FA-BA4F-BACB-5B47C1C86495}" name="Column152"/>
-    <tableColumn id="153" xr3:uid="{B98640F4-AD7F-D542-AFAB-C4DC4ED6F363}" name="Column153"/>
-    <tableColumn id="154" xr3:uid="{5694F993-CF9F-BC40-9BB6-046D7A19348F}" name="Column154"/>
-    <tableColumn id="155" xr3:uid="{6900E99B-59B7-6A46-8585-7497FC25BB61}" name="Column155"/>
-    <tableColumn id="156" xr3:uid="{7D833EF4-183D-3F45-B874-38469CB95F4E}" name="Column156"/>
-    <tableColumn id="157" xr3:uid="{7C9D4218-8D83-2643-A17F-CC67E5DFB689}" name="Column157"/>
-    <tableColumn id="158" xr3:uid="{9DC99457-EBF9-0F4A-8D48-11534E5BE689}" name="Column158"/>
-    <tableColumn id="159" xr3:uid="{5B31796D-2564-7143-9765-8AC6585EF14D}" name="Column159"/>
-    <tableColumn id="160" xr3:uid="{68F75BA6-5AC2-A243-AD54-A40B6DA70DEF}" name="Column160"/>
-    <tableColumn id="161" xr3:uid="{EBD58CB1-9E98-5D4F-84EA-12FDD66E1CA8}" name="Column161"/>
-    <tableColumn id="162" xr3:uid="{23ABCAE5-3AB8-EA4A-B5E2-0821CCA165B1}" name="Column162"/>
-    <tableColumn id="163" xr3:uid="{ACD7D652-CC5D-C744-B799-D3738D125320}" name="Column163"/>
-    <tableColumn id="164" xr3:uid="{6F526CF1-C465-954A-80E8-6DB8EE4B8E35}" name="Column164"/>
-    <tableColumn id="165" xr3:uid="{03FF33B4-4C0E-1C4C-82A6-3CE7E123817E}" name="Column165"/>
-    <tableColumn id="166" xr3:uid="{B666166C-4D0C-9746-B45C-8671F06B768D}" name="Column166"/>
-    <tableColumn id="167" xr3:uid="{C6AF1B1B-5D1F-6C40-A0C9-F15848DBEAB6}" name="Column167"/>
-    <tableColumn id="168" xr3:uid="{4F084934-5770-2A42-9023-03E1785D3E5B}" name="Column168"/>
-    <tableColumn id="169" xr3:uid="{CD93FCFE-CEDE-9540-8702-FCF57445805D}" name="Column169"/>
-    <tableColumn id="170" xr3:uid="{64577A86-0AAC-E04B-A589-058B92A93A2E}" name="Column170"/>
-    <tableColumn id="171" xr3:uid="{B43FC3F1-E979-9844-AE40-2EB4A222E773}" name="Column171"/>
-    <tableColumn id="172" xr3:uid="{3C7C26A7-AF6B-7040-8DAE-1EF35699180F}" name="Column172"/>
-    <tableColumn id="173" xr3:uid="{D734B9E6-CFA5-6B49-9E46-BF908D314457}" name="Column173"/>
-    <tableColumn id="174" xr3:uid="{E36B2A47-7E5D-B545-990C-8076B75DADD6}" name="Column174"/>
-    <tableColumn id="175" xr3:uid="{BF4DC640-74CA-7949-AC17-FF656DC1DFDC}" name="Column175"/>
-    <tableColumn id="176" xr3:uid="{45416875-3419-2D46-B1C5-EAB00936772B}" name="Column176"/>
-    <tableColumn id="177" xr3:uid="{7BDB0B0B-426E-C342-9ABF-C98FA3D554B3}" name="Column177"/>
-    <tableColumn id="178" xr3:uid="{A6732418-C077-C644-9458-3490A668ECC7}" name="Column178"/>
-    <tableColumn id="179" xr3:uid="{C8BB2697-0D20-3B4B-93A7-93B540F9D959}" name="Column179"/>
-    <tableColumn id="180" xr3:uid="{6F8716BF-6DCD-3544-8E66-4EA1DBA17526}" name="Column180"/>
-    <tableColumn id="181" xr3:uid="{5164AE14-915E-DB44-8048-80DE8B5459CA}" name="Column181"/>
-    <tableColumn id="182" xr3:uid="{5AD8140D-20A1-5642-968F-8E915D51D896}" name="Column182"/>
-    <tableColumn id="183" xr3:uid="{D6A54DC6-473B-9645-951D-E0317CD84F1F}" name="Column183"/>
-    <tableColumn id="184" xr3:uid="{E1E4A8C6-F395-A843-BE70-85CB20040388}" name="Column184"/>
-    <tableColumn id="185" xr3:uid="{82099AB1-586D-7F4A-9B88-3D9D108460B8}" name="Column185"/>
-    <tableColumn id="186" xr3:uid="{78542A51-1414-4A49-8770-C6DAC1A637FC}" name="Column186"/>
-    <tableColumn id="187" xr3:uid="{AF4433C5-E5AF-384C-9EDD-877BD3709A0E}" name="Column187"/>
-    <tableColumn id="188" xr3:uid="{A5802C10-2C1E-B245-9657-31940FA6E373}" name="Column188"/>
-    <tableColumn id="189" xr3:uid="{DE1A3132-DA8C-A349-B77D-8E17A8DB50B8}" name="Column189"/>
-    <tableColumn id="190" xr3:uid="{E1AA7392-645D-0445-87AB-BA059600B4D4}" name="Column190"/>
-    <tableColumn id="191" xr3:uid="{D25F0200-62BE-7648-B59A-48EC9FDBC890}" name="Column191"/>
-    <tableColumn id="192" xr3:uid="{76913ECD-9C42-4347-AAD3-E38D0CF93AAF}" name="Column192"/>
-    <tableColumn id="193" xr3:uid="{FCF42893-39D3-5D4F-A57A-77540AF055FB}" name="Column193"/>
-    <tableColumn id="194" xr3:uid="{427E2AD0-8AD7-5646-9306-1FCD995482CF}" name="Column194"/>
-    <tableColumn id="195" xr3:uid="{F0F5619A-2362-7548-96F7-5D341A3C5B34}" name="Column195"/>
-    <tableColumn id="196" xr3:uid="{8C707459-8CFD-7840-B999-41897E39C80B}" name="Column196"/>
-    <tableColumn id="197" xr3:uid="{B9702B3C-55CF-574A-A0F9-13C4F61568A2}" name="Column197"/>
-    <tableColumn id="198" xr3:uid="{0328DDA7-AA35-E543-AD9E-3D487A6BAFB6}" name="Column198"/>
-    <tableColumn id="199" xr3:uid="{12BAE1E6-2847-194B-9501-9CAC4FDB4C33}" name="Column199"/>
-    <tableColumn id="200" xr3:uid="{3DD00A85-B2A3-4D4F-9D30-13C93B4F45DC}" name="Column200"/>
-    <tableColumn id="201" xr3:uid="{AE5418AC-66A7-D04D-A0F2-1D98246675C1}" name="Column201"/>
-    <tableColumn id="202" xr3:uid="{BA546E49-AB28-6147-8D76-DA1EF99506BF}" name="Column202"/>
-    <tableColumn id="203" xr3:uid="{2A648970-8562-314B-806E-1354BD80B24E}" name="Column203"/>
-    <tableColumn id="204" xr3:uid="{7E0D8667-237B-5F4E-9C6B-AF7BC204106B}" name="Column204"/>
-    <tableColumn id="205" xr3:uid="{F5DBBCF9-8934-0C4F-B91C-1CE744C3FCAB}" name="Column205"/>
-    <tableColumn id="206" xr3:uid="{AFC099D6-4240-1E48-95DD-86E21D29BC13}" name="Column206"/>
-    <tableColumn id="207" xr3:uid="{5AE9A830-F1A3-BD44-ABC9-2BDFC379C56C}" name="Column207"/>
-    <tableColumn id="208" xr3:uid="{E7A54955-AEBF-2144-950A-E741DB317F63}" name="Column208"/>
-    <tableColumn id="209" xr3:uid="{56C18E08-B7E9-D94B-B036-8530A605EBA6}" name="Column209"/>
-    <tableColumn id="210" xr3:uid="{A7689784-D457-CF43-AC5B-66020ECE9E91}" name="Column210"/>
-    <tableColumn id="211" xr3:uid="{838A25F9-1AB2-6D4D-8C78-266F659FD46F}" name="Column211"/>
-    <tableColumn id="212" xr3:uid="{15B19708-F08B-6F45-98CD-4B99FCFAF3F6}" name="Column212"/>
-    <tableColumn id="213" xr3:uid="{5A27E618-E902-CA44-9848-E59D63B8E801}" name="Column213"/>
-    <tableColumn id="214" xr3:uid="{0C64A710-5E19-DE49-8D90-475D88DA0519}" name="Column214"/>
-    <tableColumn id="215" xr3:uid="{6198317F-646B-C741-8457-840D22C88E0F}" name="Column215"/>
-    <tableColumn id="216" xr3:uid="{DFA48FBE-7A12-AC47-9790-63223BD88331}" name="Column216"/>
-    <tableColumn id="217" xr3:uid="{A4EC5688-6EFC-0542-BF7C-1A6AFB014286}" name="Column217"/>
-    <tableColumn id="218" xr3:uid="{A25D41AB-EDA7-3046-9423-943AE6DA4D8A}" name="Column218"/>
-    <tableColumn id="219" xr3:uid="{0ECAECC1-7734-6F4C-9E6B-FFF53455B875}" name="Column219"/>
-    <tableColumn id="220" xr3:uid="{D2EF3AB3-86E7-9F48-9488-D043FF303303}" name="Column220"/>
-    <tableColumn id="221" xr3:uid="{93D6DCE9-5BE1-F348-84A8-A56177889467}" name="Column221"/>
-    <tableColumn id="222" xr3:uid="{7761F5E3-8B01-004F-9E20-E22104976D34}" name="Column222"/>
-    <tableColumn id="223" xr3:uid="{40733347-E84E-8246-843C-01879D26F420}" name="Column223"/>
-    <tableColumn id="224" xr3:uid="{E0BE2FFB-66F0-C64A-8041-1FB2C10E0452}" name="Column224"/>
-    <tableColumn id="225" xr3:uid="{39B6FFB5-3AB3-D446-8E06-49533AE1B8EA}" name="Column225"/>
-    <tableColumn id="226" xr3:uid="{D9D5A121-D2C4-7041-9E9A-44D5D8D21877}" name="Column226"/>
-    <tableColumn id="227" xr3:uid="{A972385A-6260-0D41-9976-8DFF6ACDF91F}" name="Column227"/>
-    <tableColumn id="228" xr3:uid="{5A5AF4A9-4B4A-F241-B49B-9A35B4301B24}" name="Column228"/>
-    <tableColumn id="229" xr3:uid="{9F1C79BB-9761-2E4F-8F55-36EEF189BE1C}" name="Column229"/>
-    <tableColumn id="230" xr3:uid="{2DC071B4-F6EE-4A47-AD86-A69E90659A94}" name="Column230"/>
-    <tableColumn id="231" xr3:uid="{456EAF26-1327-DC45-A468-87446AB16D6D}" name="Column231"/>
-    <tableColumn id="232" xr3:uid="{84F80C4F-AA33-5D4F-984C-20B8BB967DF6}" name="Column232"/>
-    <tableColumn id="233" xr3:uid="{E7244622-9827-714B-BA58-C2FB00558452}" name="Column233"/>
-    <tableColumn id="234" xr3:uid="{E3437CAD-017E-574A-8D50-02EAFDB7B3D4}" name="Column234"/>
-    <tableColumn id="235" xr3:uid="{2E5A8A2C-0A24-874E-8079-024BA69E4D58}" name="Column235"/>
-    <tableColumn id="236" xr3:uid="{E18D49B7-55BE-BB44-9A23-6024641F3F10}" name="Column236"/>
-    <tableColumn id="237" xr3:uid="{E6BF031A-6053-F34E-8FB4-94877F6E186C}" name="Column237"/>
-    <tableColumn id="238" xr3:uid="{88EE7B4F-87C4-9049-9655-DEB67CDE2322}" name="Column238"/>
-    <tableColumn id="239" xr3:uid="{0A14F4E2-4BAA-9840-A35F-0321B34E9615}" name="Column239"/>
-    <tableColumn id="240" xr3:uid="{430F31BD-491D-4C4D-9D8E-92C129B928BD}" name="Column240"/>
-    <tableColumn id="241" xr3:uid="{FDABA1A6-6404-E640-9E74-CADE5CB4D46B}" name="Column241"/>
-    <tableColumn id="242" xr3:uid="{0DF84C9B-FEE1-0C4C-8F6A-F581891032D8}" name="Column242"/>
-    <tableColumn id="243" xr3:uid="{7FCAC4B1-B873-5643-BF31-DCAE74984739}" name="Column243"/>
-    <tableColumn id="244" xr3:uid="{E5231F9F-4286-F845-8649-7C87EA01EFBE}" name="Column244"/>
-    <tableColumn id="245" xr3:uid="{A592676E-C556-F141-9CF5-9359DD516673}" name="Column245"/>
-    <tableColumn id="246" xr3:uid="{107BE0F5-FB2B-6043-850E-477F01FA7D19}" name="Column246"/>
-    <tableColumn id="247" xr3:uid="{A098A87F-ED34-5F46-A91B-884DBF0C8A79}" name="Column247"/>
-    <tableColumn id="248" xr3:uid="{6431E4A9-0941-964A-8E9E-1A077CCF697C}" name="Column248"/>
-    <tableColumn id="249" xr3:uid="{BC3087D0-13F6-F246-AC82-6B73991919A4}" name="Column249"/>
-    <tableColumn id="250" xr3:uid="{8CFED9A1-1EA0-814E-AA2A-B3301AF69F3F}" name="Column250"/>
-    <tableColumn id="251" xr3:uid="{519A3002-3CA9-CA42-B353-5009719A5194}" name="Column251"/>
-    <tableColumn id="252" xr3:uid="{914AA8FF-D9B3-0A4A-BFB0-03691440AB35}" name="Column252"/>
-    <tableColumn id="253" xr3:uid="{D10327E1-6911-7946-A965-ADB6D213CEE3}" name="Column253"/>
-    <tableColumn id="254" xr3:uid="{BA313AEB-EF74-DE41-98DE-08BC09C521D6}" name="Column254"/>
-    <tableColumn id="255" xr3:uid="{F4E5D983-DB9E-BB48-A8F9-58DA90A5C173}" name="Column255"/>
-    <tableColumn id="256" xr3:uid="{56A3A7EE-D22A-8F49-8CF9-A184E6C8F8F1}" name="Column256"/>
-    <tableColumn id="257" xr3:uid="{C12C922F-A270-D047-AE1B-C765BC316F15}" name="Column257"/>
-    <tableColumn id="258" xr3:uid="{DA6786C9-0B36-BC4C-96B6-31C3E197AC66}" name="Column258"/>
-    <tableColumn id="259" xr3:uid="{3C00318F-B698-EF45-B216-48CD523B4503}" name="Column259"/>
-    <tableColumn id="260" xr3:uid="{99FA68A8-5A91-2048-A4DD-D02A1BA5EA5B}" name="Column260"/>
-    <tableColumn id="261" xr3:uid="{03BAE3E7-E611-8A48-9BE0-97496CDBF552}" name="Column261"/>
-    <tableColumn id="262" xr3:uid="{ECC4E2AC-296B-F44A-A240-1F125EA1D82A}" name="Column262"/>
-    <tableColumn id="263" xr3:uid="{585EA80B-6DDB-6F4A-9142-0E9C7F8DC526}" name="Column263"/>
-    <tableColumn id="264" xr3:uid="{B388D2AD-7C8B-AA47-80BB-C40488EEED98}" name="Column264"/>
-    <tableColumn id="265" xr3:uid="{192A3771-DDAB-284E-9DD2-DFC965F6F466}" name="Column265"/>
-    <tableColumn id="266" xr3:uid="{5348C164-DFFD-1841-AAB8-1992EF76882F}" name="Column266"/>
-    <tableColumn id="267" xr3:uid="{2622E4D6-AD53-D04E-9EB0-01ED95833009}" name="Column267"/>
-    <tableColumn id="268" xr3:uid="{CD73090A-6941-EA40-A675-DB993B294093}" name="Column268"/>
-    <tableColumn id="269" xr3:uid="{084895CD-09EF-C34C-AC45-F810A0DA3819}" name="Column269"/>
-    <tableColumn id="270" xr3:uid="{C6AB3A2F-F030-1549-A1F8-89087A872F98}" name="Column270"/>
-    <tableColumn id="271" xr3:uid="{9934B820-AC4A-8544-8C85-8D2CCE31510D}" name="Column271"/>
-    <tableColumn id="272" xr3:uid="{179A0A3F-C21C-2B4B-ABB8-E4F1EF08C4F7}" name="Column272"/>
-    <tableColumn id="273" xr3:uid="{F6AA9A97-DB83-654A-9D76-F29B6EA224DD}" name="Column273"/>
-    <tableColumn id="274" xr3:uid="{65DB26D6-AE35-CB41-B7B6-84AA4B3ADEA2}" name="Column274"/>
-    <tableColumn id="275" xr3:uid="{1EF5A653-033C-CA46-921D-E60C7C5298F1}" name="Column275"/>
-    <tableColumn id="276" xr3:uid="{A1DEBB9B-F5E4-6742-B897-D488D0843FC4}" name="Column276"/>
-    <tableColumn id="277" xr3:uid="{1574852C-1511-494A-9C3D-DFBBFFC6B6C4}" name="Column277"/>
-    <tableColumn id="278" xr3:uid="{6BE55506-CDB3-1F4C-92DA-78E203938F8F}" name="Column278"/>
-    <tableColumn id="279" xr3:uid="{16F452B9-3C3A-D442-BF67-1675068A9378}" name="Column279"/>
-    <tableColumn id="280" xr3:uid="{39BC01FF-F2DC-534B-8138-1933B4F44BF4}" name="Column280"/>
-    <tableColumn id="281" xr3:uid="{0F2F6EA4-EC3B-D445-9C0F-442BA0FD0946}" name="Column281"/>
-    <tableColumn id="282" xr3:uid="{5F8C2325-D84A-834E-B8DA-B510F29F930F}" name="Column282"/>
-    <tableColumn id="283" xr3:uid="{68B3A4F1-A7A3-EE49-A8EE-1EA03526F5E0}" name="Column283"/>
-    <tableColumn id="284" xr3:uid="{E834B86E-0E24-8D43-949F-55BFF1F8DF60}" name="Column284"/>
-    <tableColumn id="285" xr3:uid="{A829740B-CA5F-054D-9418-00C4F7E0A55C}" name="Column285"/>
-    <tableColumn id="286" xr3:uid="{2EADD399-B33C-6641-AE06-89C8951225B2}" name="Column286"/>
-    <tableColumn id="287" xr3:uid="{A29B7E4E-4BE6-9B4F-8298-59325F85B5BF}" name="Column287"/>
-    <tableColumn id="288" xr3:uid="{22B6EB9C-4F60-2149-B7A0-54C1C5E86ED5}" name="Column288"/>
-    <tableColumn id="289" xr3:uid="{99519AA4-3ECA-914F-B142-E684965754C8}" name="Column289"/>
-    <tableColumn id="290" xr3:uid="{9422FCD6-624B-A94C-9B9B-9E1E70AFAE32}" name="Column290"/>
-    <tableColumn id="291" xr3:uid="{9053671F-41AA-674D-9445-1BCAA64DB88F}" name="Column291"/>
-    <tableColumn id="292" xr3:uid="{B30F880D-E5CD-7C44-B961-863521F51338}" name="Column292"/>
-    <tableColumn id="293" xr3:uid="{C7D0FB80-0295-0F40-B352-098D54FDC014}" name="Column293"/>
-    <tableColumn id="294" xr3:uid="{FD428F4F-2171-2344-A8D0-AF541873C222}" name="Column294"/>
-    <tableColumn id="295" xr3:uid="{1E72E59D-641A-3B40-AC56-DE1F09DE9FEA}" name="Column295"/>
-    <tableColumn id="296" xr3:uid="{D74EF98F-0737-6E48-8D76-B3BB111658FA}" name="Column296"/>
-    <tableColumn id="297" xr3:uid="{D9E49845-FF42-8D42-BEA3-A67570499767}" name="Column297"/>
-    <tableColumn id="298" xr3:uid="{1BD378B9-E59C-2E46-B28E-AC2ACB53DED4}" name="Column298"/>
-    <tableColumn id="299" xr3:uid="{2B6BE068-527C-F94A-8447-4C5725F0117F}" name="Column299"/>
-    <tableColumn id="300" xr3:uid="{857084A9-C2A2-DB46-80BC-6A76F82DF7DC}" name="Column300"/>
-    <tableColumn id="301" xr3:uid="{642ACC75-00AC-A147-B7FD-D8DEECAF2F85}" name="Column301"/>
-    <tableColumn id="302" xr3:uid="{FFA7262F-DC17-804E-AC50-94A50BD3A5C3}" name="Column302"/>
-    <tableColumn id="303" xr3:uid="{11DC0A68-6949-7244-B66D-483D940A8EFA}" name="Column303"/>
-    <tableColumn id="304" xr3:uid="{551D6D7A-8815-5343-A493-B294D7FC3F46}" name="Column304"/>
-    <tableColumn id="305" xr3:uid="{3C3499A3-7621-F944-88C1-E3BC8783BD29}" name="Column305"/>
-    <tableColumn id="306" xr3:uid="{6B5374C1-E455-1340-8028-684A47E80904}" name="Column306"/>
-    <tableColumn id="307" xr3:uid="{349C4A20-7BC4-E84C-99A9-E0A7920518B8}" name="Column307"/>
-    <tableColumn id="308" xr3:uid="{322F0715-A72A-A645-A410-3E53C224CA23}" name="Column308"/>
-    <tableColumn id="309" xr3:uid="{7BA515AB-F729-094F-8BFC-53CF708F68CC}" name="Column309"/>
-    <tableColumn id="310" xr3:uid="{9E2FBDF3-F76B-AF41-A13F-87DD4DE24A68}" name="Column310"/>
-    <tableColumn id="311" xr3:uid="{83E2B6A5-5AF9-7449-9775-E33F9DCB959E}" name="Column311"/>
-    <tableColumn id="312" xr3:uid="{B7792959-54D5-E047-A392-5F14D1DBF841}" name="Column312"/>
-    <tableColumn id="313" xr3:uid="{479C54A8-442F-4443-9B7A-8A7A64B7F401}" name="Column313"/>
-    <tableColumn id="314" xr3:uid="{02F44189-F1D4-7F46-BFCA-0D49E842CC7C}" name="Column314"/>
-    <tableColumn id="315" xr3:uid="{6C5F3B86-03E3-944B-80E5-498BD697E8DB}" name="Column315"/>
-    <tableColumn id="316" xr3:uid="{055ECA9D-4446-6B44-8CE9-563DE4A668D6}" name="Column316"/>
-    <tableColumn id="317" xr3:uid="{977E3243-4053-3B46-BE63-3116766CDEE1}" name="Column317"/>
-    <tableColumn id="318" xr3:uid="{72C74507-AEF4-2E44-A35B-57FB0BB88336}" name="Column318"/>
-    <tableColumn id="319" xr3:uid="{BB236172-D562-FE4C-AC64-C40D15979227}" name="Column319"/>
-    <tableColumn id="320" xr3:uid="{8AB4522A-78A5-6F42-BE4C-A612F503D550}" name="Column320"/>
-    <tableColumn id="321" xr3:uid="{83BE506B-319A-1045-B929-3A0EB3A1C215}" name="Column321"/>
-    <tableColumn id="322" xr3:uid="{5B0000FB-1032-844D-A28D-C61844B218F1}" name="Column322"/>
-    <tableColumn id="323" xr3:uid="{AEA19691-EA4C-C54E-B64D-FAACC79D21DE}" name="Column323"/>
-    <tableColumn id="324" xr3:uid="{F2C59335-50B6-364D-AA4C-A513CB7136AF}" name="Column324"/>
-    <tableColumn id="325" xr3:uid="{A400BA9B-5AAF-C34D-8C5C-86959D0546D4}" name="Column325"/>
-    <tableColumn id="326" xr3:uid="{77D38BD6-DFBC-564A-B70E-18926349F93A}" name="Column326"/>
-    <tableColumn id="327" xr3:uid="{68939285-721A-BE4E-AD1E-4725E2D5A8D7}" name="Column327"/>
-    <tableColumn id="328" xr3:uid="{AB9889B1-03DF-2E40-B588-B4B0A6423A81}" name="Column328"/>
-    <tableColumn id="329" xr3:uid="{F24408C8-A007-044A-9D90-4687FD679619}" name="Column329"/>
-    <tableColumn id="330" xr3:uid="{A8FE161B-EB5F-E540-A060-51A8B3AF8296}" name="Column330"/>
-    <tableColumn id="331" xr3:uid="{A0E0AC1F-3B91-4B49-8C37-BB4D9394C11C}" name="Column331"/>
-    <tableColumn id="332" xr3:uid="{6807F8C5-CBD4-2849-AFD6-357C8B556A9A}" name="Column332"/>
-    <tableColumn id="333" xr3:uid="{00D00C64-1560-E742-8DE0-F3FDDDD25401}" name="Column333"/>
-    <tableColumn id="334" xr3:uid="{1F726C73-2374-9C4E-ACD0-407213A34254}" name="Column334"/>
-    <tableColumn id="335" xr3:uid="{02BC053A-6AE5-A04D-B726-D61CA2578F26}" name="Column335"/>
-    <tableColumn id="336" xr3:uid="{B0D46AE7-FFE1-5A4A-8601-434818B7C9B2}" name="Column336"/>
-    <tableColumn id="337" xr3:uid="{F84D18AB-43DE-174A-B84B-7C342F083FD7}" name="Column337"/>
-    <tableColumn id="338" xr3:uid="{8879194F-772E-934F-939F-5AC041E4F1C8}" name="Column338"/>
-    <tableColumn id="339" xr3:uid="{D7A3A872-AEDC-704B-9C4B-D48FA5F2B64A}" name="Column339"/>
-    <tableColumn id="340" xr3:uid="{FE38F0BF-E56C-B346-AB08-7E0F45C955B8}" name="Column340"/>
-    <tableColumn id="341" xr3:uid="{EE50EC6A-DAA7-F249-8F47-10F3C664CF53}" name="Column341"/>
-    <tableColumn id="342" xr3:uid="{883C0D4C-7373-B447-94F7-091A73BA0F25}" name="Column342"/>
-    <tableColumn id="343" xr3:uid="{231CB5FA-5ED9-0D46-8481-139C4155A163}" name="Column343"/>
-    <tableColumn id="344" xr3:uid="{308FB055-61B4-814B-AFA2-1CBF01678662}" name="Column344"/>
-    <tableColumn id="345" xr3:uid="{64E2153A-85B8-EA4F-8C86-2AE3ABB42141}" name="Column345"/>
-    <tableColumn id="346" xr3:uid="{FE4C0CFC-51AB-114A-B054-5F292CA3BAEA}" name="Column346"/>
-    <tableColumn id="347" xr3:uid="{F79166DF-AEDD-F549-9FB0-6C8AD842BB3A}" name="Column347"/>
-    <tableColumn id="348" xr3:uid="{BFCD11C8-041A-394D-BAE0-623CC81B48EB}" name="Column348"/>
-    <tableColumn id="349" xr3:uid="{0E2E8B59-E64A-6C41-A171-F4DA2F7DBC01}" name="Column349"/>
-    <tableColumn id="350" xr3:uid="{59D8BBF4-7B0B-0C48-BD3F-553F2DED0F8B}" name="Column350"/>
-    <tableColumn id="351" xr3:uid="{CA4697E8-8612-794C-B513-04D66A1474E9}" name="Column351"/>
-    <tableColumn id="352" xr3:uid="{FF985753-4ABE-464C-875F-7B202B23FF06}" name="Column352"/>
-    <tableColumn id="353" xr3:uid="{F70C4769-7225-3D4A-A6B1-2157854C15A6}" name="Column353"/>
-    <tableColumn id="354" xr3:uid="{961AA762-B0A1-384F-B04F-43609EEC86E3}" name="Column354"/>
-    <tableColumn id="355" xr3:uid="{C4945426-D7AE-C344-910D-029583B5F308}" name="Column355"/>
-    <tableColumn id="356" xr3:uid="{E1D9121C-07D5-304F-8E76-4F7F8FE097A3}" name="Column356"/>
-    <tableColumn id="357" xr3:uid="{3FC20F9B-450B-0D4B-97CA-9388F945860C}" name="Column357"/>
-    <tableColumn id="358" xr3:uid="{BEE11E6C-050F-EB4A-A8F3-26AFF4EC5F54}" name="Column358"/>
-    <tableColumn id="359" xr3:uid="{A6D43D10-6C33-B948-8D88-44A0811BC1E8}" name="Column359"/>
-    <tableColumn id="360" xr3:uid="{8B8BD04B-8BC3-9948-B0F5-CA8471ADC271}" name="Column360"/>
-    <tableColumn id="361" xr3:uid="{295C71C5-D61B-0E43-B776-050DA59E1239}" name="Column361"/>
-    <tableColumn id="362" xr3:uid="{2EB1C009-F9BE-5340-9611-BBCB6BC87B0C}" name="Column362"/>
-    <tableColumn id="363" xr3:uid="{169BB6EC-6F83-6741-9506-0C2BD4FA268C}" name="Column363"/>
-    <tableColumn id="364" xr3:uid="{585A970A-17C9-F849-B193-FB3C0A8222AE}" name="Column364"/>
-    <tableColumn id="365" xr3:uid="{0D6AE1B5-3AEE-8140-8744-0DDA5E67143E}" name="Column365"/>
-    <tableColumn id="366" xr3:uid="{5AD33606-50C1-CC40-B0DA-C7BEFFA719CB}" name="Column366"/>
-    <tableColumn id="367" xr3:uid="{2B596EE4-D2B8-8948-957B-2BD38D44AB6E}" name="Column367"/>
-    <tableColumn id="368" xr3:uid="{65882172-6193-B74F-9E9E-35C25AF16918}" name="Column368"/>
-    <tableColumn id="369" xr3:uid="{A57009F4-77A5-6B4B-AB2D-AFA724CAC3C6}" name="Column369"/>
-    <tableColumn id="370" xr3:uid="{120832A5-E043-594A-88DF-7DD8CF8FC153}" name="Column370"/>
-    <tableColumn id="371" xr3:uid="{563DFA42-A02F-7049-A093-7C4C2BD1F359}" name="Column371"/>
-    <tableColumn id="372" xr3:uid="{54BA87A8-BB0C-9046-ABFB-BB263C903C3A}" name="Column372"/>
-    <tableColumn id="373" xr3:uid="{03E82236-3823-B74F-BC78-55D004F9C0F0}" name="Column373"/>
-    <tableColumn id="374" xr3:uid="{6A68A22C-ED55-FC46-977A-67785C72EEEE}" name="Column374"/>
-    <tableColumn id="375" xr3:uid="{76409C05-3250-8048-A346-06A48D66DB87}" name="Column375"/>
-    <tableColumn id="376" xr3:uid="{B6775899-CDF9-5C47-8C38-E13FF46FD3D1}" name="Column376"/>
-    <tableColumn id="377" xr3:uid="{FE5B2398-54D3-3443-A2E5-EF46CEAF001C}" name="Column377"/>
-    <tableColumn id="378" xr3:uid="{C86BE159-4646-7146-963C-FAC1E83FA263}" name="Column378"/>
-    <tableColumn id="379" xr3:uid="{31907C3F-1719-DD40-AAD3-3DC9A16157CF}" name="Column379"/>
-    <tableColumn id="380" xr3:uid="{72DA6444-BD47-FA4F-8D21-A3742D8B96F0}" name="Column380"/>
-    <tableColumn id="381" xr3:uid="{357A673B-FE60-BF4A-92FA-ABF55C5E5B07}" name="Column381"/>
-    <tableColumn id="382" xr3:uid="{D63AF768-8862-7B45-86AE-91B23E45C065}" name="Column382"/>
-    <tableColumn id="383" xr3:uid="{47FD62E8-EF87-FF48-9E91-32B318ED355F}" name="Column383"/>
-    <tableColumn id="384" xr3:uid="{9624884C-BDB7-F94F-8F1D-3CF7426C2B9B}" name="Column384"/>
-    <tableColumn id="385" xr3:uid="{8AFF12A2-61BF-8E4A-A4B0-A96E82E1EBC8}" name="Column385"/>
-    <tableColumn id="386" xr3:uid="{2D099742-ABA9-F645-AA8A-EB19F8350696}" name="Column386"/>
-    <tableColumn id="387" xr3:uid="{762BCA9F-3BE2-5B40-A71F-AD11C69DEEBC}" name="Column387"/>
-    <tableColumn id="388" xr3:uid="{2C953909-0B83-6948-963B-2833E2234190}" name="Column388"/>
-    <tableColumn id="389" xr3:uid="{0388C097-572C-384F-B648-E67412914C6F}" name="Column389"/>
-    <tableColumn id="390" xr3:uid="{3721C24D-9748-414A-983C-7D35E1F30029}" name="Column390"/>
-    <tableColumn id="391" xr3:uid="{DB14258D-71A5-CB47-B9F0-56FA028242C8}" name="Column391"/>
-    <tableColumn id="392" xr3:uid="{B7C80E75-A8CB-0E40-8C2D-2C22762D5431}" name="Column392"/>
-    <tableColumn id="393" xr3:uid="{1D1497DB-1930-824F-968F-B44D870634F4}" name="Column393"/>
-    <tableColumn id="394" xr3:uid="{51FEC455-620D-5543-A997-135973CA2779}" name="Column394"/>
-    <tableColumn id="395" xr3:uid="{DBBB5DDA-68AA-B94A-A080-27AAF94A47CB}" name="Column395"/>
-    <tableColumn id="396" xr3:uid="{0674B00A-C85F-6543-9BA5-3104404C0D2E}" name="Column396"/>
-    <tableColumn id="397" xr3:uid="{40B1AB69-C228-DB46-AB22-4FD81978F978}" name="Column397"/>
-    <tableColumn id="398" xr3:uid="{0ABA418A-E2DF-6547-A867-6E093A8C88AA}" name="Column398"/>
-    <tableColumn id="399" xr3:uid="{C9BD4685-87A5-FC40-9827-20C8C2ABE438}" name="Column399"/>
-    <tableColumn id="400" xr3:uid="{89346769-675A-0145-922D-2B6C6308E0C2}" name="Column400"/>
-    <tableColumn id="401" xr3:uid="{34EFAE60-7BCD-3C48-85A6-36E1A57C4C69}" name="Column401"/>
-    <tableColumn id="402" xr3:uid="{A177DBDD-0ADA-6743-9657-46AA15A695FB}" name="Column402"/>
-    <tableColumn id="403" xr3:uid="{8334B40F-1C6C-2B47-9FA9-4238090BB77C}" name="Column403"/>
-    <tableColumn id="404" xr3:uid="{D5411D58-4AED-7D41-A03F-CF2E3142180A}" name="Column404"/>
-    <tableColumn id="405" xr3:uid="{0007B39C-E2C5-994A-8A42-A500D0F89EDB}" name="Column405"/>
-    <tableColumn id="406" xr3:uid="{AC2770CC-6DBF-4346-A7CA-7BA2401B77B5}" name="Column406"/>
-    <tableColumn id="407" xr3:uid="{8BF2F434-9CDF-3F46-8661-DFDA062DC1D8}" name="Column407"/>
-    <tableColumn id="408" xr3:uid="{5CF41030-F33C-9B41-9BC9-2105A2D60E53}" name="Column408"/>
-    <tableColumn id="409" xr3:uid="{60049941-5FAC-294C-945E-595D536FF161}" name="Column409"/>
-    <tableColumn id="410" xr3:uid="{6F03C869-BC3D-2247-97A5-420367322CCD}" name="Column410"/>
-    <tableColumn id="411" xr3:uid="{DB20320B-88FF-424C-B683-0EEEA62271EA}" name="Column411"/>
-    <tableColumn id="412" xr3:uid="{BEB65F90-E3B7-7747-B4A2-E2E9E09382E0}" name="Column412"/>
-    <tableColumn id="413" xr3:uid="{6C5DFB85-C6C4-DE44-93A3-D0DEECDE2877}" name="Column413"/>
-    <tableColumn id="414" xr3:uid="{02DB4CFE-7B3F-9E41-8E3B-EDE3774620CF}" name="Column414"/>
-    <tableColumn id="415" xr3:uid="{37510E46-14F9-8C4E-AF90-E93DB4C251AC}" name="Column415"/>
-    <tableColumn id="416" xr3:uid="{7FDB654B-1493-9B44-B9E8-B1B5DB4E9358}" name="Column416"/>
-    <tableColumn id="417" xr3:uid="{8D78EC92-B8FD-5B41-9137-488D0B2136C7}" name="Column417"/>
-    <tableColumn id="418" xr3:uid="{F1F99D6F-F2D8-F046-A7C6-2787A6F70572}" name="Column418"/>
-    <tableColumn id="419" xr3:uid="{9DD5F907-EE8F-3D4D-B522-9D9E403F998E}" name="Column419"/>
-    <tableColumn id="420" xr3:uid="{033EF59A-D92C-F94A-9677-96D7718A604B}" name="Column420"/>
-    <tableColumn id="421" xr3:uid="{145E2D68-B41D-7E49-A05E-38CBC3837104}" name="Column421"/>
-    <tableColumn id="422" xr3:uid="{01845D39-0142-BC42-94A8-645E02EDF6CC}" name="Column422"/>
-    <tableColumn id="423" xr3:uid="{38557490-0DD5-0A44-83AD-A805118D965C}" name="Column423"/>
-    <tableColumn id="424" xr3:uid="{B50A1899-F39C-5B4C-902D-C606AEEB2E5E}" name="Column424"/>
-    <tableColumn id="425" xr3:uid="{FC93ABB7-15D9-814B-9118-10AD72C6F041}" name="Column425"/>
-    <tableColumn id="426" xr3:uid="{29E6E1EC-8547-C54A-AF2E-A6A6B258920E}" name="Column426"/>
-    <tableColumn id="427" xr3:uid="{A059EECE-B185-474F-ADEA-C563CB93CA48}" name="Column427"/>
-    <tableColumn id="428" xr3:uid="{B09567D2-D701-0741-A734-4BEE6484382F}" name="Column428"/>
-    <tableColumn id="429" xr3:uid="{D8C97D64-2383-6347-9CF2-4CB5BC7B51ED}" name="Column429"/>
-    <tableColumn id="430" xr3:uid="{C2671AA8-2B61-3349-9C49-146E47C58A21}" name="Column430"/>
-    <tableColumn id="431" xr3:uid="{6B045EC5-B104-2847-9EF1-1FE22C49188D}" name="Column431"/>
-    <tableColumn id="432" xr3:uid="{B3C1C598-68E5-8D49-BCC8-B4853F980B40}" name="Column432"/>
-    <tableColumn id="433" xr3:uid="{985781DD-30BA-6345-B142-B690BCDC126B}" name="Column433"/>
-    <tableColumn id="434" xr3:uid="{15939274-06A5-9B4E-938E-BA466915CE4B}" name="Column434"/>
-    <tableColumn id="435" xr3:uid="{B2C97DFC-8D4D-CE44-8A24-DE8C987638F5}" name="Column435"/>
-    <tableColumn id="436" xr3:uid="{979F9BCD-29C8-A246-B129-AA98DF434437}" name="Column436"/>
-    <tableColumn id="437" xr3:uid="{4D2A0CA4-9023-CB43-9DCA-58CC92C93A10}" name="Column437"/>
-    <tableColumn id="438" xr3:uid="{7601682D-AC91-134F-9C7F-A8C48F39E057}" name="Column438"/>
-    <tableColumn id="439" xr3:uid="{87D18D98-AF45-D848-AD78-C6EA94546956}" name="Column439"/>
-    <tableColumn id="440" xr3:uid="{D5536BCD-E895-7C4B-8A4E-A209AAF9B922}" name="Column440"/>
-    <tableColumn id="441" xr3:uid="{44DA1E37-1D08-F94C-8B89-1E7D8370CA5E}" name="Column441"/>
-    <tableColumn id="442" xr3:uid="{01D68B55-C90A-5F43-9DFF-38B78F0C2A89}" name="Column442"/>
-    <tableColumn id="443" xr3:uid="{2E395E2A-8613-4248-8B97-E96B6A8B7373}" name="Column443"/>
-    <tableColumn id="444" xr3:uid="{04712D07-6AAB-B944-AED8-4BD11E03A370}" name="Column444"/>
-    <tableColumn id="445" xr3:uid="{0D91F438-4FCE-2E4F-ACE3-84F67B2571EB}" name="Column445"/>
-    <tableColumn id="446" xr3:uid="{47F71F4B-0C67-814F-91F0-9CF2C344C438}" name="Column446"/>
-    <tableColumn id="447" xr3:uid="{51E8A767-5325-8C47-844B-2646BC3C07C8}" name="Column447"/>
-    <tableColumn id="448" xr3:uid="{865CB7B9-F51E-1D4C-B8C6-CF8C2D2D16AF}" name="Column448"/>
-    <tableColumn id="449" xr3:uid="{D259B28D-D8BA-3849-B322-DBCF3549E86E}" name="Column449"/>
-    <tableColumn id="450" xr3:uid="{BDBCB9F8-A514-3C45-8A3E-9AA59A415734}" name="Column450"/>
-    <tableColumn id="451" xr3:uid="{1690B9E9-6210-2746-AF10-2845F4EC5D89}" name="Column451"/>
-    <tableColumn id="452" xr3:uid="{81FE2CC5-103A-8846-A716-D97AE6CFA02C}" name="Column452"/>
-    <tableColumn id="453" xr3:uid="{6EB8F54F-9106-4C4F-A722-66B3BE7F59D8}" name="Column453"/>
-    <tableColumn id="454" xr3:uid="{4FCC1D35-DA2F-8543-8629-040C6723FE98}" name="Column454"/>
-    <tableColumn id="455" xr3:uid="{3C38C799-9457-BA4A-AE2F-47029A48AEE0}" name="Column455"/>
-    <tableColumn id="456" xr3:uid="{4A869E86-A49A-EB40-8385-6FE2F745335F}" name="Column456"/>
-    <tableColumn id="457" xr3:uid="{BB9363B8-86AD-7A49-928E-D2982A958073}" name="Column457"/>
-    <tableColumn id="458" xr3:uid="{A9D9EB2E-ABA9-D24A-9F15-7548DB07DF40}" name="Column458"/>
-    <tableColumn id="459" xr3:uid="{9988DCAE-C635-B549-83BC-EADF8811526A}" name="Column459"/>
-    <tableColumn id="460" xr3:uid="{6D5ABB94-B5EF-1747-B948-7FF5E1AA5A5F}" name="Column460"/>
-    <tableColumn id="461" xr3:uid="{ACBD5F17-98E7-A34F-A05A-CBD38841207B}" name="Column461"/>
-    <tableColumn id="462" xr3:uid="{B14431DA-12A9-C34B-BFCA-F2394AECF7A4}" name="Column462"/>
-    <tableColumn id="463" xr3:uid="{4B0E99D6-EDB6-E741-85A6-36EC240B5C29}" name="Column463"/>
-    <tableColumn id="464" xr3:uid="{4457D8C9-7AB0-D241-9B92-67C9EF5D549C}" name="Column464"/>
-    <tableColumn id="465" xr3:uid="{CC2D133D-FD2F-1A4B-87C3-F587FE733F09}" name="Column465"/>
-    <tableColumn id="466" xr3:uid="{CB8A609B-7447-914A-98AB-DA555DE7C27A}" name="Column466"/>
-    <tableColumn id="467" xr3:uid="{76E9FA66-D0AF-244B-8A20-E420E4C71C09}" name="Column467"/>
-    <tableColumn id="468" xr3:uid="{59CC4428-D469-074E-9168-504A1EFF7643}" name="Column468"/>
-    <tableColumn id="469" xr3:uid="{5E07478C-03BD-854D-9546-0DDC708603B1}" name="Column469"/>
-    <tableColumn id="470" xr3:uid="{D7D408F4-A16A-AD40-85F3-41C02ADD0592}" name="Column470"/>
-    <tableColumn id="471" xr3:uid="{5CC4C340-0819-0548-9FBF-8394D807A8DE}" name="Column471"/>
-    <tableColumn id="472" xr3:uid="{AE95F0F5-1598-FB42-8CE0-8F664FA9C5EB}" name="Column472"/>
-    <tableColumn id="473" xr3:uid="{407AEEE6-AF3C-7C4C-B9FB-B9BADA305823}" name="Column473"/>
-    <tableColumn id="474" xr3:uid="{D4740E02-3FC5-DA42-BC10-D08749A0A9A8}" name="Column474"/>
-    <tableColumn id="475" xr3:uid="{6E01257A-F9BA-C44A-88CD-4F55E04CFB3B}" name="Column475"/>
-    <tableColumn id="476" xr3:uid="{8856BFFB-28A1-C94B-AB6F-BAC78997D63E}" name="Column476"/>
-    <tableColumn id="477" xr3:uid="{A805CD31-384D-8649-85B8-51B31E3CD2E0}" name="Column477"/>
-    <tableColumn id="478" xr3:uid="{B300682B-C66F-C64A-A19F-E8701C5453BE}" name="Column478"/>
-    <tableColumn id="479" xr3:uid="{D4319495-8C28-2846-A817-FD22DBAC4900}" name="Column479"/>
-    <tableColumn id="480" xr3:uid="{B74669C6-D665-0E49-8F3F-A9A03F4EE92C}" name="Column480"/>
-    <tableColumn id="481" xr3:uid="{2E24499D-0E9C-494E-B56B-01CAC8B3FBDC}" name="Column481"/>
-    <tableColumn id="482" xr3:uid="{7E032E4B-70FC-4B47-B8DF-DC9E3FBDBE42}" name="Column482"/>
-    <tableColumn id="483" xr3:uid="{7E054268-5B8C-2143-911B-332F7BAA1037}" name="Column483"/>
-    <tableColumn id="484" xr3:uid="{C5EBB7D2-6456-B540-99C2-19A2D03A8B1D}" name="Column484"/>
-    <tableColumn id="485" xr3:uid="{1B269DE8-78E0-A246-8305-ADCA80A1086F}" name="Column485"/>
-    <tableColumn id="486" xr3:uid="{684910BD-83AA-B34D-A0EE-B4C773619544}" name="Column486"/>
-    <tableColumn id="487" xr3:uid="{E9CEAF7F-1AF8-1240-82B0-7DEA0F7F038E}" name="Column487"/>
-    <tableColumn id="488" xr3:uid="{1749A575-B6EA-8F4B-A61B-40421DAC98EA}" name="Column488"/>
-    <tableColumn id="489" xr3:uid="{A4B722CA-2476-BE45-BD73-A156257C53B9}" name="Column489"/>
-    <tableColumn id="490" xr3:uid="{C58E9836-A391-704C-B477-ABD6F5EA800F}" name="Column490"/>
-    <tableColumn id="491" xr3:uid="{DAD85C95-0BAB-8243-AAE4-BA2F12241E32}" name="Column491"/>
-    <tableColumn id="492" xr3:uid="{ECD1CB19-C300-F547-A135-7E070931C400}" name="Column492"/>
-    <tableColumn id="493" xr3:uid="{B142EAB5-0B17-2745-8182-D94893510F25}" name="Column493"/>
-    <tableColumn id="494" xr3:uid="{C5CD3F55-3A58-064E-B688-3A9F3AA1E2EF}" name="Column494"/>
-    <tableColumn id="495" xr3:uid="{BC1E7EE7-84F9-8B4B-8EDE-1B426233B8DF}" name="Column495"/>
-    <tableColumn id="496" xr3:uid="{62EC75A1-9C2E-274E-9596-8DC712E9DC0A}" name="Column496"/>
-    <tableColumn id="497" xr3:uid="{C4792819-F791-1441-990C-4F8C1ED23898}" name="Column497"/>
-    <tableColumn id="498" xr3:uid="{DF529E33-1609-0E41-B844-ABAE03C33BB7}" name="Column498"/>
-    <tableColumn id="499" xr3:uid="{2A293433-F226-F94E-9FE3-E21F1D9A526C}" name="Column499"/>
-    <tableColumn id="500" xr3:uid="{6CABC7B1-0176-4046-AD2C-25B474B7DB77}" name="Column500"/>
-    <tableColumn id="501" xr3:uid="{774AF090-9B5C-0741-9F3D-0B8EB8871018}" name="Column501"/>
-    <tableColumn id="502" xr3:uid="{6B45CD9B-3876-D042-B873-617673B7A5C5}" name="Column502"/>
-    <tableColumn id="503" xr3:uid="{3074296E-ADDB-5D48-B70A-572EB5556E92}" name="Column503"/>
-    <tableColumn id="504" xr3:uid="{DCF6BC79-2A55-4B43-8476-8757674BAD04}" name="Column504"/>
-    <tableColumn id="505" xr3:uid="{FDCF6039-1D40-7C4F-A455-012B94DEF344}" name="Column505"/>
-    <tableColumn id="506" xr3:uid="{41A6143F-0255-C441-B98F-49406AEBE1CC}" name="Column506"/>
-    <tableColumn id="507" xr3:uid="{B7118564-FE4C-9746-A48B-CF8E9C61C16E}" name="Column507"/>
-    <tableColumn id="508" xr3:uid="{CE84EA09-5E43-6441-B45B-A3324B4B8750}" name="Column508"/>
-    <tableColumn id="509" xr3:uid="{DBE59D51-8B8B-214D-A2F1-79361B2896B5}" name="Column509"/>
-    <tableColumn id="510" xr3:uid="{D390B132-C352-0B41-B0B9-C15D25849FE2}" name="Column510"/>
-    <tableColumn id="511" xr3:uid="{641D9053-2F63-5C45-83E8-598DAF638D56}" name="Column511"/>
-    <tableColumn id="512" xr3:uid="{81D6CA02-B130-8046-93B1-A99DADFF61CD}" name="Column512"/>
-    <tableColumn id="513" xr3:uid="{AED5C242-74C7-AA49-990A-82FB0AC1D6DD}" name="Column513"/>
-    <tableColumn id="514" xr3:uid="{A557B0B7-66E6-8D47-9066-4A68E37453D4}" name="Column514"/>
-    <tableColumn id="515" xr3:uid="{D5C5E87E-C948-4744-B0F4-64A34102850A}" name="Column515"/>
-    <tableColumn id="516" xr3:uid="{FA06A408-AD4E-794B-8370-98B1DEABD68C}" name="Column516"/>
-    <tableColumn id="517" xr3:uid="{3055E38C-0651-3341-BC16-B41143894480}" name="Column517"/>
-    <tableColumn id="518" xr3:uid="{BCE10162-68FE-324E-9F37-855281BB6C6E}" name="Column518"/>
-    <tableColumn id="519" xr3:uid="{D0B218B0-CA68-8B45-B82A-4D432C21B5D5}" name="Column519"/>
-    <tableColumn id="520" xr3:uid="{966DDD59-62A8-A445-90E5-0A2BBC47C5D1}" name="Column520"/>
-    <tableColumn id="521" xr3:uid="{DA70565D-1809-CD4A-A99C-0C677658AACC}" name="Column521"/>
-    <tableColumn id="522" xr3:uid="{AFEA8964-3E5A-404C-A5DD-2FC4292A25D5}" name="Column522"/>
-    <tableColumn id="523" xr3:uid="{7EFF2D38-092F-FC48-9AF8-59DD3C09D4F8}" name="Column523"/>
-    <tableColumn id="524" xr3:uid="{2681CE39-F602-AE44-9923-D847C9230C25}" name="Column524"/>
-    <tableColumn id="525" xr3:uid="{8E213E9D-C94A-9B45-96ED-B02C1327AD0F}" name="Column525"/>
-    <tableColumn id="526" xr3:uid="{91B18206-4F69-A942-99A7-6648E757B1D4}" name="Column526"/>
-    <tableColumn id="527" xr3:uid="{CBDB132E-C497-B848-8FE0-1F3079FA2909}" name="Column527"/>
-    <tableColumn id="528" xr3:uid="{4D00011D-1F2B-C044-9141-2F2BD5FE1D38}" name="Column528"/>
-    <tableColumn id="529" xr3:uid="{E37FB7C8-B1F3-3345-B319-418595E4B3F6}" name="Column529"/>
-    <tableColumn id="530" xr3:uid="{F0C8FBA1-7C9F-8946-97AC-B8934620765D}" name="Column530"/>
-    <tableColumn id="531" xr3:uid="{C323E8CA-EA4E-304C-A8B9-E764028AE10A}" name="Column531"/>
-    <tableColumn id="532" xr3:uid="{DB64AB0F-2CCF-3A40-8049-545886E1D035}" name="Column532"/>
-    <tableColumn id="533" xr3:uid="{BFCA4B29-64AF-6A46-AA85-4D32884DC108}" name="Column533"/>
-    <tableColumn id="534" xr3:uid="{3B984933-4A77-8244-95DB-EE90E3B3F808}" name="Column534"/>
-    <tableColumn id="535" xr3:uid="{B1FAACB3-A837-4548-B851-D548D72241D0}" name="Column535"/>
-    <tableColumn id="536" xr3:uid="{F490C59C-A22D-2744-8047-F7C778E16667}" name="Column536"/>
-    <tableColumn id="537" xr3:uid="{E9DC216F-40E8-974C-AA71-55920E34F5D4}" name="Column537"/>
-    <tableColumn id="538" xr3:uid="{3AB5AF0E-3206-8449-8CD1-5A443C117C36}" name="Column538"/>
-    <tableColumn id="539" xr3:uid="{CF89ACD9-A0EF-5C41-B919-C73F7457E14A}" name="Column539"/>
-    <tableColumn id="540" xr3:uid="{BDE7D2B1-711E-5E46-8945-1D67D4E99272}" name="Column540"/>
-    <tableColumn id="541" xr3:uid="{2004AA16-2FCF-1140-AD89-63E61DCCC8BA}" name="Column541"/>
-    <tableColumn id="542" xr3:uid="{27D4AE52-F34D-0344-AE87-0B6EA9EAFFDF}" name="Column542"/>
-    <tableColumn id="543" xr3:uid="{42066F9F-B96A-7847-9C22-6A512DE65A77}" name="Column543"/>
-    <tableColumn id="544" xr3:uid="{F51CF236-CDDD-5D49-896B-875A08BDD7E6}" name="Column544"/>
-    <tableColumn id="545" xr3:uid="{7CED9320-046D-D646-AF53-21594102F3A5}" name="Column545"/>
-    <tableColumn id="546" xr3:uid="{306555B7-4E48-B84F-B6AD-A8A1D4A08A4F}" name="Column546"/>
-    <tableColumn id="547" xr3:uid="{1E9A43A4-170E-024F-AD03-610BCA9EFD59}" name="Column547"/>
-    <tableColumn id="548" xr3:uid="{73D08263-B8AA-0442-A0BE-10FBA1A35586}" name="Column548"/>
-    <tableColumn id="549" xr3:uid="{9075A299-0037-8046-9694-FD63DC4F4440}" name="Column549"/>
-    <tableColumn id="550" xr3:uid="{A452749C-C6C9-CB42-AF6A-DC003940A695}" name="Column550"/>
-    <tableColumn id="551" xr3:uid="{6E5908AC-E346-4E43-BB66-9DFF1F9A8BD4}" name="Column551"/>
-    <tableColumn id="552" xr3:uid="{BF9E68F2-59FA-C44F-A6EC-206D4C79AB31}" name="Column552"/>
-    <tableColumn id="553" xr3:uid="{6FF2D5C5-89A1-6848-A325-2A4E74772155}" name="Column553"/>
-    <tableColumn id="554" xr3:uid="{EF6BB3B9-7204-6341-AE5C-1AFD5338A6D9}" name="Column554"/>
-    <tableColumn id="555" xr3:uid="{84362578-081D-CB4B-9EB4-E739CBA9E545}" name="Column555"/>
-    <tableColumn id="556" xr3:uid="{50086E73-1275-A34A-B525-2DCA51549332}" name="Column556"/>
-    <tableColumn id="557" xr3:uid="{0D3B0706-BA18-2A45-83E7-FD7397CF6864}" name="Column557"/>
-    <tableColumn id="558" xr3:uid="{CC181B78-91CD-004B-944B-94387D5ACDCB}" name="Column558"/>
-    <tableColumn id="559" xr3:uid="{EB936182-321A-8443-95AF-6703A4BD2486}" name="Column559"/>
-    <tableColumn id="560" xr3:uid="{E9A7CFFE-6C59-8644-97B7-2B6779AC4E5E}" name="Column560"/>
-    <tableColumn id="561" xr3:uid="{D26F52B9-AB9D-7F49-BD6F-EA558799294A}" name="Column561"/>
-    <tableColumn id="562" xr3:uid="{1FB6FFB0-3816-854B-B19E-936C54FF738C}" name="Column562"/>
-    <tableColumn id="563" xr3:uid="{8AD99748-386D-1E4D-87B6-8E7A0CD40CB1}" name="Column563"/>
-    <tableColumn id="564" xr3:uid="{F1647726-17E0-1149-9D91-23A5B10045AF}" name="Column564"/>
-    <tableColumn id="565" xr3:uid="{8F0B9DDF-AC26-EA47-9F33-A347C28CF03C}" name="Column565"/>
-    <tableColumn id="566" xr3:uid="{67FECEB9-D8D8-854F-8472-EF237E567F56}" name="Column566"/>
-    <tableColumn id="567" xr3:uid="{0B8767AF-FE62-814D-8A91-2356BB22D28B}" name="Column567"/>
-    <tableColumn id="568" xr3:uid="{CF40BC14-C975-854E-88A1-8B03364C811F}" name="Column568"/>
-    <tableColumn id="569" xr3:uid="{E6B7F57A-DF00-A140-870E-8261212CF540}" name="Column569"/>
-    <tableColumn id="570" xr3:uid="{6141CDBA-8112-7848-9EA4-59F44963A1C3}" name="Column570"/>
-    <tableColumn id="571" xr3:uid="{FA485B75-BBC3-FA45-9A82-E5A800D73CC4}" name="Column571"/>
-    <tableColumn id="572" xr3:uid="{B9DD4CF5-8FDE-C44D-BFBD-F504BC5668B4}" name="Column572"/>
-    <tableColumn id="573" xr3:uid="{2C8A89C0-C141-4044-952A-56AA3AF3AC60}" name="Column573"/>
-    <tableColumn id="574" xr3:uid="{DAFF2DF3-807C-5945-B666-87AF90B66310}" name="Column574"/>
-    <tableColumn id="575" xr3:uid="{2890B4A5-6B78-6442-A293-E80C2F8DAD64}" name="Column575"/>
-    <tableColumn id="576" xr3:uid="{12A37AD6-E101-B44D-B41D-F2501FBB841E}" name="Column576"/>
-    <tableColumn id="577" xr3:uid="{465A3B71-CF30-624E-BDAC-D18702133E00}" name="Column577"/>
-    <tableColumn id="578" xr3:uid="{C0B20FFB-6B43-924E-AB68-81714BDEABDD}" name="Column578"/>
-    <tableColumn id="579" xr3:uid="{C302E76D-D739-D647-BDFA-E2E28A12C8BF}" name="Column579"/>
-    <tableColumn id="580" xr3:uid="{00A4645C-EB23-1442-97CE-12F8A5CFE1FB}" name="Column580"/>
-    <tableColumn id="581" xr3:uid="{42AE730F-63E9-9E43-BC14-09A56CDC30AC}" name="Column581"/>
-    <tableColumn id="582" xr3:uid="{C338FCB8-2C0A-C342-8A03-F495CEDEABDC}" name="Column582"/>
-    <tableColumn id="583" xr3:uid="{AB32103D-6D79-9942-A5FF-61626DD78367}" name="Column583"/>
-    <tableColumn id="584" xr3:uid="{879A7F85-1C69-6A49-8175-4BF20D925946}" name="Column584"/>
-    <tableColumn id="585" xr3:uid="{EC6F53BE-8B7B-7243-A1D9-438A34BAF672}" name="Column585"/>
-    <tableColumn id="586" xr3:uid="{3034E00C-E0F3-0841-B5D3-B71C518872E7}" name="Column586"/>
-    <tableColumn id="587" xr3:uid="{AF504F16-981A-A74F-8328-F4B44C93F8B9}" name="Column587"/>
-    <tableColumn id="588" xr3:uid="{6E013D51-B360-BE4F-97E4-1E70F2F7D783}" name="Column588"/>
-    <tableColumn id="589" xr3:uid="{9951BE26-E34C-2447-860E-433E3203EE0D}" name="Column589"/>
-    <tableColumn id="590" xr3:uid="{763B25B3-4580-7C4C-84EA-63BEFA04329A}" name="Column590"/>
-    <tableColumn id="591" xr3:uid="{323A8118-3720-1342-87B8-3C3C0DF0F30C}" name="Column591"/>
-    <tableColumn id="592" xr3:uid="{7F93A655-921E-E144-9397-72BC358CB982}" name="Column592"/>
-    <tableColumn id="593" xr3:uid="{62095C34-9064-8645-973F-4D99760C7C76}" name="Column593"/>
-    <tableColumn id="594" xr3:uid="{B8983FE7-032A-6B44-90DF-B529E844A23D}" name="Column594"/>
-    <tableColumn id="595" xr3:uid="{EDEEBFAD-F755-B64D-85D2-5853222B7C6A}" name="Column595"/>
-    <tableColumn id="596" xr3:uid="{26F40A1A-10AA-9347-B49B-A74217C00345}" name="Column596"/>
-    <tableColumn id="597" xr3:uid="{CB736FC8-40E3-A14D-9351-5EF61CA72627}" name="Column597"/>
-    <tableColumn id="598" xr3:uid="{13FC17D7-FF10-3045-B632-19DB97513A53}" name="Column598"/>
-    <tableColumn id="599" xr3:uid="{B5D54EE9-D733-B148-B107-909F3C3A5756}" name="Column599"/>
-    <tableColumn id="600" xr3:uid="{B66A3919-BDD9-994F-9475-D503D73D27D2}" name="Column600"/>
-    <tableColumn id="601" xr3:uid="{2579F448-3C4B-3442-AD53-4EFCB281103A}" name="Column601"/>
-    <tableColumn id="602" xr3:uid="{85244398-3676-D744-A8F3-66258D577550}" name="Column602"/>
-    <tableColumn id="603" xr3:uid="{1B44844B-09A8-2F41-8498-E9DF896DF86E}" name="Column603"/>
-    <tableColumn id="604" xr3:uid="{95161487-E7E3-E643-9422-7D2E103CE2F2}" name="Column604"/>
-    <tableColumn id="605" xr3:uid="{A3106EDB-8946-D742-9671-4632396F625E}" name="Column605"/>
-    <tableColumn id="606" xr3:uid="{538B6B51-0F15-1640-86E6-048DC796276F}" name="Column606"/>
-    <tableColumn id="607" xr3:uid="{8E842DCC-562F-AB4F-8F75-26EC8F726711}" name="Column607"/>
-    <tableColumn id="608" xr3:uid="{213E5088-3ECA-3746-AFF2-0E3210F65829}" name="Column608"/>
-    <tableColumn id="609" xr3:uid="{0BC14610-8CED-AA4F-8269-72AB2EB11A7C}" name="Column609"/>
-    <tableColumn id="610" xr3:uid="{EF75D6F4-161E-FE48-B627-AA93DA44557F}" name="Column610"/>
-    <tableColumn id="611" xr3:uid="{86CBC732-B63E-1449-BA00-6B34E8F0CD40}" name="Column611"/>
-    <tableColumn id="612" xr3:uid="{CA2574A5-9BF1-434A-8B62-A4F5D69882B0}" name="Column612"/>
-    <tableColumn id="613" xr3:uid="{D824AB1E-94D2-D446-9753-5417A58894D8}" name="Column613"/>
-    <tableColumn id="614" xr3:uid="{C3224579-1009-C34A-BE10-788C6CC9946B}" name="Column614"/>
-    <tableColumn id="615" xr3:uid="{8F84C23D-71F6-9A42-9EAC-77224EF5E79B}" name="Column615"/>
-    <tableColumn id="616" xr3:uid="{3620018B-5945-E540-91FB-ACCEF5C0982D}" name="Column616"/>
-    <tableColumn id="617" xr3:uid="{03826011-9F9C-514C-A9CE-FD012B80CC82}" name="Column617"/>
-    <tableColumn id="618" xr3:uid="{EC1B34CA-0126-A343-AA61-A04288DE177A}" name="Column618"/>
-    <tableColumn id="619" xr3:uid="{4C9460CA-C90C-7445-AE0D-1278066FA84D}" name="Column619"/>
-    <tableColumn id="620" xr3:uid="{8A8AA593-FB30-BF4A-8A6B-957991F60346}" name="Column620"/>
-    <tableColumn id="621" xr3:uid="{25DA4CFF-ADFB-534C-83A2-600E75BA6F25}" name="Column621"/>
-    <tableColumn id="622" xr3:uid="{DF6A6818-B532-DC4A-894D-C26EB1A5D48A}" name="Column622"/>
-    <tableColumn id="623" xr3:uid="{7BA51C9B-0AE2-1349-982A-7F71816EF35A}" name="Column623"/>
-    <tableColumn id="624" xr3:uid="{E837D3D0-3250-564D-8C22-878033649402}" name="Column624"/>
-    <tableColumn id="625" xr3:uid="{D09EB744-CC63-6249-BAB3-4445538EDBB1}" name="Column625"/>
-    <tableColumn id="626" xr3:uid="{2A08FE27-B5A9-F849-B610-4FF7062D9BF2}" name="Column626"/>
-    <tableColumn id="627" xr3:uid="{CC8CC773-C2AF-B640-9EFA-7CD4551ECD9A}" name="Column627"/>
-    <tableColumn id="628" xr3:uid="{7005E80D-8902-004E-82B7-B328F387D5A2}" name="Column628"/>
-    <tableColumn id="629" xr3:uid="{0B256548-54BF-2E4D-964F-96AA5E45779F}" name="Column629"/>
-    <tableColumn id="630" xr3:uid="{C3FAEB70-C26C-CA4D-809A-316572B3C9D3}" name="Column630"/>
-    <tableColumn id="631" xr3:uid="{FDCF7950-1598-BF4C-96C6-DAAD9D8A2BCB}" name="Column631"/>
-    <tableColumn id="632" xr3:uid="{B7A88AA9-391B-184F-8591-3FCAFBA48E04}" name="Column632"/>
-    <tableColumn id="633" xr3:uid="{F171CA16-4A09-9C40-8B8C-EABBFFEFF3FE}" name="Column633"/>
-    <tableColumn id="634" xr3:uid="{F182C96D-5D54-634B-99A8-F763ACF9EA6E}" name="Column634"/>
-    <tableColumn id="635" xr3:uid="{2C99CD83-79BA-FE46-A972-7B3A558ECF28}" name="Column635"/>
-    <tableColumn id="636" xr3:uid="{2689C50B-C821-9049-9584-297F59E16011}" name="Column636"/>
-    <tableColumn id="637" xr3:uid="{2C411982-F83C-A64A-A166-BC59C0617D7A}" name="Column637"/>
-    <tableColumn id="638" xr3:uid="{C46B4E43-BEE1-EB4C-ACA1-172D8B76FA94}" name="Column638"/>
-    <tableColumn id="639" xr3:uid="{E80F1A81-13EA-0E46-BE41-CD5B49754788}" name="Column639"/>
-    <tableColumn id="640" xr3:uid="{87C8D1AB-1F44-D441-B340-C168D8F4C977}" name="Column640"/>
-    <tableColumn id="641" xr3:uid="{4FD2ECD5-A0ED-3544-99B3-208184B5E5D6}" name="Column641"/>
-    <tableColumn id="642" xr3:uid="{0030F921-BDF7-B547-98C3-3313FAF64C7E}" name="Column642"/>
-    <tableColumn id="643" xr3:uid="{FFEF743D-B0FA-AB4C-98C9-BCF8AF4433C0}" name="Column643"/>
-    <tableColumn id="644" xr3:uid="{69A4862A-3D5E-5A49-8817-9A791E4A85FD}" name="Column644"/>
-    <tableColumn id="645" xr3:uid="{28986D89-4B8F-0845-B276-2BE5ADC1310D}" name="Column645"/>
-    <tableColumn id="646" xr3:uid="{51B7C538-2F71-EA4E-BB6F-2F5AD9A63107}" name="Column646"/>
-    <tableColumn id="647" xr3:uid="{8862FE10-1113-6444-AEEF-8959A4C7E57C}" name="Column647"/>
-    <tableColumn id="648" xr3:uid="{00CD6E38-D10D-9B45-A20A-5096ECA95F51}" name="Column648"/>
-    <tableColumn id="649" xr3:uid="{3C839F6D-159F-EE45-ACA0-9254E8B5C389}" name="Column649"/>
-    <tableColumn id="650" xr3:uid="{C81E36AB-9C04-2142-9170-D7DB3C47F7BB}" name="Column650"/>
-    <tableColumn id="651" xr3:uid="{7C3B0477-9A6A-804C-8D0D-E8B336FAD05A}" name="Column651"/>
-    <tableColumn id="652" xr3:uid="{94718592-6AEF-6149-A429-C49632AB8061}" name="Column652"/>
-    <tableColumn id="653" xr3:uid="{874FC523-D8FF-3A4A-A271-0E60FF355358}" name="Column653"/>
-    <tableColumn id="654" xr3:uid="{7D07166D-8075-4446-9BA3-7BFAC1FC0645}" name="Column654"/>
-    <tableColumn id="655" xr3:uid="{752155FF-792C-804C-B229-424A976698AE}" name="Column655"/>
-    <tableColumn id="656" xr3:uid="{40CB2C36-002C-A641-9611-4439AFC157B5}" name="Column656"/>
-    <tableColumn id="657" xr3:uid="{AC6C43BA-AF3A-374E-B50A-F2DDA2B45E4B}" name="Column657"/>
-    <tableColumn id="658" xr3:uid="{FB03600C-4505-AA47-BBD1-19F8068FFC7B}" name="Column658"/>
-    <tableColumn id="659" xr3:uid="{BD9E53B6-F7FE-C744-A4F3-432542016F5D}" name="Column659"/>
-    <tableColumn id="660" xr3:uid="{5A94EAFC-E455-724B-8E02-BC5686CD00DD}" name="Column660"/>
-    <tableColumn id="661" xr3:uid="{E78636F6-EBB6-E340-9A71-00BF661E5D72}" name="Column661"/>
-    <tableColumn id="662" xr3:uid="{A63D8A94-8EFD-8242-BB5C-E4BAAD27C62D}" name="Column662"/>
-    <tableColumn id="663" xr3:uid="{59B555B9-BDD6-C741-8841-732987E82D2B}" name="Column663"/>
-    <tableColumn id="664" xr3:uid="{9D121B73-762D-A749-B579-5DCF626FA935}" name="Column664"/>
-    <tableColumn id="665" xr3:uid="{4D8AA7BA-5AAD-4049-BA88-283FD054116B}" name="Column665"/>
-    <tableColumn id="666" xr3:uid="{8B8932CF-9A6B-C341-A68E-8D1B657A8055}" name="Column666"/>
-    <tableColumn id="667" xr3:uid="{A5505659-713C-ED40-AA3C-51AF74810259}" name="Column667"/>
-    <tableColumn id="668" xr3:uid="{64B3B7DD-2A4F-EC44-B81D-70852C9F7C44}" name="Column668"/>
-    <tableColumn id="669" xr3:uid="{B829AD43-7D20-1445-AE7A-98B64BAF7946}" name="Column669"/>
-    <tableColumn id="670" xr3:uid="{DF99908E-16FE-B141-A780-31EF36CC9B2B}" name="Column670"/>
-    <tableColumn id="671" xr3:uid="{403790D7-DFB9-6D4A-99D5-1E4CB8F6A2F0}" name="Column671"/>
-    <tableColumn id="672" xr3:uid="{706DD634-3C6A-7940-B231-95EAD4F56A40}" name="Column672"/>
-    <tableColumn id="673" xr3:uid="{D22DD1D1-200F-5E42-9C74-5DEA3EBA7BA7}" name="Column673"/>
-    <tableColumn id="674" xr3:uid="{AB4A3A8C-9420-8042-96EE-41D5002BAF26}" name="Column674"/>
-    <tableColumn id="675" xr3:uid="{26E0BFC8-195A-AC47-9E36-60D69F7553D9}" name="Column675"/>
-    <tableColumn id="676" xr3:uid="{D4875D78-8C1E-EF4C-B397-387C39D1162D}" name="Column676"/>
-    <tableColumn id="677" xr3:uid="{6D69950F-7846-474A-AA2C-A2E30951D243}" name="Column677"/>
-    <tableColumn id="678" xr3:uid="{A05E4CEA-E62D-0E4B-B6B2-532140A76936}" name="Column678"/>
-    <tableColumn id="679" xr3:uid="{E99C8BF3-7279-7A4B-BD95-501488C21807}" name="Column679"/>
-    <tableColumn id="680" xr3:uid="{9D9A6A32-2DD5-F843-A1FB-CEE59E49703F}" name="Column680"/>
-    <tableColumn id="681" xr3:uid="{9E3AA022-0BB1-7E4D-B69B-BD31005A7419}" name="Column681"/>
-    <tableColumn id="682" xr3:uid="{B235D77F-D220-5E4B-8599-A2D264E4359D}" name="Column682"/>
-    <tableColumn id="683" xr3:uid="{D1A98B9B-0F21-2F4D-8D11-01E66D92610E}" name="Column683"/>
-    <tableColumn id="684" xr3:uid="{AA646247-62B5-574B-9B0C-4FF21AF24699}" name="Column684"/>
-    <tableColumn id="685" xr3:uid="{A95D9AD6-C1B5-C145-AD1B-58A9DEDC6908}" name="Column685"/>
-    <tableColumn id="686" xr3:uid="{4FAB33CC-3BDA-B448-B204-6BCBA1EA3D99}" name="Column686"/>
-    <tableColumn id="687" xr3:uid="{366D14CA-D8A0-DC4B-9620-6EE54AADEE3D}" name="Column687"/>
-    <tableColumn id="688" xr3:uid="{F453F621-EAB4-1449-9A03-C1BE45070890}" name="Column688"/>
-    <tableColumn id="689" xr3:uid="{810324A4-600B-084D-8550-5215801FD7DD}" name="Column689"/>
-    <tableColumn id="690" xr3:uid="{D2619C7A-5E5E-0844-8B77-18FAE5C2A395}" name="Column690"/>
-    <tableColumn id="691" xr3:uid="{386A3025-053C-C04B-8F07-C54C18B5533A}" name="Column691"/>
-    <tableColumn id="692" xr3:uid="{4358633D-FD11-BB40-9FF0-0DFA269680BE}" name="Column692"/>
-    <tableColumn id="693" xr3:uid="{19686B56-0658-2440-81EA-4F1B5C866CCC}" name="Column693"/>
-    <tableColumn id="694" xr3:uid="{82C3E39F-A7AA-0A4C-AC9E-59DC7B316E90}" name="Column694"/>
-    <tableColumn id="695" xr3:uid="{2A9A57D7-B352-9943-9923-00F4A1AA6939}" name="Column695"/>
-    <tableColumn id="696" xr3:uid="{76C21A2A-BB93-DB4E-997F-D620D13D0AE6}" name="Column696"/>
-    <tableColumn id="697" xr3:uid="{85C46B28-682E-A943-982D-3C7881A6167D}" name="Column697"/>
-    <tableColumn id="698" xr3:uid="{3BD76C7C-70E8-EA48-9F82-0C1EBFBAC872}" name="Column698"/>
-    <tableColumn id="699" xr3:uid="{33C5740D-02FB-A541-BC3F-0BAF93690A4B}" name="Column699"/>
-    <tableColumn id="700" xr3:uid="{2E38C7B0-4500-B84C-B31E-0C57AEBB261D}" name="Column700"/>
-    <tableColumn id="701" xr3:uid="{D2B8B916-49A2-6D4B-842F-448E9F0F48BE}" name="Column701"/>
-    <tableColumn id="702" xr3:uid="{CE1EC28A-993F-5443-AB92-58EAAED0C81E}" name="Column702"/>
-    <tableColumn id="703" xr3:uid="{6CE1D873-70F9-0D4F-A5E5-2426BAC40906}" name="Column703"/>
-    <tableColumn id="704" xr3:uid="{96D6FC74-ADEB-8943-9299-28633156B407}" name="Column704"/>
-    <tableColumn id="705" xr3:uid="{66A24ABB-81FA-AA4E-B5D4-A461D67E21A6}" name="Column705"/>
-    <tableColumn id="706" xr3:uid="{4C576A9B-DFAF-A74C-8143-2E2890E301CF}" name="Column706"/>
-    <tableColumn id="707" xr3:uid="{0E69D7D5-20B3-C243-99A6-5F3B59F4BBAC}" name="Column707"/>
-    <tableColumn id="708" xr3:uid="{A548C6DB-872E-6249-9921-CB2E046292CC}" name="Column708"/>
-    <tableColumn id="709" xr3:uid="{A5334AF3-BF27-5044-96C7-B1C77614A97E}" name="Column709"/>
-    <tableColumn id="710" xr3:uid="{03FF22EC-527A-A947-8AE2-E1CA5259FD18}" name="Column710"/>
-    <tableColumn id="711" xr3:uid="{B4858D1B-4587-2F47-BB9B-38972B385BD5}" name="Column711"/>
-    <tableColumn id="712" xr3:uid="{EE1076F8-DBE9-7F4B-9543-0F4092D44133}" name="Column712"/>
-    <tableColumn id="713" xr3:uid="{8835C4A8-0D4D-C044-A864-1842854050B8}" name="Column713"/>
-    <tableColumn id="714" xr3:uid="{D362803F-9586-DC41-89C5-8215552F25BC}" name="Column714"/>
-    <tableColumn id="715" xr3:uid="{4234FF37-6F71-3E48-9307-DA24F36E0E65}" name="Column715"/>
-    <tableColumn id="716" xr3:uid="{1BDDA87C-9EB0-104F-9E99-53C8A851A133}" name="Column716"/>
-    <tableColumn id="717" xr3:uid="{49ABD120-3AD5-7B44-8CAB-FA53DF8ECCD2}" name="Column717"/>
-    <tableColumn id="718" xr3:uid="{370D94F5-9495-504B-8514-D45653DFC5FB}" name="Column718"/>
-    <tableColumn id="719" xr3:uid="{C5E87451-FAB5-D749-8542-453783BEA02F}" name="Column719"/>
-    <tableColumn id="720" xr3:uid="{4D80A2DE-D91E-9C4F-B1D3-2F2898558DF5}" name="Column720"/>
-    <tableColumn id="721" xr3:uid="{D39C5244-216F-7747-9100-83DEC151725E}" name="Column721"/>
-    <tableColumn id="722" xr3:uid="{E11B9509-47E4-7A46-9A08-5DE2B624FB83}" name="Column722"/>
-    <tableColumn id="723" xr3:uid="{8F4F4728-DA41-CB43-8FBA-3E4C9F3F0075}" name="Column723"/>
-    <tableColumn id="724" xr3:uid="{7D65EE3B-0B27-0141-A419-261A09485C51}" name="Column724"/>
-    <tableColumn id="725" xr3:uid="{04798BF7-55E2-EC45-955F-E28FE202967D}" name="Column725"/>
-    <tableColumn id="726" xr3:uid="{54100F54-3F7E-934B-8712-A630E0BF0D48}" name="Column726"/>
-    <tableColumn id="727" xr3:uid="{F34E66FB-2315-5740-9E2B-FEECA073CFB2}" name="Column727"/>
-    <tableColumn id="728" xr3:uid="{918DFCE1-7147-2B46-9F1F-EFA6AA1D8F94}" name="Column728"/>
-    <tableColumn id="729" xr3:uid="{08DCF388-C99E-FF4C-9E00-3F03F20F69D8}" name="Column729"/>
-    <tableColumn id="730" xr3:uid="{9F47C453-D437-924D-9BF5-B66DC7B6B5EB}" name="Column730"/>
-    <tableColumn id="731" xr3:uid="{E4464631-C13B-5D4D-8812-8D3E901AAAD7}" name="Column731"/>
-    <tableColumn id="732" xr3:uid="{6AE84BA9-68D8-0E48-9A5A-0F0A57C14BC5}" name="Column732"/>
-    <tableColumn id="733" xr3:uid="{846D7E97-7625-924C-A301-BA5CAA5556C7}" name="Column733"/>
-    <tableColumn id="734" xr3:uid="{CC179F9B-CA42-164C-A33D-C074C33FA063}" name="Column734"/>
-    <tableColumn id="735" xr3:uid="{F7579EE3-CCAC-1C4E-AF1F-3F15F92A73F9}" name="Column735"/>
-    <tableColumn id="736" xr3:uid="{33A9364E-D1ED-5945-AEEA-2BC07941792B}" name="Column736"/>
-    <tableColumn id="737" xr3:uid="{67FCE02D-C39C-904D-8172-68CD516F33B5}" name="Column737"/>
-    <tableColumn id="738" xr3:uid="{6676F22D-8221-5140-812B-43AA2D22FAF6}" name="Column738"/>
-    <tableColumn id="739" xr3:uid="{6AC22DE2-02DF-B44B-8966-7466B6CFA3DA}" name="Column739"/>
-    <tableColumn id="740" xr3:uid="{3CAABFD7-14E9-4543-91BC-2A7BD5AB54D0}" name="Column740"/>
-    <tableColumn id="741" xr3:uid="{D582DF9C-6A97-3D43-BA88-8DB7455FC539}" name="Column741"/>
-    <tableColumn id="742" xr3:uid="{66470F51-FDB8-9945-BACB-41A01197548B}" name="Column742"/>
-    <tableColumn id="743" xr3:uid="{16421610-EFC2-A14C-A65B-456177C5DBC7}" name="Column743"/>
-    <tableColumn id="744" xr3:uid="{3698C1DD-27FE-AF42-B3BB-BF0095A98773}" name="Column744"/>
-    <tableColumn id="745" xr3:uid="{73A282AE-156B-2F47-A936-1CAC48B87137}" name="Column745"/>
-    <tableColumn id="746" xr3:uid="{02277A90-2BF8-3E45-B173-C1DA7D74C605}" name="Column746"/>
-    <tableColumn id="747" xr3:uid="{75E6DA2A-6574-D24F-921A-14C22024104E}" name="Column747"/>
-    <tableColumn id="748" xr3:uid="{58123E5F-A2C3-484A-A49F-F7C26536A69C}" name="Column748"/>
-    <tableColumn id="749" xr3:uid="{632C10A0-5638-8042-96B9-1413CE473163}" name="Column749"/>
-    <tableColumn id="750" xr3:uid="{AF60C231-2F25-0049-996E-C250122A6B2B}" name="Column750"/>
-    <tableColumn id="751" xr3:uid="{CB493F50-590D-4E40-8CD9-99EEF4F4358F}" name="Column751"/>
-    <tableColumn id="752" xr3:uid="{56A0D7B7-C91D-874F-8B90-43BDE7A471E2}" name="Column752"/>
-    <tableColumn id="753" xr3:uid="{97B15616-2642-854B-A830-6DEF05B188C6}" name="Column753"/>
-    <tableColumn id="754" xr3:uid="{44A54E90-070F-4241-B0E5-8EE10AAAC5DA}" name="Column754"/>
-    <tableColumn id="755" xr3:uid="{00EFD173-5C3C-9E44-83CB-5B9AAC2EB4B7}" name="Column755"/>
-    <tableColumn id="756" xr3:uid="{078C372F-978D-EE4C-9A9B-03909647666F}" name="Column756"/>
-    <tableColumn id="757" xr3:uid="{CA2D976A-CA4D-F243-9D47-0F3EB90C1757}" name="Column757"/>
-    <tableColumn id="758" xr3:uid="{6F1EFD90-4115-2D48-8EF8-7338FCCC65BF}" name="Column758"/>
-    <tableColumn id="759" xr3:uid="{C52687A6-E5B1-A348-9738-5ED0AAE1D052}" name="Column759"/>
-    <tableColumn id="760" xr3:uid="{CDEC7E59-28EB-3142-8DA7-A9D7A9706D9E}" name="Column760"/>
-    <tableColumn id="761" xr3:uid="{854BD003-F618-794C-B8AB-860D8F09955C}" name="Column761"/>
-    <tableColumn id="762" xr3:uid="{3D388D84-20A2-8E45-BBB6-CFCFFF755EB6}" name="Column762"/>
-    <tableColumn id="763" xr3:uid="{EE169852-F0DC-0C4A-AB7B-5AA10C307422}" name="Column763"/>
-    <tableColumn id="764" xr3:uid="{EB99596C-BAF5-8E49-9742-F32B56045F4D}" name="Column764"/>
-    <tableColumn id="765" xr3:uid="{45DBB5F8-B507-E744-8778-A55B90376FB5}" name="Column765"/>
-    <tableColumn id="766" xr3:uid="{42AE6AC6-4257-2F4F-9FF6-D3A578535F76}" name="Column766"/>
-    <tableColumn id="767" xr3:uid="{4A1A8EAE-3753-8B41-BC81-0106329284DD}" name="Column767"/>
-    <tableColumn id="768" xr3:uid="{EA783C35-3275-DA4F-AB5E-1D17DABDC4DF}" name="Column768"/>
-    <tableColumn id="769" xr3:uid="{9C666B9F-68E9-C546-B434-02606783E224}" name="Column769"/>
-    <tableColumn id="770" xr3:uid="{BD7CE8A1-EBA0-514E-88F9-DF2A273ABD8B}" name="Column770"/>
-    <tableColumn id="771" xr3:uid="{D77663A7-8C53-634A-8DA5-84E2EB8A5D4A}" name="Column771"/>
-    <tableColumn id="772" xr3:uid="{9B7E88C5-49B4-F64F-86A0-4EAEEFD48927}" name="Column772"/>
-    <tableColumn id="773" xr3:uid="{72E58688-EAE7-DA44-95C0-D312A0320053}" name="Column773"/>
-    <tableColumn id="774" xr3:uid="{07B1A1C7-6584-7D47-AD61-1EA64C985521}" name="Column774"/>
-    <tableColumn id="775" xr3:uid="{19476183-C855-0847-B675-9AB014AAC74C}" name="Column775"/>
-    <tableColumn id="776" xr3:uid="{B970276A-5633-A947-A999-44D5478835BE}" name="Column776"/>
-    <tableColumn id="777" xr3:uid="{F4767398-0FA8-6A49-B03D-5E41E2ACCFC8}" name="Column777"/>
-    <tableColumn id="778" xr3:uid="{70FB1223-3D87-C34C-9346-C29BD3FB745C}" name="Column778"/>
-    <tableColumn id="779" xr3:uid="{E92E4325-8759-AC4F-8502-23522AE71233}" name="Column779"/>
-    <tableColumn id="780" xr3:uid="{9736F6E6-9772-0F45-9AD8-013B72167F8D}" name="Column780"/>
-    <tableColumn id="781" xr3:uid="{E1E60641-5D9D-4F40-B104-7E17D4D80FE0}" name="Column781"/>
-    <tableColumn id="782" xr3:uid="{4827D9E8-DAC5-F34E-995F-79D14C5FEE4D}" name="Column782"/>
-    <tableColumn id="783" xr3:uid="{90C41240-4E1B-D34C-B5FB-58E0CF578054}" name="Column783"/>
-    <tableColumn id="784" xr3:uid="{06DF7D9F-609D-4F4B-93DB-8D9D98B12B46}" name="Column784"/>
-    <tableColumn id="785" xr3:uid="{8D673602-453F-934E-AF1D-E7D462D3BB57}" name="Column785"/>
-    <tableColumn id="786" xr3:uid="{F77F547D-63BB-744E-BD08-31E58B78AB5C}" name="Column786"/>
-    <tableColumn id="787" xr3:uid="{2C66D837-EDB5-4F4E-9BBD-DE7CD88079E0}" name="Column787"/>
-    <tableColumn id="788" xr3:uid="{AC48C5E4-8D5F-F240-BC7C-B324F6291A9D}" name="Column788"/>
-    <tableColumn id="789" xr3:uid="{0438B6FF-DEC1-4940-A683-2B570CC1E8FC}" name="Column789"/>
-    <tableColumn id="790" xr3:uid="{4F2DB85E-9648-3C44-8275-48114040E2EF}" name="Column790"/>
-    <tableColumn id="791" xr3:uid="{34D52D49-6770-3540-8DC8-B1444BCCB9AF}" name="Column791"/>
-    <tableColumn id="792" xr3:uid="{246FC7EA-2931-CB42-9DEB-239B6CD2F9FF}" name="Column792"/>
-    <tableColumn id="793" xr3:uid="{7BD56C08-14B3-8144-89E0-92F01F30A166}" name="Column793"/>
-    <tableColumn id="794" xr3:uid="{4DD2DBE7-65D2-6F47-9BA1-CCB02861666C}" name="Column794"/>
-    <tableColumn id="795" xr3:uid="{C8122B05-5AB1-6F45-B41B-DBB0369044A8}" name="Column795"/>
-    <tableColumn id="796" xr3:uid="{6ADAAF82-53EA-1747-B863-33DCA1EB29F1}" name="Column796"/>
-    <tableColumn id="797" xr3:uid="{F85A56FC-9D7C-5D4F-BC9D-93965D11C192}" name="Column797"/>
-    <tableColumn id="798" xr3:uid="{EE504CB3-7AFE-AF4C-85B9-9DE42CA321D2}" name="Column798"/>
-    <tableColumn id="799" xr3:uid="{674460C1-132A-FE46-BD6C-F194F4ACC305}" name="Column799"/>
-    <tableColumn id="800" xr3:uid="{A7BFCD0E-73D7-B843-812A-5556B68CAF2C}" name="Column800"/>
-    <tableColumn id="801" xr3:uid="{D2BD56E3-D766-1A47-9A0C-5AC940C4D042}" name="Column801"/>
-    <tableColumn id="802" xr3:uid="{79152112-0AFE-A74A-906D-3FBA469B8693}" name="Column802"/>
-    <tableColumn id="803" xr3:uid="{2736F6C0-DCC1-B043-8BCE-B85EFC108F7A}" name="Column803"/>
-    <tableColumn id="804" xr3:uid="{3F5DCE9A-C118-0A49-8EC2-3CE8D6D44C08}" name="Column804"/>
-    <tableColumn id="805" xr3:uid="{CA336826-1C31-7948-BD1E-5468A26826E2}" name="Column805"/>
-    <tableColumn id="806" xr3:uid="{DD17DA2E-AB11-2843-ABC8-36C38031ED2C}" name="Column806"/>
-    <tableColumn id="807" xr3:uid="{1C258FF8-36C5-9B4C-846B-BE844F1A4919}" name="Column807"/>
-    <tableColumn id="808" xr3:uid="{53CD3768-C25F-7842-B177-EB9145888FDD}" name="Column808"/>
-    <tableColumn id="809" xr3:uid="{CAD5F567-D788-C248-BA1A-35E826B97031}" name="Column809"/>
-    <tableColumn id="810" xr3:uid="{64991671-BF69-6E40-B590-4490618FEE17}" name="Column810"/>
-    <tableColumn id="811" xr3:uid="{F5E878BF-99B6-DD42-84B0-DAC3D369050A}" name="Column811"/>
-    <tableColumn id="812" xr3:uid="{9CC379BB-EDA3-814B-80C8-B050B61CB76E}" name="Column812"/>
-    <tableColumn id="813" xr3:uid="{0644C7D2-6FE1-9A4F-9750-209D5D3F4E99}" name="Column813"/>
-    <tableColumn id="814" xr3:uid="{A530A86D-85C7-6B43-9B2A-3077E178F70B}" name="Column814"/>
-    <tableColumn id="815" xr3:uid="{880F53BD-C807-7A49-8EFE-34D684F1F3AC}" name="Column815"/>
-    <tableColumn id="816" xr3:uid="{8B59A998-494A-B840-879D-5A9E071D3D09}" name="Column816"/>
-    <tableColumn id="817" xr3:uid="{165F13BC-F806-ED47-8D7A-C255B3C6E409}" name="Column817"/>
-    <tableColumn id="818" xr3:uid="{8E5D4C9A-B3BB-ED46-8AAD-C10D065D796C}" name="Column818"/>
-    <tableColumn id="819" xr3:uid="{AF21EB81-A4F1-234A-B13A-276EDC1F8551}" name="Column819"/>
-    <tableColumn id="820" xr3:uid="{93C3696B-9502-B24B-A57E-3DF764422F85}" name="Column820"/>
-    <tableColumn id="821" xr3:uid="{D70E9785-D7CC-2444-A742-2F16A861D31E}" name="Column821"/>
-    <tableColumn id="822" xr3:uid="{4ED75A02-FCB0-3642-A372-6B3BC922CA8C}" name="Column822"/>
-    <tableColumn id="823" xr3:uid="{2FD50AEE-C2F7-5240-B96A-6F2FA86D69D2}" name="Column823"/>
-    <tableColumn id="824" xr3:uid="{EDF1EBF6-D3E3-FB42-AFE9-1F2BF5C3328B}" name="Column824"/>
-    <tableColumn id="825" xr3:uid="{90427D4A-FF78-D64D-8C97-5841789F3A88}" name="Column825"/>
-    <tableColumn id="826" xr3:uid="{267B2B7D-B3C5-1744-948D-1657AA7ED47F}" name="Column826"/>
-    <tableColumn id="827" xr3:uid="{C70EB68B-4365-2849-B9D9-7FC99D0A5298}" name="Column827"/>
-    <tableColumn id="828" xr3:uid="{F5C0DCD0-6C46-4D48-9D5E-71A11FBB55A4}" name="Column828"/>
-    <tableColumn id="829" xr3:uid="{283FC4B4-2E51-C443-81E1-E62A83745A86}" name="Column829"/>
-    <tableColumn id="830" xr3:uid="{3E96F765-DEC3-A448-ACAD-E5645ED23F43}" name="Column830"/>
-    <tableColumn id="831" xr3:uid="{540338FF-5E0F-F440-9CA1-695C799F9283}" name="Column831"/>
-    <tableColumn id="832" xr3:uid="{B4DA39F9-E6E1-CF46-9D89-85109E18DCAE}" name="Column832"/>
-    <tableColumn id="833" xr3:uid="{6CB7773A-0F05-2A4A-A8E6-C752D35370DA}" name="Column833"/>
-    <tableColumn id="834" xr3:uid="{D0945A46-1848-BA46-9DED-6C5A0FA93367}" name="Column834"/>
-    <tableColumn id="835" xr3:uid="{F2AC2E63-257E-E646-84E2-2BCF354EB936}" name="Column835"/>
-    <tableColumn id="836" xr3:uid="{49768DF6-1FE9-2A40-A1EF-DFE67D5377DC}" name="Column836"/>
-    <tableColumn id="837" xr3:uid="{7CFA192A-5EA2-AA4C-951B-0DC8C6778675}" name="Column837"/>
-    <tableColumn id="838" xr3:uid="{39AF0349-4077-8949-8072-C470F0CA18D4}" name="Column838"/>
-    <tableColumn id="839" xr3:uid="{AD905896-9FF3-904C-9425-BE1D0C5F222B}" name="Column839"/>
-    <tableColumn id="840" xr3:uid="{9AD328A5-FEAE-BF49-8755-681552CA474C}" name="Column840"/>
-    <tableColumn id="841" xr3:uid="{B15322F0-68F9-A741-8198-E7375BE0E74B}" name="Column841"/>
-    <tableColumn id="842" xr3:uid="{9B6B624D-A572-AC43-ADA5-155DE88E4F17}" name="Column842"/>
-    <tableColumn id="843" xr3:uid="{F201D9E1-F7D3-FE4B-8FE3-DBFCA5680136}" name="Column843"/>
-    <tableColumn id="844" xr3:uid="{76820F8A-57B3-2045-9A6B-7B8E0EE9CE6D}" name="Column844"/>
-    <tableColumn id="845" xr3:uid="{E7D48804-49EC-4047-BBCA-C4C9DD46107A}" name="Column845"/>
-    <tableColumn id="846" xr3:uid="{7859A5BC-A349-604F-9842-8A7A9EFAA001}" name="Column846"/>
-    <tableColumn id="847" xr3:uid="{4D3F5675-6256-5640-B8DA-3890749F4627}" name="Column847"/>
-    <tableColumn id="848" xr3:uid="{0B662538-C7A8-2847-A19E-9454D7030E5A}" name="Column848"/>
-    <tableColumn id="849" xr3:uid="{988B6107-1276-5947-B82E-CD28919E6622}" name="Column849"/>
-    <tableColumn id="850" xr3:uid="{C8BF2463-7642-C047-90B2-8380412BD649}" name="Column850"/>
-    <tableColumn id="851" xr3:uid="{5CB6299F-E117-D34D-8369-186F27CB555A}" name="Column851"/>
-    <tableColumn id="852" xr3:uid="{BA0A9A3D-1B4E-8F49-8E98-62648C1317A3}" name="Column852"/>
-    <tableColumn id="853" xr3:uid="{BA180670-D994-BD43-A948-4AD2DC9EDB60}" name="Column853"/>
-    <tableColumn id="854" xr3:uid="{D5038496-E819-F546-A718-3B212EE75117}" name="Column854"/>
-    <tableColumn id="855" xr3:uid="{66C25BE0-173C-A04D-A316-78FB679AE93E}" name="Column855"/>
-    <tableColumn id="856" xr3:uid="{3C414458-23D9-B345-BD93-2E5FB4C2AFC5}" name="Column856"/>
-    <tableColumn id="857" xr3:uid="{E1D8C810-0936-4246-AEB5-CDE26B213317}" name="Column857"/>
-    <tableColumn id="858" xr3:uid="{89D69EEB-C4BC-E04F-9CBD-C477BCE9F2E9}" name="Column858"/>
-    <tableColumn id="859" xr3:uid="{4D9C991D-F852-0B49-B67B-08B5F880C0DC}" name="Column859"/>
-    <tableColumn id="860" xr3:uid="{37350DDA-52B9-394B-843B-9E575327988C}" name="Column860"/>
-    <tableColumn id="861" xr3:uid="{5BE9D6EB-F26C-7B40-88AA-5BF4FF08C9F6}" name="Column861"/>
-    <tableColumn id="862" xr3:uid="{94B9A7CD-EA2B-C640-BB5B-173069C10AD3}" name="Column862"/>
-    <tableColumn id="863" xr3:uid="{AF0A0482-2384-594B-A65E-23846D8FCAF2}" name="Column863"/>
-    <tableColumn id="864" xr3:uid="{A0BC2407-5516-B443-83F6-F6776CEDEEC6}" name="Column864"/>
-    <tableColumn id="865" xr3:uid="{FC77069B-5ABD-CC41-89F0-C592A4382BD5}" name="Column865"/>
-    <tableColumn id="866" xr3:uid="{3715EEB4-2220-1848-AB8D-BB4D10B49219}" name="Column866"/>
-    <tableColumn id="867" xr3:uid="{8CDACF1E-B2B1-6748-8098-6A8B54BD8DEA}" name="Column867"/>
-    <tableColumn id="868" xr3:uid="{30815B36-DFCE-2E45-8021-5E6C920E72EA}" name="Column868"/>
-    <tableColumn id="869" xr3:uid="{D7736616-BE14-8246-9C5E-A893D2282D01}" name="Column869"/>
-    <tableColumn id="870" xr3:uid="{F7B84946-73E0-6E46-88F2-E4FE9A910B25}" name="Column870"/>
-    <tableColumn id="871" xr3:uid="{88FEB32A-93C7-C44D-AD34-D9ACA0E98C75}" name="Column871"/>
-    <tableColumn id="872" xr3:uid="{98AA24CF-AE60-C147-863E-7390544A9E5A}" name="Column872"/>
-    <tableColumn id="873" xr3:uid="{F52DBBFA-4B93-8946-97E6-F246F471DD51}" name="Column873"/>
-    <tableColumn id="874" xr3:uid="{DAB45F97-017D-094C-A94A-20D2BC47A49C}" name="Column874"/>
-    <tableColumn id="875" xr3:uid="{06ECFD63-E998-8A41-BDD9-628B3E67E6A4}" name="Column875"/>
-    <tableColumn id="876" xr3:uid="{908E55FF-A55E-0742-93F1-86B4799A460F}" name="Column876"/>
-    <tableColumn id="877" xr3:uid="{E9948D2E-EFBD-BC4D-89C2-55AFEEFDB9E3}" name="Column877"/>
-    <tableColumn id="878" xr3:uid="{C0A3250F-0873-E44E-B7BF-241D19518C65}" name="Column878"/>
-    <tableColumn id="879" xr3:uid="{53FC5249-AD0D-2B44-B60B-4F0E1C62A240}" name="Column879"/>
-    <tableColumn id="880" xr3:uid="{E0739038-38EA-544D-BE32-43F565150323}" name="Column880"/>
-    <tableColumn id="881" xr3:uid="{299A3A1A-0BF6-6241-B771-60FD480BDB20}" name="Column881"/>
-    <tableColumn id="882" xr3:uid="{3661936F-5FFA-064E-B1E7-606A06C0D6FC}" name="Column882"/>
-    <tableColumn id="883" xr3:uid="{5777402A-F6E5-5848-AC11-7915C04E829E}" name="Column883"/>
-    <tableColumn id="884" xr3:uid="{19F3C430-0478-EE4E-86BA-75B3B1F4153E}" name="Column884"/>
-    <tableColumn id="885" xr3:uid="{EE2B4925-13FE-3847-96E8-F27A8708CA1D}" name="Column885"/>
-    <tableColumn id="886" xr3:uid="{9971453C-DE4C-6444-8435-80B1B4EA1EEE}" name="Column886"/>
-    <tableColumn id="887" xr3:uid="{99545D85-BD5A-7846-8C92-D7143F5937E3}" name="Column887"/>
-    <tableColumn id="888" xr3:uid="{24556654-019B-914A-A5A4-A9A15EAA1141}" name="Column888"/>
-    <tableColumn id="889" xr3:uid="{D5944501-21FD-0C46-971E-8A5E919BE3BB}" name="Column889"/>
-    <tableColumn id="890" xr3:uid="{AA4FF415-50E1-9B40-B216-7DA2712E63C1}" name="Column890"/>
-    <tableColumn id="891" xr3:uid="{542A9D1D-7CC0-E34D-BD12-9DD2F42574CE}" name="Column891"/>
-    <tableColumn id="892" xr3:uid="{53313484-5000-BA47-8A0C-3B0C8ABF6DEB}" name="Column892"/>
-    <tableColumn id="893" xr3:uid="{35A64E76-E8CE-AA4A-B024-2797E1B06E95}" name="Column893"/>
-    <tableColumn id="894" xr3:uid="{BF7388DD-2A9A-6141-AE96-76F63E7074C0}" name="Column894"/>
-    <tableColumn id="895" xr3:uid="{445A1693-2906-344D-9180-EEE87FF2BE8D}" name="Column895"/>
-    <tableColumn id="896" xr3:uid="{012E26D7-E949-E947-8CCD-20AC8DBCD031}" name="Column896"/>
-    <tableColumn id="897" xr3:uid="{5A004CD7-2A3D-904B-BDC5-09D76118F544}" name="Column897"/>
-    <tableColumn id="898" xr3:uid="{DBFA73B8-2F78-FF41-B6BE-D5C50BB7DBF7}" name="Column898"/>
-    <tableColumn id="899" xr3:uid="{CE36982F-570F-824C-9EB7-BDFE5CA41445}" name="Column899"/>
-    <tableColumn id="900" xr3:uid="{30716B32-E74C-F44C-A020-DD2756EFAC5F}" name="Column900"/>
-    <tableColumn id="901" xr3:uid="{91B7418D-C98C-FF41-9ADB-2C82A82BF671}" name="Column901"/>
-    <tableColumn id="902" xr3:uid="{9EF4F455-9B1E-924D-8950-8C0DD512A994}" name="Column902"/>
-    <tableColumn id="903" xr3:uid="{3B1DCF78-5A94-4C4D-8E43-BCA5211777C0}" name="Column903"/>
-    <tableColumn id="904" xr3:uid="{E99C4C71-11D2-DA4E-917D-2C5274FAD71C}" name="Column904"/>
-    <tableColumn id="905" xr3:uid="{7E623E13-99BD-CF45-B086-A689410FFBAA}" name="Column905"/>
-    <tableColumn id="906" xr3:uid="{BA18B715-62E8-FF49-8CAC-F90C9443174A}" name="Column906"/>
-    <tableColumn id="907" xr3:uid="{7D35D5CF-2E8C-424B-9339-757CDB54A79A}" name="Column907"/>
-    <tableColumn id="908" xr3:uid="{77C2C725-A4CC-2444-BDCE-E040DE3E7415}" name="Column908"/>
-    <tableColumn id="909" xr3:uid="{C6C705BF-1A37-2C42-97F0-836E3EF0D36F}" name="Column909"/>
-    <tableColumn id="910" xr3:uid="{2C363506-B817-0544-B40F-2CECB660288D}" name="Column910"/>
-    <tableColumn id="911" xr3:uid="{21A4968C-E9C4-FC41-8516-631AFE53A012}" name="Column911"/>
-    <tableColumn id="912" xr3:uid="{43AAC09B-BC66-2049-8B97-27E0C9B592B6}" name="Column912"/>
-    <tableColumn id="913" xr3:uid="{18A84B97-1834-874A-BB3C-E0758B753333}" name="Column913"/>
-    <tableColumn id="914" xr3:uid="{FDE41F92-5651-2C4D-AF74-356F10CB3CEF}" name="Column914"/>
-    <tableColumn id="915" xr3:uid="{E9083832-DBEC-9D49-81A5-DCC2245D1A57}" name="Column915"/>
-    <tableColumn id="916" xr3:uid="{31ABA3E8-C7E2-5C4C-ADDC-FE528535E859}" name="Column916"/>
-    <tableColumn id="917" xr3:uid="{B2CE1489-3618-CB4B-9254-2685768934ED}" name="Column917"/>
-    <tableColumn id="918" xr3:uid="{8F58FFB7-C27E-6A4B-BDC3-64168B5575A2}" name="Column918"/>
-    <tableColumn id="919" xr3:uid="{627A09BB-97A2-5B42-A778-546854892437}" name="Column919"/>
-    <tableColumn id="920" xr3:uid="{44D6E630-647B-A247-A924-231C5013E025}" name="Column920"/>
-    <tableColumn id="921" xr3:uid="{7333E448-4C3B-6742-B5E6-F75435133ED3}" name="Column921"/>
-    <tableColumn id="922" xr3:uid="{B2CE745C-912D-754C-9604-C6B1FF76090E}" name="Column922"/>
-    <tableColumn id="923" xr3:uid="{6CAD7564-94EA-F347-9F16-DBFC2A5BA2EF}" name="Column923"/>
-    <tableColumn id="924" xr3:uid="{8C42452E-320B-744B-B84B-8BAC6F5F2CAB}" name="Column924"/>
-    <tableColumn id="925" xr3:uid="{01A3488C-F684-4843-A4B6-429DD960F000}" name="Column925"/>
-    <tableColumn id="926" xr3:uid="{DA8FEE1A-69E1-AD4E-91DE-D0F59127C880}" name="Column926"/>
-    <tableColumn id="927" xr3:uid="{014905C5-BA05-E046-856A-C63ECE405E98}" name="Column927"/>
-    <tableColumn id="928" xr3:uid="{D5F9F0C4-EE95-2F42-8077-51E1566FBF39}" name="Column928"/>
-    <tableColumn id="929" xr3:uid="{E7D1EFD2-08D9-DB47-AAA8-AA4DAC8C2991}" name="Column929"/>
-    <tableColumn id="930" xr3:uid="{FEE875B2-A1E9-F04A-96C4-C203F00047F5}" name="Column930"/>
-    <tableColumn id="931" xr3:uid="{0B795BA9-6395-F24C-BB07-17A4D89988B5}" name="Column931"/>
-    <tableColumn id="932" xr3:uid="{38CD670F-7048-DA48-9176-4B2A240D0DD0}" name="Column932"/>
-    <tableColumn id="933" xr3:uid="{D73CD725-CF5E-2F47-9BD3-AF099A5C52C6}" name="Column933"/>
-    <tableColumn id="934" xr3:uid="{838EF1B0-3CDD-7A48-A041-5B7696C072E2}" name="Column934"/>
-    <tableColumn id="935" xr3:uid="{654EEE56-F11F-D74A-AD24-74EAAEB15C22}" name="Column935"/>
-    <tableColumn id="936" xr3:uid="{85F62479-D90E-394F-B969-ABF2F6D30C65}" name="Column936"/>
-    <tableColumn id="937" xr3:uid="{3FCC2FCF-1E5B-D440-82DF-C5EF7C335A02}" name="Column937"/>
-    <tableColumn id="938" xr3:uid="{6F5D184D-3D93-DB42-AB02-A0B5A22C62AC}" name="Column938"/>
-    <tableColumn id="939" xr3:uid="{43B18482-8524-514F-8F79-E5B23DE15768}" name="Column939"/>
-    <tableColumn id="940" xr3:uid="{D9A56343-95D4-0B40-9F45-8FC3E4959DBD}" name="Column940"/>
-    <tableColumn id="941" xr3:uid="{AEECA5CE-662E-2646-80F2-9DDF63F09FB4}" name="Column941"/>
-    <tableColumn id="942" xr3:uid="{B3F26155-9BF8-8E43-B7DF-26F669B2C019}" name="Column942"/>
-    <tableColumn id="943" xr3:uid="{E919A4F0-2CA5-8248-967C-F465BC4BE302}" name="Column943"/>
-    <tableColumn id="944" xr3:uid="{52184439-904D-5D4C-A374-2073750E411C}" name="Column944"/>
-    <tableColumn id="945" xr3:uid="{1F8E03EB-B09E-CC41-9BEB-8A22DACB4A3E}" name="Column945"/>
-    <tableColumn id="946" xr3:uid="{9279FD2B-00F3-304E-AF23-E954DA928E19}" name="Column946"/>
-    <tableColumn id="947" xr3:uid="{F8E2AB5F-5B36-2E4E-A7D3-D5B89D175F6F}" name="Column947"/>
-    <tableColumn id="948" xr3:uid="{C872E2FE-9356-E548-945A-0A3AC75E6181}" name="Column948"/>
-    <tableColumn id="949" xr3:uid="{9E12100D-6043-874D-9F3C-9C74DC5254E7}" name="Column949"/>
-    <tableColumn id="950" xr3:uid="{1DB685E1-F90F-3E40-85DF-F34784BC4EE2}" name="Column950"/>
-    <tableColumn id="951" xr3:uid="{497D30E8-B2FB-A444-AB48-059CF029CE38}" name="Column951"/>
-    <tableColumn id="952" xr3:uid="{D236DA47-487F-B042-A8AA-D2BD95EFDEDB}" name="Column952"/>
-    <tableColumn id="953" xr3:uid="{8285F157-267C-C447-BD6C-B74E6F6583F6}" name="Column953"/>
-    <tableColumn id="954" xr3:uid="{99F2F550-6052-B64B-970D-F64C3D8E9C45}" name="Column954"/>
-    <tableColumn id="955" xr3:uid="{1ED0F6A4-C6C4-1447-883D-FC518CCA08F0}" name="Column955"/>
-    <tableColumn id="956" xr3:uid="{A3BC738A-6A2A-E748-B58F-63BA48387B47}" name="Column956"/>
-    <tableColumn id="957" xr3:uid="{F8C7FCBC-6261-9248-B1D6-73F60FF20351}" name="Column957"/>
-    <tableColumn id="958" xr3:uid="{025ED36B-3F1F-3A46-9247-843551F177B7}" name="Column958"/>
-    <tableColumn id="959" xr3:uid="{C430176B-8CFE-A444-9361-2969DF615C93}" name="Column959"/>
-    <tableColumn id="960" xr3:uid="{25447FC8-F075-3941-9043-0E15DDC00797}" name="Column960"/>
-    <tableColumn id="961" xr3:uid="{26C3CF7A-E5A8-194F-B723-D0B2ED057349}" name="Column961"/>
-    <tableColumn id="962" xr3:uid="{01FAADCF-B87C-1442-8B73-4164FF6A69EE}" name="Column962"/>
-    <tableColumn id="963" xr3:uid="{4862B1C9-35C7-3C49-A352-DA41850D7D10}" name="Column963"/>
-    <tableColumn id="964" xr3:uid="{345DEBC7-54B3-9A4A-AF1D-62B0953B063B}" name="Column964"/>
-    <tableColumn id="965" xr3:uid="{321C7B90-59B1-384A-A4EB-A31C4E14BE73}" name="Column965"/>
-    <tableColumn id="966" xr3:uid="{0A8A9E1A-B0E8-8949-BD21-809440622E7D}" name="Column966"/>
-    <tableColumn id="967" xr3:uid="{08B6FDE1-C64F-9344-9689-806194916C68}" name="Column967"/>
-    <tableColumn id="968" xr3:uid="{AC733BA8-F01C-F349-8D4C-87A3C4981CFC}" name="Column968"/>
-    <tableColumn id="969" xr3:uid="{A8CA4CB6-A2E5-D341-87E5-DC37E7CA0CE3}" name="Column969"/>
-    <tableColumn id="970" xr3:uid="{117DCDE9-62F1-3347-917A-2D187EE3075C}" name="Column970"/>
-    <tableColumn id="971" xr3:uid="{826E6E86-93C6-4043-A322-A00583628E5B}" name="Column971"/>
-    <tableColumn id="972" xr3:uid="{AA69A044-824E-2E4F-9471-157D0A15BE1F}" name="Column972"/>
-    <tableColumn id="973" xr3:uid="{795FBDD3-9625-604D-BBDA-DDD5435BA949}" name="Column973"/>
-    <tableColumn id="974" xr3:uid="{5F312B60-1DEA-2E46-9663-3FFC88267233}" name="Column974"/>
-    <tableColumn id="975" xr3:uid="{FB10780F-1150-E841-B646-694D1710DA65}" name="Column975"/>
-    <tableColumn id="976" xr3:uid="{6AFB7192-92D0-314C-B455-668B5C70C2BC}" name="Column976"/>
-    <tableColumn id="977" xr3:uid="{81F59520-A74B-3242-B13E-022EAD4CC6C0}" name="Column977"/>
-    <tableColumn id="978" xr3:uid="{DF5EC2C7-4B81-974A-9B34-4370D22367F3}" name="Column978"/>
-    <tableColumn id="979" xr3:uid="{5FA1B29E-557C-6149-825D-7D92DD0CEA00}" name="Column979"/>
-    <tableColumn id="980" xr3:uid="{D9263E7E-37C9-C542-A15E-C1AA6A9D1B79}" name="Column980"/>
-    <tableColumn id="981" xr3:uid="{E23EE5C7-EE87-7A47-AE45-09080B4796F1}" name="Column981"/>
-    <tableColumn id="982" xr3:uid="{85E49481-A185-D641-ACEE-A49D437882CA}" name="Column982"/>
-    <tableColumn id="983" xr3:uid="{3CDCE962-ECF4-B248-80E6-360499777C46}" name="Column983"/>
-    <tableColumn id="984" xr3:uid="{70D087D5-3AA7-A546-B3E0-1720CDB573CC}" name="Column984"/>
-    <tableColumn id="985" xr3:uid="{003ED9C9-1E51-5041-B23D-A4E6EF9B66E8}" name="Column985"/>
-    <tableColumn id="986" xr3:uid="{2FE3AA59-25FB-CD4B-890D-15FCC65ABA48}" name="Column986"/>
-    <tableColumn id="987" xr3:uid="{F3AD604A-5F5C-7F4A-8C6F-CCDDA63CF962}" name="Column987"/>
-    <tableColumn id="988" xr3:uid="{60F8AC50-C94A-E741-A81B-9584C3C3B2F6}" name="Column988"/>
-    <tableColumn id="989" xr3:uid="{2181580A-68BA-8445-B3F0-562C3346F8A9}" name="Column989"/>
-    <tableColumn id="990" xr3:uid="{05E831AF-4003-CB43-9563-1B94F110B4B4}" name="Column990"/>
-    <tableColumn id="991" xr3:uid="{E087E042-BA6E-C047-9199-E81611A84DC9}" name="Column991"/>
-    <tableColumn id="992" xr3:uid="{4A19AC0A-7328-7041-9D33-061803BA493E}" name="Column992"/>
-    <tableColumn id="993" xr3:uid="{CC319181-8000-D54A-A1E7-B1A8183D1DC3}" name="Column993"/>
-    <tableColumn id="994" xr3:uid="{114BEC04-D199-5D4D-8798-9E1A4C80CB9B}" name="Column994"/>
-    <tableColumn id="995" xr3:uid="{9CCE3716-A6D8-4140-B042-63D65D3DE7ED}" name="Column995"/>
-    <tableColumn id="996" xr3:uid="{4C16F390-5AED-C140-990B-D3D6F154261B}" name="Column996"/>
-    <tableColumn id="997" xr3:uid="{36FFD651-C4AD-A04B-AE39-A73AF945CC03}" name="Column997"/>
-    <tableColumn id="998" xr3:uid="{216A9526-375F-7748-800F-21F260C891E0}" name="Column998"/>
-    <tableColumn id="999" xr3:uid="{73DAE47D-0BF9-0C4F-AD3F-ED1EA287E00E}" name="Column999"/>
-    <tableColumn id="1000" xr3:uid="{680BE885-D80D-B547-AE05-25359691A688}" name="Column1000"/>
-    <tableColumn id="1001" xr3:uid="{9BE60E5D-BE9E-9A44-A69E-FCFD4C7837F2}" name="Column1001"/>
-    <tableColumn id="1002" xr3:uid="{AAB0194F-307E-BC43-90A6-008F02BAB297}" name="Column1002"/>
-    <tableColumn id="1003" xr3:uid="{234DD52B-5E78-1142-AED5-277C551F8CE8}" name="Column1003"/>
-    <tableColumn id="1004" xr3:uid="{3C93819A-2F15-D542-92E4-B511C0A7A73F}" name="Column1004"/>
-    <tableColumn id="1005" xr3:uid="{2347F801-C649-5442-9172-B3E05EC5F202}" name="Column1005"/>
-    <tableColumn id="1006" xr3:uid="{48A2CFC4-9747-C34D-9E0E-868D32683A1C}" name="Column1006"/>
-    <tableColumn id="1007" xr3:uid="{DC58D695-CF2D-1E48-854D-3CA51EECA5B7}" name="Column1007"/>
-    <tableColumn id="1008" xr3:uid="{64685287-BDEC-404B-BF5A-422F5C464E67}" name="Column1008"/>
-    <tableColumn id="1009" xr3:uid="{8C0A8105-EC64-E541-8934-E223FA4FD073}" name="Column1009"/>
-    <tableColumn id="1010" xr3:uid="{92E61537-54F6-3449-91D6-BDE5A651FF85}" name="Column1010"/>
-    <tableColumn id="1011" xr3:uid="{873C1493-4243-F141-A64A-281E7644DC19}" name="Column1011"/>
-    <tableColumn id="1012" xr3:uid="{545F80D1-F434-3541-B989-19C00DB65293}" name="Column1012"/>
-    <tableColumn id="1013" xr3:uid="{2BD6DF5A-561C-3A4F-9607-7EAA09E73EFF}" name="Column1013"/>
-    <tableColumn id="1014" xr3:uid="{E10A5EA7-35C3-FE49-A673-5D0D00DE119F}" name="Column1014"/>
-    <tableColumn id="1015" xr3:uid="{3E7CA17B-3F21-8F4D-8A86-2C93838CA6EB}" name="Column1015"/>
-    <tableColumn id="1016" xr3:uid="{641D7D84-B178-494E-911E-E9AD39D4152A}" name="Column1016"/>
-    <tableColumn id="1017" xr3:uid="{2A90E311-3E4F-A84F-8657-84C4E545A648}" name="Column1017"/>
-    <tableColumn id="1018" xr3:uid="{1CC590E7-CAF8-6841-BB45-B3C6447B6192}" name="Column1018"/>
-    <tableColumn id="1019" xr3:uid="{A05B42BD-D46F-DE4F-9B94-10179B36D9AE}" name="Column1019"/>
-    <tableColumn id="1020" xr3:uid="{5E366F74-809B-FC45-BFA6-EF5CF60C03BE}" name="Column1020"/>
-    <tableColumn id="1021" xr3:uid="{35638F46-DAAA-BC44-9329-402B9AD66DAD}" name="Column1021"/>
-    <tableColumn id="1022" xr3:uid="{EB4DB46C-CC80-AD4C-820D-9328CE6D996D}" name="Column1022"/>
-    <tableColumn id="1023" xr3:uid="{E6097FD1-6656-4846-A89E-002C1985A759}" name="Column1023"/>
-    <tableColumn id="1024" xr3:uid="{08350F01-9629-0443-A818-4F08D6DCA989}" name="Column1024"/>
+    <tableColumn id="1" xr3:uid="{6075BC5B-BBF5-3A4F-8691-1E01240D8667}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{B0D0B3B6-2C68-294B-B901-2E41BDEB6677}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{5A66463F-9177-2545-8B00-435920902C1C}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{813D20B8-63F3-9C4F-88A0-EC17B57CF009}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{36C537B3-9652-B24D-8D06-687B186BE975}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{DFB79122-0E12-8140-A863-DC9231D6709E}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{B946D07E-B74B-BC4A-AA20-B9E365A93EF8}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{E7EFF516-202A-944D-B318-6224F775EBA5}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{B50F84E2-8F1F-7343-B943-97A3ECD5D798}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{76EE1BD5-0B65-9A41-84CD-33D71BA7C236}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{24A93CE3-7418-B84F-BD3C-6E8470054B89}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{0BD8B5DA-C706-D342-8359-A7ABFF9ACC19}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{551EE499-83FE-A149-B14B-86E414E53E08}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{9C6C65B8-8D31-7842-8D6C-42AECC9BCBFA}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{FBBC4581-0839-734D-998E-865EA8B56A46}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{A6B0B13E-E1C8-A646-9BDF-A436F36634FC}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{0412EB15-A1F5-DA4E-A3A2-A53BCF1DAB35}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{4ABE3A4D-307F-0040-8892-ADA11D98B1DE}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{FBB19FFD-AFC8-5C47-811C-E947007D8645}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{95F0594D-A0EE-FB4C-AE02-5956334F26B3}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{C733EC65-E5A0-B54F-B190-74B7851642D4}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{551D02C9-80FC-B94D-B153-43E69E2B9F9F}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{41DDF578-B793-E247-B4EE-83BED561DAAA}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{B15F8D4A-F890-1A47-9F7E-4BE01A1CEF6A}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{69EDB071-EF10-4547-9B61-3C28463D15EC}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{28608B1A-9F9A-0647-BCEB-E2A3B7F81767}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{0078A5D1-E24B-EB4A-A3DD-5E45385D695F}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{E3F91AE3-1AF3-6D43-BFF8-B9D568581190}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{26646270-1733-5440-B9F9-2DBDE2734957}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{586C3506-A5AA-6146-87CB-AA7DD376F3EF}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{33BDB654-C3F0-244B-A9D0-08146C04A1A6}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{CCFD4099-EB7D-454C-89D9-D97534381979}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{E523D126-8334-C840-8B68-BC5098F61206}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{1E1422D0-378A-2D4F-B664-4347063C9492}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{F0EDBEAE-C8D1-2A42-AB52-883BD6D28C25}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{2055400B-F620-D343-9C5A-F83AAED21174}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{32BE0643-4F2C-A446-B9D9-CE3D9799A6C5}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{AFAFA63D-93A8-224B-8DB0-868E1E846EE4}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{AB5BF080-1D5F-BC4E-A235-270F0472F948}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{4C182D7E-1B5A-C14D-8793-00368EA22E7D}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{484389D6-C56C-7A47-AD81-E2EF0F88E1B6}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{463A9A27-8989-374F-A5E8-A0DEAB27A312}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{F7F52D55-D89E-5240-9E57-BE2F9AF0957C}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{32647D47-7CB6-9743-8253-FB5881B749DC}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{06623FCB-E81C-D444-89A3-3543F377C822}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{264A9033-1E15-5145-ABB1-1D6310852B71}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{E751987F-E5C8-3040-A00E-ED714C8D4090}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{BA57ED44-6F56-3F4F-BA4D-99DEB7E25307}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{4C0FC399-6BA5-B946-A6C9-AC860A42BF69}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{C53ABF70-4D87-D647-A4CD-61EB6353D8C1}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{2314ED56-BFDD-AF46-A4D5-D427AD1B31A7}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{44A9DB23-4A85-484C-B6A0-FF902EDCB462}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{44623E04-E94B-B34D-B2C8-879E277E68CB}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{FAFAFC41-A37B-D943-9525-A811DBA6F4CF}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{5EB538EC-845B-3E42-B4B1-85D5FEAAC5C4}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{FE997432-2345-F24C-B157-80781C42BC73}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{D6E2CD97-BBBC-7D4F-B44F-C792A3AE7FE6}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{D42E2C98-6442-6544-9DE8-9EE0FCB65FA7}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{4A537B72-EE0C-9D44-83F7-9535BC753832}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{5C0A2E0D-1DA5-4F4B-A7EC-AF69ED64CE1F}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{4757FCFD-321E-0F41-9D18-E9430831560C}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{5605ED58-9331-2243-B2B4-E827BCDC70A8}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{1CD42D94-6D6D-D34C-AF6F-374633C7A035}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{39551603-7835-664F-B9BA-C3378A42F376}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{4371FAC5-10C6-9940-B2B2-9953F046B3B7}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{5EA33DA7-3ECE-6A4A-B5F7-E091BAFFC4DE}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{15D7821B-AF9E-5D40-B97D-1D8FE3EC11B2}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{FCD62CDE-3F8F-9542-852F-D5AEF9FF93F3}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{A8DB6D40-DDF4-8047-8509-2F69FB7D2AE2}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{3380884B-57C8-A740-BB8A-2648B1611B86}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{C18097ED-2BDE-8743-8ECD-12F9267EC7F9}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{4F96BA2F-8636-0847-8811-CD3D8411CA23}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{0484EF90-0B18-6941-974C-756814BEC218}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{3F82C59B-F57C-C146-923E-37B1BA8E99D6}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{006CA700-3685-4543-A692-B8ADBE3E4165}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{E3FB4D0E-44CB-EC47-9E35-4FA03C50740E}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{C1FCC949-8E4F-4541-AD23-D449CE36B09E}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{3E34F945-45BC-CC4D-A331-22F48906B227}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{AB27834C-4F41-F14C-899A-2FDD9678D110}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{DA84723D-F92F-2E41-813B-D3BAC8427C10}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{F6D485FD-6A6A-084E-ABCE-818569E37346}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{A49C3B4C-7E4E-B244-8798-5F35CE224361}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{91A1A2F6-7B02-2B4E-B864-9849E313B1B8}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{64D0BBE6-47B0-2F4B-8D01-207C590CF68A}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{C71E9F62-1E14-974D-9F90-D950AC7D39D3}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{C4A3DAF8-C48D-524C-BE42-8E486CB500D2}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{37F5EF5C-A32A-6D4F-B492-C06A09471ADD}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{C9DEB249-6D8A-994B-8E62-0F643ABBEA80}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{CD289CEB-1AA8-8C48-90E2-60A7A5E194D1}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{9899FD18-D409-0C4D-84F3-5E8AA7DA87ED}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{40D852F7-CEAB-2E45-A89B-7783DB1402BF}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{F8C25760-0AEF-254F-9594-1AA00A422791}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{BC7947ED-D5D1-4841-9D60-CAA603EB1A91}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{323E5022-61DE-5C46-86AD-6266AC05B115}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{FFB724C8-ED91-1541-8791-92BF205C3021}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{55D511A0-AE74-CA48-8544-B37DB0DFB694}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{3BF5A521-AD48-E84B-B4F8-528976679C8A}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{21EA87A4-DD5C-3948-9D48-C697D53DDF65}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{4882D084-4506-6042-AC13-CCD840654455}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{29F61469-2F7A-3E47-83D5-FE5C8FD726A8}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{2054963A-3D16-BA42-A6EB-E4DA4650D163}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{C603D88C-E933-D54E-A07D-62E5C01D6062}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{3F66ACE0-1B88-6D43-AB16-667362ADEB4F}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{1B93C10F-7DA0-6A40-8923-6ED9E7B58FB7}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{B63BE12A-2EA4-414C-8EDF-F1F358CA9121}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{BBFABF39-80D1-B745-AE8A-13EE0FF1C19A}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{6B3C0361-75C9-B34A-92E5-B43850B87F7C}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{B6F5F1AC-F400-CF4B-8768-CFC9839CBE19}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{01890B7F-ECD8-AD45-BC08-52DCCEAC6EEB}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{0EAA97FD-CCE3-BD45-AA68-4AF6EE021976}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{F122EE1B-0E0C-B64A-99FA-DCB23A48703A}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{352D92CD-1979-324C-81D3-D4CC6FA3E5F1}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{FA413C33-1EDA-E74A-90D8-91D5D0862F48}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{A70E7C3E-59F1-4A45-A062-4EDF9A003B34}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{3375CAD6-D7D8-6740-94DD-F27E46E0A4DD}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{FE338D11-CBEA-DD4D-B1D9-DD231839C1A4}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{359BFBAE-313E-5E46-9547-E216D301E9FF}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{828971A0-34F0-D14E-9888-C10DEF366A34}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{DDF92D47-7B82-FD4B-B244-DA8E8D694423}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{4FF6F677-A159-5F48-95D4-00B6BA3F19CB}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{747DC4E7-A61F-CC42-AE1C-AC8A40756ED3}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{C57725F8-4550-C44B-9303-109861506C0D}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{E1A2B3CA-1A74-B142-93A6-1BBB9D8F1903}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{6560E45B-6E81-5D43-B0DA-22F19A9C6150}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{49C28BE1-76AF-354F-A660-1159707DE04A}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{1E184016-4778-7547-BBF3-2834B984D3DB}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{D558F603-73F1-D645-8269-2D96B99B1C44}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{F3570323-1538-2540-A611-5CBFD110210F}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{DD0112DD-6E07-8142-86D9-399DD2A6EE8D}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{272CB908-ADB5-A84A-A651-1506E6B87752}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{49133141-FFA8-C641-A7E2-7A56AD856366}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{6EC1FA1D-A19A-004D-8136-10823D84456B}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{15B3AD3F-F2AB-334E-9841-6BB74402CEDA}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{17C7490A-6926-1941-AB52-B68B0A0291D6}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{F527DC14-EB67-4041-8770-2E782A428F3E}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{5057A1D6-AFF1-1444-BA61-E41EB35DC8F9}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{62505039-DBBA-7A4D-8D1D-166ED8D4ED74}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{3A861051-08BE-B14D-9CD6-B06B45E7399E}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{1D5845A0-ADBD-D242-B297-5AD2847EBE6A}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{02C86379-4F5E-7F44-B352-6AB92D718C38}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{24A21CC3-11BC-6C4C-B610-4679342B17EA}" name="Column141"/>
+    <tableColumn id="142" xr3:uid="{A66F64DF-F64E-F744-A80C-61F64CDD1307}" name="Column142"/>
+    <tableColumn id="143" xr3:uid="{2D5DF5D1-7858-2047-A799-87A93DAFD105}" name="Column143"/>
+    <tableColumn id="144" xr3:uid="{9349EEB0-10BD-8949-82C0-A22E8841A28F}" name="Column144"/>
+    <tableColumn id="145" xr3:uid="{BC8E6E82-5D25-3745-A576-69796346AD23}" name="Column145"/>
+    <tableColumn id="146" xr3:uid="{0C40D121-8013-D549-8AFC-A8EB976CF0D6}" name="Column146"/>
+    <tableColumn id="147" xr3:uid="{33E737C7-B2BA-D246-A39A-EAB18B966101}" name="Column147"/>
+    <tableColumn id="148" xr3:uid="{17244F07-A659-EA4F-82E6-37817A04E9B2}" name="Column148"/>
+    <tableColumn id="149" xr3:uid="{AEBC7827-2013-5243-BE09-B87FED71ACCA}" name="Column149"/>
+    <tableColumn id="150" xr3:uid="{C9AA7DAC-D0DD-D349-9F43-20BFAA5E0209}" name="Column150"/>
+    <tableColumn id="151" xr3:uid="{B374BD49-E2E4-A14C-ACDE-B6D43DD5C93D}" name="Column151"/>
+    <tableColumn id="152" xr3:uid="{B5CEC03F-A8A5-134E-BAB1-3D32A4C19A55}" name="Column152"/>
+    <tableColumn id="153" xr3:uid="{604FAE17-C62E-4D41-B3D1-58DFAE758477}" name="Column153"/>
+    <tableColumn id="154" xr3:uid="{B42A099C-59C0-D842-9150-722337ABD87B}" name="Column154"/>
+    <tableColumn id="155" xr3:uid="{7B09847F-E818-DC42-9477-FC5B34403281}" name="Column155"/>
+    <tableColumn id="156" xr3:uid="{FD61C715-CB11-A943-9B5A-7725F8B25DB9}" name="Column156"/>
+    <tableColumn id="157" xr3:uid="{B5082C8A-71DA-C049-AD73-FA2222E9A58F}" name="Column157"/>
+    <tableColumn id="158" xr3:uid="{62C1C76D-66FB-9040-B189-041B5F957AED}" name="Column158"/>
+    <tableColumn id="159" xr3:uid="{AFFC9A52-EFA6-0842-A89F-BD3AF84B1637}" name="Column159"/>
+    <tableColumn id="160" xr3:uid="{DD5BCFBD-1F14-814A-9A29-109DF7895BEC}" name="Column160"/>
+    <tableColumn id="161" xr3:uid="{E8A1FDF3-9021-E440-AA2E-41D8B4AD55F0}" name="Column161"/>
+    <tableColumn id="162" xr3:uid="{1534EC04-A83C-A547-B59B-68A6FFFAD565}" name="Column162"/>
+    <tableColumn id="163" xr3:uid="{2CEA3A00-1203-8843-B14A-37EE07693509}" name="Column163"/>
+    <tableColumn id="164" xr3:uid="{E900989F-34A5-1D46-A0DA-192C5EF6C96B}" name="Column164"/>
+    <tableColumn id="165" xr3:uid="{A65C44F7-A3A0-0741-AF2A-69382BA54292}" name="Column165"/>
+    <tableColumn id="166" xr3:uid="{1D041E44-43DC-424C-9768-25F556841396}" name="Column166"/>
+    <tableColumn id="167" xr3:uid="{681363F3-0ECC-044F-B387-2E7EF7DDC41B}" name="Column167"/>
+    <tableColumn id="168" xr3:uid="{6ECFBEED-E562-8A44-8CA5-F800981A9A43}" name="Column168"/>
+    <tableColumn id="169" xr3:uid="{05F0A3EB-F9C3-A647-A76E-E43916B780A7}" name="Column169"/>
+    <tableColumn id="170" xr3:uid="{75865CF7-3C8B-F94B-9002-9AA75E70F7EA}" name="Column170"/>
+    <tableColumn id="171" xr3:uid="{F00EB19C-A407-0E42-AD57-1AD335D0CDC6}" name="Column171"/>
+    <tableColumn id="172" xr3:uid="{755CCBBA-5957-F742-AB16-FDEF44DCFE0A}" name="Column172"/>
+    <tableColumn id="173" xr3:uid="{7619E907-DEF7-8B49-8B76-95C8EDFDBBB6}" name="Column173"/>
+    <tableColumn id="174" xr3:uid="{C1EB4181-BC44-4148-8B87-8D02C8BE9ECF}" name="Column174"/>
+    <tableColumn id="175" xr3:uid="{9E3A66C7-AF11-8944-A85B-CEE1FD002D9F}" name="Column175"/>
+    <tableColumn id="176" xr3:uid="{FAC6F0AE-F077-CE40-9A1A-3ECBD8324E34}" name="Column176"/>
+    <tableColumn id="177" xr3:uid="{77B1C958-9F3E-0E4B-B47C-DEA6EBAFB1C2}" name="Column177"/>
+    <tableColumn id="178" xr3:uid="{3B1BE139-1298-AA48-8BA7-0ACE6A4C2DE0}" name="Column178"/>
+    <tableColumn id="179" xr3:uid="{18D32A82-610E-864D-B5AA-92E9D76073B8}" name="Column179"/>
+    <tableColumn id="180" xr3:uid="{2BEBD2CD-CA96-834A-937E-404EDA7413D0}" name="Column180"/>
+    <tableColumn id="181" xr3:uid="{8F43D843-04D7-8D45-96CB-24DBCA637B3B}" name="Column181"/>
+    <tableColumn id="182" xr3:uid="{6BC0FC0F-8135-E440-8C4E-660F24D37C50}" name="Column182"/>
+    <tableColumn id="183" xr3:uid="{376A484F-8AF3-2F4E-A430-089FC78B5433}" name="Column183"/>
+    <tableColumn id="184" xr3:uid="{8474274B-6ADA-ED49-AD65-EA029D72A85E}" name="Column184"/>
+    <tableColumn id="185" xr3:uid="{F3B2E347-3CF3-704A-8A78-551424CCA56A}" name="Column185"/>
+    <tableColumn id="186" xr3:uid="{14CA4E53-F450-6146-ABBF-A8B1C94BD71A}" name="Column186"/>
+    <tableColumn id="187" xr3:uid="{EB4638CC-CA2E-CA46-A944-EC45AF7A4DBF}" name="Column187"/>
+    <tableColumn id="188" xr3:uid="{3148EC03-855D-474A-B817-5F4B45658BA5}" name="Column188"/>
+    <tableColumn id="189" xr3:uid="{85024DDE-3CBF-2249-BC84-43B63A9016FE}" name="Column189"/>
+    <tableColumn id="190" xr3:uid="{13347CD3-8758-9742-90A3-B276C9CDF099}" name="Column190"/>
+    <tableColumn id="191" xr3:uid="{E73A61EB-0B81-234C-9AFC-33CBA55D757D}" name="Column191"/>
+    <tableColumn id="192" xr3:uid="{D6BA4AD1-0E7A-0C42-82B2-B30E44437232}" name="Column192"/>
+    <tableColumn id="193" xr3:uid="{14B41413-59A4-0548-B52A-E3B8BA0EFC06}" name="Column193"/>
+    <tableColumn id="194" xr3:uid="{DF3DD099-48FE-AE4F-9005-23280D192385}" name="Column194"/>
+    <tableColumn id="195" xr3:uid="{FE738B99-0CEC-1649-8E3A-7E210829F43B}" name="Column195"/>
+    <tableColumn id="196" xr3:uid="{528CF001-3B8A-AE4C-892B-A2007917CDF2}" name="Column196"/>
+    <tableColumn id="197" xr3:uid="{D1891A43-29EF-4B46-B434-3AF35CA24415}" name="Column197"/>
+    <tableColumn id="198" xr3:uid="{B5698E8F-E768-6C44-9179-550A2B4BA70F}" name="Column198"/>
+    <tableColumn id="199" xr3:uid="{24099162-5DCE-9340-A7AB-3C59C899CD74}" name="Column199"/>
+    <tableColumn id="200" xr3:uid="{9978D49E-A5D3-7D46-BBC7-913E4B62F636}" name="Column200"/>
+    <tableColumn id="201" xr3:uid="{8E1175A0-BB66-7146-B223-753F6FB5A678}" name="Column201"/>
+    <tableColumn id="202" xr3:uid="{4AE9F2F3-3494-4244-B707-4204BABD0AEB}" name="Column202"/>
+    <tableColumn id="203" xr3:uid="{856000B0-7686-754B-A850-78B5F2BC07D9}" name="Column203"/>
+    <tableColumn id="204" xr3:uid="{AC46C3F6-0EDF-C04A-9345-FCECC87A222A}" name="Column204"/>
+    <tableColumn id="205" xr3:uid="{6766CF10-6923-0244-B97D-A00EA16C53B9}" name="Column205"/>
+    <tableColumn id="206" xr3:uid="{6A9D8E8B-19E4-044C-9D20-6860263776EF}" name="Column206"/>
+    <tableColumn id="207" xr3:uid="{418D543F-FF34-1344-9E5C-6F4AD2BA0321}" name="Column207"/>
+    <tableColumn id="208" xr3:uid="{11133569-8CB5-D84F-8D61-B7B78D19D61A}" name="Column208"/>
+    <tableColumn id="209" xr3:uid="{99D0A5F7-A2C8-334B-9B7A-159095EFFF12}" name="Column209"/>
+    <tableColumn id="210" xr3:uid="{0E70EB9F-F4AD-BF42-A18E-8DAE41F016D4}" name="Column210"/>
+    <tableColumn id="211" xr3:uid="{91379C9A-814A-E948-A42A-5793028BC683}" name="Column211"/>
+    <tableColumn id="212" xr3:uid="{8C4568A3-7104-894B-8DC6-2D3E99683665}" name="Column212"/>
+    <tableColumn id="213" xr3:uid="{7EE20368-3DEB-9540-BD84-DDC120BDE84C}" name="Column213"/>
+    <tableColumn id="214" xr3:uid="{475A2982-AEA3-FF4B-B2FA-462055B3069F}" name="Column214"/>
+    <tableColumn id="215" xr3:uid="{5A7A6B34-91E4-E648-8008-39811C32355F}" name="Column215"/>
+    <tableColumn id="216" xr3:uid="{94FEA481-ABDC-4F42-A9FC-A46D3D11F1B8}" name="Column216"/>
+    <tableColumn id="217" xr3:uid="{462FAEE0-DD7F-5343-9BB4-F3147A92B4E7}" name="Column217"/>
+    <tableColumn id="218" xr3:uid="{72356387-141A-D648-8502-030046155F1A}" name="Column218"/>
+    <tableColumn id="219" xr3:uid="{E15D7CD8-62BD-AA47-B08C-1F328266585F}" name="Column219"/>
+    <tableColumn id="220" xr3:uid="{16CB3064-154B-BD4B-8405-CBEAA0B48CF8}" name="Column220"/>
+    <tableColumn id="221" xr3:uid="{BFF635C5-6976-BF43-8626-106D7878729B}" name="Column221"/>
+    <tableColumn id="222" xr3:uid="{BACB7F96-215B-9848-8A4C-B2A248310885}" name="Column222"/>
+    <tableColumn id="223" xr3:uid="{2CE9F63C-BF4C-9E4B-8DD3-09B95B777334}" name="Column223"/>
+    <tableColumn id="224" xr3:uid="{9BB7D526-52E0-114E-9213-32868055F3E4}" name="Column224"/>
+    <tableColumn id="225" xr3:uid="{9447ED48-E266-FC4A-9237-3FF968EDCF53}" name="Column225"/>
+    <tableColumn id="226" xr3:uid="{58EA92DF-5566-9F44-BD6E-5B22B4224E57}" name="Column226"/>
+    <tableColumn id="227" xr3:uid="{251AEE98-CD44-DC40-A1BE-0B135BFD7038}" name="Column227"/>
+    <tableColumn id="228" xr3:uid="{AC4EA6A3-5282-A04D-A7C1-6241776ADA9F}" name="Column228"/>
+    <tableColumn id="229" xr3:uid="{014E1B33-832B-BE46-AA2C-62BD133B7EEF}" name="Column229"/>
+    <tableColumn id="230" xr3:uid="{0A293CA7-94E2-5B4E-B9ED-FBDAFA2F90ED}" name="Column230"/>
+    <tableColumn id="231" xr3:uid="{1717E02B-9CAC-394C-9CF7-1B64569324CE}" name="Column231"/>
+    <tableColumn id="232" xr3:uid="{8E497A8E-21A4-F74F-8BE0-5C11C1390958}" name="Column232"/>
+    <tableColumn id="233" xr3:uid="{27E66DED-4E16-8442-8880-8B3012A8A05D}" name="Column233"/>
+    <tableColumn id="234" xr3:uid="{17EF7094-D963-BA4F-85E5-6CB4C47D9C28}" name="Column234"/>
+    <tableColumn id="235" xr3:uid="{901F3928-B24A-2B43-8258-8BAA9E5BD24E}" name="Column235"/>
+    <tableColumn id="236" xr3:uid="{617FB805-F5E2-8A47-AF2C-64354273A94C}" name="Column236"/>
+    <tableColumn id="237" xr3:uid="{628B5196-1841-E443-8E9C-7285EAB60FF0}" name="Column237"/>
+    <tableColumn id="238" xr3:uid="{B91F5F91-ADD2-F446-A23A-6D464BE29359}" name="Column238"/>
+    <tableColumn id="239" xr3:uid="{B238D983-6D8A-7B4E-A6C6-BE11F7F16300}" name="Column239"/>
+    <tableColumn id="240" xr3:uid="{5E5B19BD-2B6F-BE45-BA2A-65F8032F948E}" name="Column240"/>
+    <tableColumn id="241" xr3:uid="{F3656D1E-4A0A-FB43-95B3-6E40D5F6CC81}" name="Column241"/>
+    <tableColumn id="242" xr3:uid="{E3E63BE3-60FB-BB4B-B84F-443FA61254D1}" name="Column242"/>
+    <tableColumn id="243" xr3:uid="{649B6E99-2A49-BA44-A64C-C8F777D4A30E}" name="Column243"/>
+    <tableColumn id="244" xr3:uid="{AEA22D7D-67A8-AD43-8653-90AF1F1CC8B9}" name="Column244"/>
+    <tableColumn id="245" xr3:uid="{543D5C9C-D909-A740-A870-27B6F4777D6D}" name="Column245"/>
+    <tableColumn id="246" xr3:uid="{B01F1CBB-CD70-5643-8EAA-4A3368F2BF11}" name="Column246"/>
+    <tableColumn id="247" xr3:uid="{A86C09D7-013D-BB46-B83E-78530099B21B}" name="Column247"/>
+    <tableColumn id="248" xr3:uid="{7850C6BC-3BF5-8C48-92CF-342A2BB49D28}" name="Column248"/>
+    <tableColumn id="249" xr3:uid="{640796A6-951D-A94D-9774-4E1B1A0E75AC}" name="Column249"/>
+    <tableColumn id="250" xr3:uid="{1F35AD10-7F6F-7743-9DFF-76914C86FB9F}" name="Column250"/>
+    <tableColumn id="251" xr3:uid="{62FEB172-B4FC-5A4A-8613-384299D44CE7}" name="Column251"/>
+    <tableColumn id="252" xr3:uid="{39433B3C-2479-5C48-A187-67F0F23009F8}" name="Column252"/>
+    <tableColumn id="253" xr3:uid="{0A3662D3-6843-E640-88E1-B5A09D6F5134}" name="Column253"/>
+    <tableColumn id="254" xr3:uid="{E08CFC09-240F-5543-8108-EB15E38FC696}" name="Column254"/>
+    <tableColumn id="255" xr3:uid="{7D9A09F9-26CB-CD40-9DE9-23A6B5217BC5}" name="Column255"/>
+    <tableColumn id="256" xr3:uid="{B4CE7FC6-D182-644D-80E3-3EEC5184AC84}" name="Column256"/>
+    <tableColumn id="257" xr3:uid="{96C3916F-C2BA-1443-9232-762FC70B38C4}" name="Column257"/>
+    <tableColumn id="258" xr3:uid="{1EF6C2F9-A9FD-D34C-892C-18EBC17F51A8}" name="Column258"/>
+    <tableColumn id="259" xr3:uid="{A83B17C1-118E-6544-863A-05DC0847E947}" name="Column259"/>
+    <tableColumn id="260" xr3:uid="{1E219C74-8CCF-0D4C-8D29-81CF59ACD18D}" name="Column260"/>
+    <tableColumn id="261" xr3:uid="{B56A1274-D097-FD41-AC96-15723D659608}" name="Column261"/>
+    <tableColumn id="262" xr3:uid="{66BDF546-89C2-504F-8ABD-E5598509EF3A}" name="Column262"/>
+    <tableColumn id="263" xr3:uid="{5D4B8067-B304-2749-9720-FF28722D1FCB}" name="Column263"/>
+    <tableColumn id="264" xr3:uid="{D343242A-B88B-0141-8851-CE2558B3C360}" name="Column264"/>
+    <tableColumn id="265" xr3:uid="{DC7B900C-4CD0-E843-9502-A76F89375A0A}" name="Column265"/>
+    <tableColumn id="266" xr3:uid="{56A3AF7E-7B28-2845-8D31-775FBB99A637}" name="Column266"/>
+    <tableColumn id="267" xr3:uid="{473C6FB8-007D-F24D-900D-1A3D543CEC91}" name="Column267"/>
+    <tableColumn id="268" xr3:uid="{AFCFA60B-4D18-084F-9EF9-DE10F286DFA7}" name="Column268"/>
+    <tableColumn id="269" xr3:uid="{2EC29BDA-A4D3-4245-B3D7-331E289BB52B}" name="Column269"/>
+    <tableColumn id="270" xr3:uid="{89C5423A-FC42-7D49-9C25-1261CC127C13}" name="Column270"/>
+    <tableColumn id="271" xr3:uid="{B858DA29-761E-684C-9FDB-0ED4F97810BE}" name="Column271"/>
+    <tableColumn id="272" xr3:uid="{8D567BA6-D530-6B46-9044-CC427ECBACA2}" name="Column272"/>
+    <tableColumn id="273" xr3:uid="{F41AF075-B9C1-6447-8241-4882DC5EABDB}" name="Column273"/>
+    <tableColumn id="274" xr3:uid="{8EAC7946-20AA-DE42-8E05-0124A271F658}" name="Column274"/>
+    <tableColumn id="275" xr3:uid="{5EC78465-2E46-DA41-BF8E-A45F24B0990E}" name="Column275"/>
+    <tableColumn id="276" xr3:uid="{86477041-2F10-F046-9B57-530ACA640564}" name="Column276"/>
+    <tableColumn id="277" xr3:uid="{BB8026D8-B62E-C04F-9D1B-6C2E6701F9AF}" name="Column277"/>
+    <tableColumn id="278" xr3:uid="{4F7D8A11-8635-9640-A669-0644632D5074}" name="Column278"/>
+    <tableColumn id="279" xr3:uid="{CAFEFBC9-6340-A84E-81B6-846EBBB2C094}" name="Column279"/>
+    <tableColumn id="280" xr3:uid="{43C2CB9E-7FA3-AD4A-AE50-EE30B9908555}" name="Column280"/>
+    <tableColumn id="281" xr3:uid="{C4615AF9-67E5-B848-9908-24FD39439912}" name="Column281"/>
+    <tableColumn id="282" xr3:uid="{A6C3B449-C881-AE45-AED2-ED9791BAA36B}" name="Column282"/>
+    <tableColumn id="283" xr3:uid="{5C80D152-7481-9441-94E7-295834EC7520}" name="Column283"/>
+    <tableColumn id="284" xr3:uid="{C213CEA6-EF35-6A43-A3C2-1E314930E6DA}" name="Column284"/>
+    <tableColumn id="285" xr3:uid="{BE3D5F2B-8C93-824A-BFF0-85BF0D9AF696}" name="Column285"/>
+    <tableColumn id="286" xr3:uid="{A0C2A362-B03C-1B4B-9E39-50981935C178}" name="Column286"/>
+    <tableColumn id="287" xr3:uid="{7C1D4931-60BA-174D-B259-28E668E60BC3}" name="Column287"/>
+    <tableColumn id="288" xr3:uid="{643C800A-7D24-7247-9DFA-E1B668B22D04}" name="Column288"/>
+    <tableColumn id="289" xr3:uid="{A615CB30-C1B8-5143-8F6B-B9AC6167EC5C}" name="Column289"/>
+    <tableColumn id="290" xr3:uid="{DF57D99F-F4DF-B347-B301-B9F7811ECD4C}" name="Column290"/>
+    <tableColumn id="291" xr3:uid="{CCA8A03B-80E1-5A4C-ABD1-1757FCE76F68}" name="Column291"/>
+    <tableColumn id="292" xr3:uid="{A7F71A4D-84B9-0B4C-BED7-DAAFBE478810}" name="Column292"/>
+    <tableColumn id="293" xr3:uid="{1A298D3D-93FC-EA45-AFAE-B3807A485827}" name="Column293"/>
+    <tableColumn id="294" xr3:uid="{A690AB66-F5D8-0A44-AA75-7E6D6C788C7C}" name="Column294"/>
+    <tableColumn id="295" xr3:uid="{33DF1782-6239-7345-A4DF-17479F2A2D6C}" name="Column295"/>
+    <tableColumn id="296" xr3:uid="{11ED016F-7F6F-2E47-BB1A-4305708E88F2}" name="Column296"/>
+    <tableColumn id="297" xr3:uid="{C69F57FE-2C88-304A-BC5D-0ADBD88F314E}" name="Column297"/>
+    <tableColumn id="298" xr3:uid="{6FB8DF60-7536-BB41-B781-EC260FE779C7}" name="Column298"/>
+    <tableColumn id="299" xr3:uid="{57BC72ED-3046-064A-9837-807BD34D6DAE}" name="Column299"/>
+    <tableColumn id="300" xr3:uid="{17178B1F-8F9A-0147-8D50-6D0783C65C3A}" name="Column300"/>
+    <tableColumn id="301" xr3:uid="{159F31ED-93EB-BF48-8A23-01DDD5C2A417}" name="Column301"/>
+    <tableColumn id="302" xr3:uid="{D7FF94FE-BD2F-F349-8D9C-B2B27C41738E}" name="Column302"/>
+    <tableColumn id="303" xr3:uid="{A5057A59-10B9-D843-91E1-38D5D8FCADAC}" name="Column303"/>
+    <tableColumn id="304" xr3:uid="{702719DE-699F-9B41-9AAF-296E2DC881CD}" name="Column304"/>
+    <tableColumn id="305" xr3:uid="{FDBF1EC6-181A-064D-BFE2-79DD7FAE28BB}" name="Column305"/>
+    <tableColumn id="306" xr3:uid="{71986548-DF39-CE49-A11F-FF0C1D0C688F}" name="Column306"/>
+    <tableColumn id="307" xr3:uid="{09D5163A-E99B-144E-8439-CFAC89239651}" name="Column307"/>
+    <tableColumn id="308" xr3:uid="{61F82978-B0FB-2A48-BD08-979F61FF182E}" name="Column308"/>
+    <tableColumn id="309" xr3:uid="{3CF96540-EE22-784A-95A5-7652FFB42DCD}" name="Column309"/>
+    <tableColumn id="310" xr3:uid="{55102970-3BE8-2F48-BFDD-A3C171525287}" name="Column310"/>
+    <tableColumn id="311" xr3:uid="{CE30C283-4C0C-2841-B48D-0935CCD48D9D}" name="Column311"/>
+    <tableColumn id="312" xr3:uid="{AF9F3978-3CE4-DE47-A441-57F02552F9F4}" name="Column312"/>
+    <tableColumn id="313" xr3:uid="{78E2B62B-30FE-2F4D-9531-2D719C398D34}" name="Column313"/>
+    <tableColumn id="314" xr3:uid="{78077BB7-5E6A-794F-8B4F-F8C1E8B65647}" name="Column314"/>
+    <tableColumn id="315" xr3:uid="{1CEA8077-BC24-4843-8013-AE293D76F37C}" name="Column315"/>
+    <tableColumn id="316" xr3:uid="{0786BEFD-94C9-424D-9E66-44348C33E7E3}" name="Column316"/>
+    <tableColumn id="317" xr3:uid="{B2391A63-88BE-104D-9C40-0CCFE0B09489}" name="Column317"/>
+    <tableColumn id="318" xr3:uid="{ECEF5879-2F46-5D43-9468-35F45E3B3A73}" name="Column318"/>
+    <tableColumn id="319" xr3:uid="{83C53B18-0805-DC45-A5CA-FD2C512E3EEF}" name="Column319"/>
+    <tableColumn id="320" xr3:uid="{2CE91A6F-F9E1-884C-A978-B2F0D7E0C176}" name="Column320"/>
+    <tableColumn id="321" xr3:uid="{87B15912-F85F-E645-8F45-1566EC43B858}" name="Column321"/>
+    <tableColumn id="322" xr3:uid="{B22BA85D-13B5-A143-BAC4-E301F904E310}" name="Column322"/>
+    <tableColumn id="323" xr3:uid="{8D66ED57-2A9D-B84D-8534-D7551B60F719}" name="Column323"/>
+    <tableColumn id="324" xr3:uid="{652EB290-9A7D-344A-9D0B-D88BB92A3606}" name="Column324"/>
+    <tableColumn id="325" xr3:uid="{040DE535-6E02-B343-BC7C-4B71EB3196E4}" name="Column325"/>
+    <tableColumn id="326" xr3:uid="{DEF7266B-FE29-4A46-9106-F38E2306296B}" name="Column326"/>
+    <tableColumn id="327" xr3:uid="{0E96DB03-B376-A445-AE6D-15D9EB8678AC}" name="Column327"/>
+    <tableColumn id="328" xr3:uid="{481EEB03-F9BC-7C45-B35B-A63D8F06010F}" name="Column328"/>
+    <tableColumn id="329" xr3:uid="{6D150B48-7F4F-F04E-98CC-6D01FC7C20E2}" name="Column329"/>
+    <tableColumn id="330" xr3:uid="{605F7AF0-102F-AB40-A060-C70643C73167}" name="Column330"/>
+    <tableColumn id="331" xr3:uid="{4A3138AF-7972-F947-BF5F-B7BF9D3DF222}" name="Column331"/>
+    <tableColumn id="332" xr3:uid="{A7FD6EE6-491A-AD41-B8C0-3D291EDD5617}" name="Column332"/>
+    <tableColumn id="333" xr3:uid="{3D11AB1D-F567-224F-9581-EBA4A7E97045}" name="Column333"/>
+    <tableColumn id="334" xr3:uid="{7826A1F3-56A8-F74E-81EC-9C950CC8B418}" name="Column334"/>
+    <tableColumn id="335" xr3:uid="{2B17AE1D-525C-B54D-A4B6-EC0A0813623C}" name="Column335"/>
+    <tableColumn id="336" xr3:uid="{7EF875B7-8277-5C4A-9484-D65ACA7E6DE5}" name="Column336"/>
+    <tableColumn id="337" xr3:uid="{6361C082-4A4C-0440-88EB-D174654910BD}" name="Column337"/>
+    <tableColumn id="338" xr3:uid="{6AF19B8E-CD3E-EB4B-BFDE-2861C65E4D46}" name="Column338"/>
+    <tableColumn id="339" xr3:uid="{3418CC99-886E-564B-987F-D700710EF027}" name="Column339"/>
+    <tableColumn id="340" xr3:uid="{2852C88D-FE56-0E4C-8D85-E1EDBC898C61}" name="Column340"/>
+    <tableColumn id="341" xr3:uid="{6882201C-0EDC-A340-BA89-E8CD3F37172E}" name="Column341"/>
+    <tableColumn id="342" xr3:uid="{036E0CD9-75E8-A14C-B283-8F97A2FEF5C9}" name="Column342"/>
+    <tableColumn id="343" xr3:uid="{F52A7111-DCB0-6647-9921-EF3FF25CD074}" name="Column343"/>
+    <tableColumn id="344" xr3:uid="{54C3720F-B235-6D46-BF3D-BF1CA0B6DF09}" name="Column344"/>
+    <tableColumn id="345" xr3:uid="{05FA8489-EF6F-3E4B-ADC2-8337E7356E30}" name="Column345"/>
+    <tableColumn id="346" xr3:uid="{1829DC76-B9AD-6443-8196-4D47E2895940}" name="Column346"/>
+    <tableColumn id="347" xr3:uid="{7C61B193-1295-8F47-8CB9-5245230A5FC8}" name="Column347"/>
+    <tableColumn id="348" xr3:uid="{6BAF98F0-D116-4647-BDCF-A26355A04869}" name="Column348"/>
+    <tableColumn id="349" xr3:uid="{FD8CB3C7-FFE0-5141-8476-BA40D5D979B1}" name="Column349"/>
+    <tableColumn id="350" xr3:uid="{11ADF797-C031-FC44-BE27-8DA6243340C4}" name="Column350"/>
+    <tableColumn id="351" xr3:uid="{A3C80E7D-8B2A-AB45-8CFD-A0310BD8C42E}" name="Column351"/>
+    <tableColumn id="352" xr3:uid="{94BC125E-C618-E643-9C06-D243A5E8E432}" name="Column352"/>
+    <tableColumn id="353" xr3:uid="{21DAA5A2-E091-084E-9090-6479341C2BD4}" name="Column353"/>
+    <tableColumn id="354" xr3:uid="{E8647A43-13CE-6D4F-8179-2B20D32A0745}" name="Column354"/>
+    <tableColumn id="355" xr3:uid="{3F87CEF9-2A7A-8842-9FFA-6764F419EF44}" name="Column355"/>
+    <tableColumn id="356" xr3:uid="{87C409C5-218C-9F4B-AA3F-5B473DC49F3E}" name="Column356"/>
+    <tableColumn id="357" xr3:uid="{558801EB-DDD8-6A49-934F-D0680047CE9B}" name="Column357"/>
+    <tableColumn id="358" xr3:uid="{744F04F8-F370-DA4E-A5C0-A0F14A13E06B}" name="Column358"/>
+    <tableColumn id="359" xr3:uid="{EA4AE0BA-1F88-8E46-9971-20DA0B684184}" name="Column359"/>
+    <tableColumn id="360" xr3:uid="{652F97F9-B1E7-9A4E-BF12-1BA6E828287F}" name="Column360"/>
+    <tableColumn id="361" xr3:uid="{37865005-ED6F-534F-9619-77F089D1DEAD}" name="Column361"/>
+    <tableColumn id="362" xr3:uid="{2F81A861-847F-8E47-8648-A8F46002343B}" name="Column362"/>
+    <tableColumn id="363" xr3:uid="{A5846D29-114C-DC42-936D-361D7F45EF85}" name="Column363"/>
+    <tableColumn id="364" xr3:uid="{671CADEE-DBA5-9A40-BB70-F19E8320FB25}" name="Column364"/>
+    <tableColumn id="365" xr3:uid="{BE88AEF4-CD79-984C-8785-46881E234055}" name="Column365"/>
+    <tableColumn id="366" xr3:uid="{30D6F661-D620-BA43-98BC-46A371EBFCAD}" name="Column366"/>
+    <tableColumn id="367" xr3:uid="{6C224580-C818-4243-B832-A14DA3C3B755}" name="Column367"/>
+    <tableColumn id="368" xr3:uid="{4F60652D-577E-9543-850B-1FD9BB8FE531}" name="Column368"/>
+    <tableColumn id="369" xr3:uid="{62ACC469-51DA-3943-9B0E-4641F9DCFD72}" name="Column369"/>
+    <tableColumn id="370" xr3:uid="{BFE12593-ABCD-F34C-BD5E-28E64EEB9A32}" name="Column370"/>
+    <tableColumn id="371" xr3:uid="{33C4773F-63E8-4A4B-B058-9AA304F6B223}" name="Column371"/>
+    <tableColumn id="372" xr3:uid="{9836F69F-ABA8-E040-BEF2-26BF1BFD196D}" name="Column372"/>
+    <tableColumn id="373" xr3:uid="{17C8B309-D414-DD45-8934-D9DC88BABAC2}" name="Column373"/>
+    <tableColumn id="374" xr3:uid="{9502B0E4-9FE6-284B-97D6-95D357BB7044}" name="Column374"/>
+    <tableColumn id="375" xr3:uid="{65ECC9D4-A110-FA4A-A09B-7BDFED51CD0C}" name="Column375"/>
+    <tableColumn id="376" xr3:uid="{8EC20F76-147E-A24C-96A9-C19DA0FFE4F6}" name="Column376"/>
+    <tableColumn id="377" xr3:uid="{BBC54C78-E30E-5B47-904F-C20D0AC3F528}" name="Column377"/>
+    <tableColumn id="378" xr3:uid="{E1FB6D5D-93DE-184F-9B72-72AF2288688E}" name="Column378"/>
+    <tableColumn id="379" xr3:uid="{E6343F37-5E39-6047-8B13-60BEC578114E}" name="Column379"/>
+    <tableColumn id="380" xr3:uid="{1398A2F1-427F-5343-8B83-9C4ABECE6985}" name="Column380"/>
+    <tableColumn id="381" xr3:uid="{BE39FD7A-3F7C-2C46-9188-A70E36D3BC60}" name="Column381"/>
+    <tableColumn id="382" xr3:uid="{D8D1574F-C333-3A49-B84B-22F2A4D1F933}" name="Column382"/>
+    <tableColumn id="383" xr3:uid="{0C7DAA64-8F02-2F43-A3A5-CA9E77AB8D97}" name="Column383"/>
+    <tableColumn id="384" xr3:uid="{2C066783-6A86-C64E-8BB6-59435E2DDC74}" name="Column384"/>
+    <tableColumn id="385" xr3:uid="{F3E80259-D663-484B-BC5E-80B88818C7C7}" name="Column385"/>
+    <tableColumn id="386" xr3:uid="{3823D770-CA45-064D-AF95-8CC5C3B32F61}" name="Column386"/>
+    <tableColumn id="387" xr3:uid="{382E6442-959C-F344-AA19-D9B946E4722E}" name="Column387"/>
+    <tableColumn id="388" xr3:uid="{08AB2FDC-EDDA-3745-8556-E14790438C08}" name="Column388"/>
+    <tableColumn id="389" xr3:uid="{CB2EC080-A438-F44D-A081-2E67C919C4B6}" name="Column389"/>
+    <tableColumn id="390" xr3:uid="{BE64D1C3-BF5B-7D41-98FC-386326B526FF}" name="Column390"/>
+    <tableColumn id="391" xr3:uid="{7E51183E-2453-EC43-ADF7-8508E8F9613D}" name="Column391"/>
+    <tableColumn id="392" xr3:uid="{A8E5CA4E-6DDC-7849-86B9-76F1F4FFDD4D}" name="Column392"/>
+    <tableColumn id="393" xr3:uid="{678FDB46-96F2-EF44-8F9F-FA05958D1334}" name="Column393"/>
+    <tableColumn id="394" xr3:uid="{2F06B782-8D69-6949-B52C-E560E58BA851}" name="Column394"/>
+    <tableColumn id="395" xr3:uid="{F937959A-FCBA-2E40-98A2-396CFE72C39C}" name="Column395"/>
+    <tableColumn id="396" xr3:uid="{39BDB0BC-FF8A-404B-A671-022BF06B2B49}" name="Column396"/>
+    <tableColumn id="397" xr3:uid="{4F5CC789-DC70-2C45-9314-6F99217D63B9}" name="Column397"/>
+    <tableColumn id="398" xr3:uid="{589CDDC6-5200-794C-BF49-A2EEE41FECDF}" name="Column398"/>
+    <tableColumn id="399" xr3:uid="{BCC3B031-33B8-F540-BD1E-2662783788C7}" name="Column399"/>
+    <tableColumn id="400" xr3:uid="{7A0E7530-3B0E-2D48-8D4A-30B7B8D995D4}" name="Column400"/>
+    <tableColumn id="401" xr3:uid="{6037160E-D250-E049-98DE-AF752B4C7987}" name="Column401"/>
+    <tableColumn id="402" xr3:uid="{94339754-C6D5-7944-A75E-7DAD32C25ECE}" name="Column402"/>
+    <tableColumn id="403" xr3:uid="{E55B6BAA-E686-9445-B4EA-0195D29653BE}" name="Column403"/>
+    <tableColumn id="404" xr3:uid="{8FF58EF9-9143-F143-B9D3-D298202B2CA3}" name="Column404"/>
+    <tableColumn id="405" xr3:uid="{2E8CAE3B-F857-A94F-97BE-2DD4450BF51E}" name="Column405"/>
+    <tableColumn id="406" xr3:uid="{A97FA3BE-DB4E-9543-A979-5C0436B105AB}" name="Column406"/>
+    <tableColumn id="407" xr3:uid="{F0780B6D-C9B0-914D-936A-588ABBEE412C}" name="Column407"/>
+    <tableColumn id="408" xr3:uid="{C84AE11D-C73D-0041-A6DA-49DF57FBD60D}" name="Column408"/>
+    <tableColumn id="409" xr3:uid="{F42CA48E-7937-9440-8CDE-FF31C7A1ACCC}" name="Column409"/>
+    <tableColumn id="410" xr3:uid="{470335E5-DB5D-3748-AD39-743B54F37C01}" name="Column410"/>
+    <tableColumn id="411" xr3:uid="{0DBCDA7C-E795-2B4D-832D-3DA648065650}" name="Column411"/>
+    <tableColumn id="412" xr3:uid="{EA0E8619-F478-7941-8C62-22E65BB8853B}" name="Column412"/>
+    <tableColumn id="413" xr3:uid="{DF62CF80-144E-BE4E-8C3D-1AFB7158244A}" name="Column413"/>
+    <tableColumn id="414" xr3:uid="{46D90836-95A2-E642-A9A9-6D8EA2FC5BEB}" name="Column414"/>
+    <tableColumn id="415" xr3:uid="{B81BF0BB-0057-3B46-8117-48D4764D6FA0}" name="Column415"/>
+    <tableColumn id="416" xr3:uid="{E0A97EC6-FD44-1349-BE0B-F0FE0D6BD309}" name="Column416"/>
+    <tableColumn id="417" xr3:uid="{685000B9-C25E-404F-94F0-C96740DAA54F}" name="Column417"/>
+    <tableColumn id="418" xr3:uid="{5E77640C-2CF1-C546-BD2D-F222B8801E9A}" name="Column418"/>
+    <tableColumn id="419" xr3:uid="{4378976E-6364-714C-B9CF-0C30A1FF24D6}" name="Column419"/>
+    <tableColumn id="420" xr3:uid="{957AE678-708C-5249-A4C1-3051DC7CAE44}" name="Column420"/>
+    <tableColumn id="421" xr3:uid="{8B1DA905-A104-DF40-BDE6-CA6B847F6ABE}" name="Column421"/>
+    <tableColumn id="422" xr3:uid="{F31EDBFD-645E-6E46-A09A-1DD05BBBBF2D}" name="Column422"/>
+    <tableColumn id="423" xr3:uid="{A6B93A6F-FA5F-8540-BA73-C35B614CF1C1}" name="Column423"/>
+    <tableColumn id="424" xr3:uid="{E516B93D-9353-1E4D-8764-669552139051}" name="Column424"/>
+    <tableColumn id="425" xr3:uid="{DE4CA780-3422-1646-AB77-3909944EC7B9}" name="Column425"/>
+    <tableColumn id="426" xr3:uid="{678E8749-825D-E649-BBA2-937B02BC94E0}" name="Column426"/>
+    <tableColumn id="427" xr3:uid="{E226A3BE-3F93-4A46-BD64-A7A5614BE486}" name="Column427"/>
+    <tableColumn id="428" xr3:uid="{BB011E12-AA91-954D-9E19-7D30C6EC3210}" name="Column428"/>
+    <tableColumn id="429" xr3:uid="{AFAED436-5628-9043-B226-A5973A6D6B17}" name="Column429"/>
+    <tableColumn id="430" xr3:uid="{B66C4C3F-D4B5-1647-AEC0-BB18BAF897E8}" name="Column430"/>
+    <tableColumn id="431" xr3:uid="{DA2CCE57-9C56-8245-B492-E8DAAC1049C4}" name="Column431"/>
+    <tableColumn id="432" xr3:uid="{E5505EEE-B93C-A349-9C30-7DEDA3686333}" name="Column432"/>
+    <tableColumn id="433" xr3:uid="{1FC027B9-32D7-E347-8FEF-0AEA5CCB0DD7}" name="Column433"/>
+    <tableColumn id="434" xr3:uid="{EF4694D4-ECEA-CA49-8F3D-967E6C0109D2}" name="Column434"/>
+    <tableColumn id="435" xr3:uid="{E701ABD9-1804-7B43-BCB5-CEC1A297FE49}" name="Column435"/>
+    <tableColumn id="436" xr3:uid="{A99F89AC-C9AB-7D43-95FC-2FC6DB96EC21}" name="Column436"/>
+    <tableColumn id="437" xr3:uid="{2322AA40-6387-6D49-B9F8-9EF970A232D2}" name="Column437"/>
+    <tableColumn id="438" xr3:uid="{317D4831-616C-084A-9281-EDCB5D6695E8}" name="Column438"/>
+    <tableColumn id="439" xr3:uid="{B33315BD-9CD5-3C47-AAD3-939B262D6496}" name="Column439"/>
+    <tableColumn id="440" xr3:uid="{F4C42D80-56EE-8E42-A0A3-97E165632B26}" name="Column440"/>
+    <tableColumn id="441" xr3:uid="{630C71A0-0A26-BD47-86A3-F5E1DA10A94A}" name="Column441"/>
+    <tableColumn id="442" xr3:uid="{C440E0FE-F556-9146-8010-AE5BB1ECF154}" name="Column442"/>
+    <tableColumn id="443" xr3:uid="{A6E80AF3-9677-5149-B531-87C9DACF127B}" name="Column443"/>
+    <tableColumn id="444" xr3:uid="{6541AB18-0556-0B40-AD40-64FDE8A5A52E}" name="Column444"/>
+    <tableColumn id="445" xr3:uid="{C8F881AD-7BE4-994F-B4C8-DA4BDB98F5F2}" name="Column445"/>
+    <tableColumn id="446" xr3:uid="{3DA6672A-FE25-154D-B4E0-9DEB37C94C18}" name="Column446"/>
+    <tableColumn id="447" xr3:uid="{03A7819C-2EA1-1549-9B65-8F53A992CD2B}" name="Column447"/>
+    <tableColumn id="448" xr3:uid="{03014951-65E4-1E4F-A5D7-662E9DC7F88C}" name="Column448"/>
+    <tableColumn id="449" xr3:uid="{1530E518-4D85-8A40-98A3-0E7F3B747719}" name="Column449"/>
+    <tableColumn id="450" xr3:uid="{3D8BE565-4E09-8445-978D-45FA188B3E2C}" name="Column450"/>
+    <tableColumn id="451" xr3:uid="{D576E2B1-6138-DD45-871F-D391C9493262}" name="Column451"/>
+    <tableColumn id="452" xr3:uid="{7674C509-806B-D343-A37D-681AF8604A7C}" name="Column452"/>
+    <tableColumn id="453" xr3:uid="{BD56D86D-A3ED-DE44-B9F8-FC7ACD8AE0FD}" name="Column453"/>
+    <tableColumn id="454" xr3:uid="{29D80924-8E63-0B4E-9EA4-7F09A43C25D7}" name="Column454"/>
+    <tableColumn id="455" xr3:uid="{8F320DC5-623D-FA4D-8E4A-7761BBA1E522}" name="Column455"/>
+    <tableColumn id="456" xr3:uid="{16E5CC5F-F123-E74F-A34B-6F0CBAC07FFB}" name="Column456"/>
+    <tableColumn id="457" xr3:uid="{2B5C1CA3-E378-AE4E-8CEB-1BF8474D04E0}" name="Column457"/>
+    <tableColumn id="458" xr3:uid="{06C014E0-EFA8-ED42-B2C7-26F42F0F832A}" name="Column458"/>
+    <tableColumn id="459" xr3:uid="{03DBBFBD-937E-2E49-9246-ECA0071FB551}" name="Column459"/>
+    <tableColumn id="460" xr3:uid="{509A1A61-2665-5F41-B76B-C39D82AB343C}" name="Column460"/>
+    <tableColumn id="461" xr3:uid="{B2D9AA5C-93C2-4647-A1B3-1C4F16F3AB1E}" name="Column461"/>
+    <tableColumn id="462" xr3:uid="{932C77E4-45C1-6542-8CA7-B4A621BB2303}" name="Column462"/>
+    <tableColumn id="463" xr3:uid="{DD0C2256-5B50-094C-A3A7-EC4442842683}" name="Column463"/>
+    <tableColumn id="464" xr3:uid="{A48AC88C-6A59-2949-8805-A5FD8A531C92}" name="Column464"/>
+    <tableColumn id="465" xr3:uid="{038D7F69-7C95-BF4F-ACA8-CA055D6D4CDB}" name="Column465"/>
+    <tableColumn id="466" xr3:uid="{2AAC96B6-B9B3-BF4C-A1DA-B4302011D8A9}" name="Column466"/>
+    <tableColumn id="467" xr3:uid="{27447094-0094-8E47-B780-B897BD751E7E}" name="Column467"/>
+    <tableColumn id="468" xr3:uid="{F189900F-5F11-D448-A289-75C34200F0E1}" name="Column468"/>
+    <tableColumn id="469" xr3:uid="{5064F359-C500-334F-B72A-943631C53124}" name="Column469"/>
+    <tableColumn id="470" xr3:uid="{13C22E35-0F51-BE40-A167-A79815BAB7B2}" name="Column470"/>
+    <tableColumn id="471" xr3:uid="{8E4D220E-CB16-B44F-9806-C31CEEBC7ACC}" name="Column471"/>
+    <tableColumn id="472" xr3:uid="{A350BA9F-3AFB-BD48-8288-F6D2BFAC026C}" name="Column472"/>
+    <tableColumn id="473" xr3:uid="{6F7F788A-9222-EF4C-8481-1F1CEB8B352A}" name="Column473"/>
+    <tableColumn id="474" xr3:uid="{317AF716-0D9E-0C44-AA68-7765FCF6704D}" name="Column474"/>
+    <tableColumn id="475" xr3:uid="{E48EFCAB-ED6D-7749-B5A8-257D586B101E}" name="Column475"/>
+    <tableColumn id="476" xr3:uid="{03EB77FB-1CE9-A846-AD22-02D4B0798C18}" name="Column476"/>
+    <tableColumn id="477" xr3:uid="{40B0FE23-C4E2-A843-B0B1-7AF1D5CAA2CF}" name="Column477"/>
+    <tableColumn id="478" xr3:uid="{D2C0292F-0481-1B4E-A3AD-F0E1D820247B}" name="Column478"/>
+    <tableColumn id="479" xr3:uid="{C346F175-1FC4-C444-AAE7-5F95ACE2626B}" name="Column479"/>
+    <tableColumn id="480" xr3:uid="{460E00B9-BEE1-0C4F-A4E9-71FAFB79B087}" name="Column480"/>
+    <tableColumn id="481" xr3:uid="{48263AC4-BE37-1747-8A62-84C52A3BFD10}" name="Column481"/>
+    <tableColumn id="482" xr3:uid="{5D03A1AF-9A41-0244-B129-88531FCD6BFB}" name="Column482"/>
+    <tableColumn id="483" xr3:uid="{D2F588DE-C3C6-BD49-90BF-F52374E532BC}" name="Column483"/>
+    <tableColumn id="484" xr3:uid="{68A9D7B8-3F83-8E48-A43A-3B2CDDD6375B}" name="Column484"/>
+    <tableColumn id="485" xr3:uid="{E92CEAA0-B367-1145-A9DD-3DFB36D99466}" name="Column485"/>
+    <tableColumn id="486" xr3:uid="{C4EA9814-3995-3045-AF20-0D2184059658}" name="Column486"/>
+    <tableColumn id="487" xr3:uid="{C772B249-DE0E-BC4D-930F-51611E495131}" name="Column487"/>
+    <tableColumn id="488" xr3:uid="{EC3D8C4C-C6E1-C94B-8E65-C73A6B38176B}" name="Column488"/>
+    <tableColumn id="489" xr3:uid="{B17DB643-FD17-5B42-953F-612AF943D254}" name="Column489"/>
+    <tableColumn id="490" xr3:uid="{DB42EFF1-CD90-DA4A-8E5D-7131034B134A}" name="Column490"/>
+    <tableColumn id="491" xr3:uid="{1465084B-EDA4-8149-A29D-E8AFCE08BEFB}" name="Column491"/>
+    <tableColumn id="492" xr3:uid="{1C95E9C1-C256-B94E-A8D4-0C5AFD0B1A35}" name="Column492"/>
+    <tableColumn id="493" xr3:uid="{657A60F1-2C00-F349-B724-EED78E553F27}" name="Column493"/>
+    <tableColumn id="494" xr3:uid="{5B02A24B-FE16-C740-A451-769C640EF1E0}" name="Column494"/>
+    <tableColumn id="495" xr3:uid="{E112C223-05D0-8245-8BB3-443DF02E676C}" name="Column495"/>
+    <tableColumn id="496" xr3:uid="{F46246DA-F3B3-E141-83C7-9235299417F7}" name="Column496"/>
+    <tableColumn id="497" xr3:uid="{99F61D99-9D8E-D845-A9E6-80C09D66422C}" name="Column497"/>
+    <tableColumn id="498" xr3:uid="{1AF497EE-4286-A747-A933-D7FDFF96139F}" name="Column498"/>
+    <tableColumn id="499" xr3:uid="{9831CB36-8699-7048-8998-CE09B7D603A1}" name="Column499"/>
+    <tableColumn id="500" xr3:uid="{54752E3D-8BFC-454D-9BBC-29C80003F259}" name="Column500"/>
+    <tableColumn id="501" xr3:uid="{6F748FAA-3F7C-D64B-952D-A4CAAB39DFDB}" name="Column501"/>
+    <tableColumn id="502" xr3:uid="{84E373CE-8995-2C4D-80F3-E873A68379B7}" name="Column502"/>
+    <tableColumn id="503" xr3:uid="{B6EFB2E8-47DB-DE4A-903E-F97F31D2E8DD}" name="Column503"/>
+    <tableColumn id="504" xr3:uid="{B7A4C591-22A5-5344-9DB1-D69C5063901C}" name="Column504"/>
+    <tableColumn id="505" xr3:uid="{FBC5E945-5594-BC44-8AC2-50F907998744}" name="Column505"/>
+    <tableColumn id="506" xr3:uid="{C1FAFCEC-F35D-2C49-BFE5-148E60BC925D}" name="Column506"/>
+    <tableColumn id="507" xr3:uid="{304CA05D-693B-6D48-9A16-6717AE806674}" name="Column507"/>
+    <tableColumn id="508" xr3:uid="{41E89D7F-5B96-BC4A-9C24-FDF2DDDEC1D0}" name="Column508"/>
+    <tableColumn id="509" xr3:uid="{640DA14D-549B-C648-8D1C-6A5A71CC59BF}" name="Column509"/>
+    <tableColumn id="510" xr3:uid="{C1C54214-4C8C-3F41-8358-585FF8D535B0}" name="Column510"/>
+    <tableColumn id="511" xr3:uid="{81041DC2-D4B4-AE46-89FD-0C0F45C287D0}" name="Column511"/>
+    <tableColumn id="512" xr3:uid="{4E12693F-0876-CC40-BA43-BFF26AC099B0}" name="Column512"/>
+    <tableColumn id="513" xr3:uid="{C2136057-CD36-5846-9749-E201653932C1}" name="Column513"/>
+    <tableColumn id="514" xr3:uid="{49537243-4150-7948-B1F7-F2C03BAA5985}" name="Column514"/>
+    <tableColumn id="515" xr3:uid="{070AD8F6-FFDB-2A47-B891-76B281C2A8F3}" name="Column515"/>
+    <tableColumn id="516" xr3:uid="{6B76EF78-8F8F-E147-8797-31AB20FF142C}" name="Column516"/>
+    <tableColumn id="517" xr3:uid="{7A71DACA-B111-E14E-80ED-91EEE99964BD}" name="Column517"/>
+    <tableColumn id="518" xr3:uid="{10E909C2-154B-8D44-B4A9-77F5C2788F07}" name="Column518"/>
+    <tableColumn id="519" xr3:uid="{BBED1BA3-8DF5-7442-9332-33DBBC215AFF}" name="Column519"/>
+    <tableColumn id="520" xr3:uid="{318EA50D-BAE5-CC40-B17F-125B9E8000FA}" name="Column520"/>
+    <tableColumn id="521" xr3:uid="{539808AA-F7F0-294E-B28B-DEF5C63F443D}" name="Column521"/>
+    <tableColumn id="522" xr3:uid="{EC9B3655-E8DB-DE46-84AD-CEA51F5376B0}" name="Column522"/>
+    <tableColumn id="523" xr3:uid="{98972D91-1A4C-C745-A68E-57395039B6C7}" name="Column523"/>
+    <tableColumn id="524" xr3:uid="{6CC309ED-8EFE-FB46-9962-9577DF03D307}" name="Column524"/>
+    <tableColumn id="525" xr3:uid="{DE0249BB-D6AA-2C41-8590-A5296DB83F2E}" name="Column525"/>
+    <tableColumn id="526" xr3:uid="{86609120-4D2F-314B-B9E2-ED4E6FF18933}" name="Column526"/>
+    <tableColumn id="527" xr3:uid="{7157A496-AC18-CF41-8C04-A50B9E9EEC6A}" name="Column527"/>
+    <tableColumn id="528" xr3:uid="{0691D51F-297E-194B-AEF2-04509A7F51AB}" name="Column528"/>
+    <tableColumn id="529" xr3:uid="{EC9D402B-FF4A-D248-9E15-1F960D1A2690}" name="Column529"/>
+    <tableColumn id="530" xr3:uid="{37EFB55A-7F25-7F46-8690-BD9752BDCD91}" name="Column530"/>
+    <tableColumn id="531" xr3:uid="{3A37047A-890A-364C-B6C7-B71FCF6D871D}" name="Column531"/>
+    <tableColumn id="532" xr3:uid="{3BD8B309-D0A2-E44D-AA1F-59B0D16B5FF6}" name="Column532"/>
+    <tableColumn id="533" xr3:uid="{CF3FFE36-61F3-E34D-A143-6090E2FBAB83}" name="Column533"/>
+    <tableColumn id="534" xr3:uid="{B93BD950-4184-5448-9FF2-4C1CE5370AA0}" name="Column534"/>
+    <tableColumn id="535" xr3:uid="{2F18E87C-E97E-0B42-B403-2B1566F7BFF7}" name="Column535"/>
+    <tableColumn id="536" xr3:uid="{67DC864C-4179-AF47-9A55-EE50A00A1D3C}" name="Column536"/>
+    <tableColumn id="537" xr3:uid="{FC68B57E-5B4C-2C4C-A3E4-0002206829C5}" name="Column537"/>
+    <tableColumn id="538" xr3:uid="{31BDA32E-A6ED-074C-9D15-CDB0DFD6C481}" name="Column538"/>
+    <tableColumn id="539" xr3:uid="{7952C89A-E44D-1645-89C6-507A492124C1}" name="Column539"/>
+    <tableColumn id="540" xr3:uid="{97DB4D75-6AB1-8F46-B3E3-065D3C7BAA63}" name="Column540"/>
+    <tableColumn id="541" xr3:uid="{387008DE-96DE-8E4B-A898-397774B34BD9}" name="Column541"/>
+    <tableColumn id="542" xr3:uid="{CE74BF6C-F9D9-AB46-AFF7-86498E3F58D5}" name="Column542"/>
+    <tableColumn id="543" xr3:uid="{7C357198-4A26-BD4D-B432-74CA32027045}" name="Column543"/>
+    <tableColumn id="544" xr3:uid="{26DC79FA-4A78-9C43-8DAC-85F6E259137A}" name="Column544"/>
+    <tableColumn id="545" xr3:uid="{E093CE4F-6D75-3A4A-88B0-0779528A1832}" name="Column545"/>
+    <tableColumn id="546" xr3:uid="{F86E84DA-6D80-B344-AF7D-A62AF78E7BD4}" name="Column546"/>
+    <tableColumn id="547" xr3:uid="{1D8983C1-D21E-A14B-AF69-E82E8CDDFF80}" name="Column547"/>
+    <tableColumn id="548" xr3:uid="{2DCE3947-8E40-0D40-BAD9-64FB530DB256}" name="Column548"/>
+    <tableColumn id="549" xr3:uid="{BE28DA72-73D8-6845-A64D-A5099E38272D}" name="Column549"/>
+    <tableColumn id="550" xr3:uid="{0FDC155D-CE67-3843-BB43-98AA76BBB9D6}" name="Column550"/>
+    <tableColumn id="551" xr3:uid="{9E31130D-6F48-2D44-ABBC-E29BDFBD7E11}" name="Column551"/>
+    <tableColumn id="552" xr3:uid="{EA8C2FF6-4E18-974F-9205-DDEABE222A66}" name="Column552"/>
+    <tableColumn id="553" xr3:uid="{D196EE03-761E-E542-AF48-CF1CF50FE966}" name="Column553"/>
+    <tableColumn id="554" xr3:uid="{BB064C4C-5DDF-0A47-98AD-4967822E3516}" name="Column554"/>
+    <tableColumn id="555" xr3:uid="{98E37C9C-14EE-5445-A170-6B6AE576DACC}" name="Column555"/>
+    <tableColumn id="556" xr3:uid="{49901019-C425-7A40-813A-69EE5703A666}" name="Column556"/>
+    <tableColumn id="557" xr3:uid="{76C6A0AD-CE9A-9E47-901C-BB1D080EE653}" name="Column557"/>
+    <tableColumn id="558" xr3:uid="{B7FD27D4-D1C9-DC41-BC2B-CDD3097C8F50}" name="Column558"/>
+    <tableColumn id="559" xr3:uid="{561A97A5-5C41-C240-B37C-95C336118899}" name="Column559"/>
+    <tableColumn id="560" xr3:uid="{0CA4EA8E-A517-AE41-B8A2-4DCD54B399BA}" name="Column560"/>
+    <tableColumn id="561" xr3:uid="{D6A0979B-9688-5843-9467-7E2EA587BA70}" name="Column561"/>
+    <tableColumn id="562" xr3:uid="{217E5911-732A-9349-8C47-A39C02145E16}" name="Column562"/>
+    <tableColumn id="563" xr3:uid="{7248AAF7-C5B8-EF46-9BE9-A6506BA9BAC4}" name="Column563"/>
+    <tableColumn id="564" xr3:uid="{82C92877-BF09-D84F-B9A4-8372CC2EFF22}" name="Column564"/>
+    <tableColumn id="565" xr3:uid="{A10219F4-DB49-2E4E-92B4-E5C8F87DFDAC}" name="Column565"/>
+    <tableColumn id="566" xr3:uid="{0B041195-0899-1743-8C9E-41093E10EA7B}" name="Column566"/>
+    <tableColumn id="567" xr3:uid="{48734890-5833-1847-9AD9-52598BFCAB47}" name="Column567"/>
+    <tableColumn id="568" xr3:uid="{FF31706A-7E92-2F47-84C6-BA4EB3A01FD4}" name="Column568"/>
+    <tableColumn id="569" xr3:uid="{C7F4747D-D92F-3F4B-BB22-C42AB2C30C10}" name="Column569"/>
+    <tableColumn id="570" xr3:uid="{6648B4F1-141D-B74C-BE48-859601218645}" name="Column570"/>
+    <tableColumn id="571" xr3:uid="{3EF7CC12-A59D-1148-9A20-5B111ACE1C9B}" name="Column571"/>
+    <tableColumn id="572" xr3:uid="{58D63276-7465-D044-B5EA-18798008E252}" name="Column572"/>
+    <tableColumn id="573" xr3:uid="{FF43A4C6-09E4-6542-B6A9-5162E5527CF9}" name="Column573"/>
+    <tableColumn id="574" xr3:uid="{0C6B40CE-5EAF-364B-8F8B-EBE6C416DB15}" name="Column574"/>
+    <tableColumn id="575" xr3:uid="{19C9EDB6-385A-3047-AFA5-88E1D46FD092}" name="Column575"/>
+    <tableColumn id="576" xr3:uid="{F4F476DF-8434-164C-9D0C-EE057466F13F}" name="Column576"/>
+    <tableColumn id="577" xr3:uid="{0010AED7-86B0-E640-97B0-18D5B9EA4371}" name="Column577"/>
+    <tableColumn id="578" xr3:uid="{D8267EA9-4187-7D4C-9849-3850C5EFA320}" name="Column578"/>
+    <tableColumn id="579" xr3:uid="{BD85172B-38F0-AE4D-917A-B70F3E614357}" name="Column579"/>
+    <tableColumn id="580" xr3:uid="{E6531813-CFFE-1843-A778-27EA085E14D5}" name="Column580"/>
+    <tableColumn id="581" xr3:uid="{9217C004-8E12-A742-8CD9-5AF2594D0B96}" name="Column581"/>
+    <tableColumn id="582" xr3:uid="{7CBED820-C9C3-574C-8E79-656973752C81}" name="Column582"/>
+    <tableColumn id="583" xr3:uid="{8275032F-689B-AC4F-B172-8FE964367828}" name="Column583"/>
+    <tableColumn id="584" xr3:uid="{6B2254C4-8B7B-434B-8B4A-E5A00BC7EABA}" name="Column584"/>
+    <tableColumn id="585" xr3:uid="{DFAF9B21-2E59-0C41-B218-6FD2C3DAC2BE}" name="Column585"/>
+    <tableColumn id="586" xr3:uid="{54355ABC-2C3A-4E49-B155-11E2948DFD79}" name="Column586"/>
+    <tableColumn id="587" xr3:uid="{19747E65-279F-C84A-B893-F43E6A77F84B}" name="Column587"/>
+    <tableColumn id="588" xr3:uid="{1F0FD5A3-D7A5-2C4F-8813-CB3537104356}" name="Column588"/>
+    <tableColumn id="589" xr3:uid="{B07B8D57-1D3B-5A48-BE87-AD40001603EF}" name="Column589"/>
+    <tableColumn id="590" xr3:uid="{76A0B17C-B3CF-6840-9560-D469DAE8A328}" name="Column590"/>
+    <tableColumn id="591" xr3:uid="{FD2F67A3-5574-714A-8A83-683045A327AF}" name="Column591"/>
+    <tableColumn id="592" xr3:uid="{E6A0252A-68C2-C04D-B206-50D997B490A6}" name="Column592"/>
+    <tableColumn id="593" xr3:uid="{97A4492C-220C-9B49-87A2-8B621A905986}" name="Column593"/>
+    <tableColumn id="594" xr3:uid="{04254058-74BC-D44C-8A6F-4C6956000FD5}" name="Column594"/>
+    <tableColumn id="595" xr3:uid="{243CB0F6-68F3-2645-8835-498F3770D63C}" name="Column595"/>
+    <tableColumn id="596" xr3:uid="{C4F65507-1382-E546-BF16-5CAB373E063C}" name="Column596"/>
+    <tableColumn id="597" xr3:uid="{4D6594A0-8301-CD4B-8724-7031658403A2}" name="Column597"/>
+    <tableColumn id="598" xr3:uid="{2525C90C-A3EF-7A4C-A58C-CC8F9C5B3BDC}" name="Column598"/>
+    <tableColumn id="599" xr3:uid="{D1BADA8C-6AB5-5746-B0AD-22DA040F04F9}" name="Column599"/>
+    <tableColumn id="600" xr3:uid="{63DC36A8-DE3D-D045-8691-435AEA524948}" name="Column600"/>
+    <tableColumn id="601" xr3:uid="{5E362C71-F09B-6740-B69B-FF5B828FB7FD}" name="Column601"/>
+    <tableColumn id="602" xr3:uid="{1B5ED131-2760-0944-88D3-B05C12079F9E}" name="Column602"/>
+    <tableColumn id="603" xr3:uid="{C3ED1C64-ECD5-A848-AF64-E5351F687C10}" name="Column603"/>
+    <tableColumn id="604" xr3:uid="{7F913E9D-0E90-4845-8938-C5D9A0556265}" name="Column604"/>
+    <tableColumn id="605" xr3:uid="{7626ADC5-5AF2-8745-A445-FC579FCEFE1D}" name="Column605"/>
+    <tableColumn id="606" xr3:uid="{7351DC5E-8837-B245-9965-C6871D4AE58C}" name="Column606"/>
+    <tableColumn id="607" xr3:uid="{69523666-B9DE-EC48-AA53-BDD673DB9F1E}" name="Column607"/>
+    <tableColumn id="608" xr3:uid="{9C6DFAE4-F8BD-044E-A718-C665522F7CE8}" name="Column608"/>
+    <tableColumn id="609" xr3:uid="{6765F3B3-F940-F24D-B640-519F80ACB7AB}" name="Column609"/>
+    <tableColumn id="610" xr3:uid="{9A6BF257-B132-7A43-AFBD-AD7E46D517CA}" name="Column610"/>
+    <tableColumn id="611" xr3:uid="{03077FA9-27E1-DD4B-B72D-CCCC268EF8B2}" name="Column611"/>
+    <tableColumn id="612" xr3:uid="{AB650D7B-1788-D343-B983-971EF80EF18C}" name="Column612"/>
+    <tableColumn id="613" xr3:uid="{5DE7F5FE-37C4-6846-BFAA-71F6B5B8C30F}" name="Column613"/>
+    <tableColumn id="614" xr3:uid="{3222D897-D8E8-1C49-A05B-B7B4C34E3109}" name="Column614"/>
+    <tableColumn id="615" xr3:uid="{C8142E04-5DB0-B94D-9358-E3735C55E4E6}" name="Column615"/>
+    <tableColumn id="616" xr3:uid="{8CDA3380-F022-2241-A847-1471472FB9E1}" name="Column616"/>
+    <tableColumn id="617" xr3:uid="{4FE37540-513B-8745-897D-C6608464D6FE}" name="Column617"/>
+    <tableColumn id="618" xr3:uid="{9B8E1939-7836-6240-8B32-FBB3382D2228}" name="Column618"/>
+    <tableColumn id="619" xr3:uid="{EEF6CA12-9DBA-DC40-A7A8-322E2A5BBE82}" name="Column619"/>
+    <tableColumn id="620" xr3:uid="{3EE33010-3353-F143-B80E-5278016CA64C}" name="Column620"/>
+    <tableColumn id="621" xr3:uid="{B2904C0A-95C5-4544-B3EE-C6BFB6A80D7C}" name="Column621"/>
+    <tableColumn id="622" xr3:uid="{767991A8-8449-E642-8BE9-F352943FDF90}" name="Column622"/>
+    <tableColumn id="623" xr3:uid="{03A2A8ED-65E3-EA4D-B435-578A1B426B05}" name="Column623"/>
+    <tableColumn id="624" xr3:uid="{4B98E649-17F8-E947-A9A4-E7C886338E8F}" name="Column624"/>
+    <tableColumn id="625" xr3:uid="{2E0823C2-E485-AD42-BD2F-5928AEF3511A}" name="Column625"/>
+    <tableColumn id="626" xr3:uid="{9B346927-749A-D546-B80B-C5BD119CEF0B}" name="Column626"/>
+    <tableColumn id="627" xr3:uid="{92ECBD10-C427-D841-B30E-BFCB5E030A7F}" name="Column627"/>
+    <tableColumn id="628" xr3:uid="{EC44FFB1-00A6-A049-8C56-F38D1657451F}" name="Column628"/>
+    <tableColumn id="629" xr3:uid="{498A93F2-A465-5C47-88E7-60948D0CDE7E}" name="Column629"/>
+    <tableColumn id="630" xr3:uid="{0E59CABE-7B86-A949-AB94-3BA1E8C40F1A}" name="Column630"/>
+    <tableColumn id="631" xr3:uid="{2C350BF8-9D8A-A846-A4D0-39C079690F63}" name="Column631"/>
+    <tableColumn id="632" xr3:uid="{C21F2DDE-92FA-7D42-8019-3B7F4A8C320E}" name="Column632"/>
+    <tableColumn id="633" xr3:uid="{8F6F1187-B432-EC43-BB63-0D494DF3DBCD}" name="Column633"/>
+    <tableColumn id="634" xr3:uid="{7DAB7E49-0646-AC42-843B-0BB9119A35E4}" name="Column634"/>
+    <tableColumn id="635" xr3:uid="{1487DC45-BFE3-634A-914E-3A8AC921D607}" name="Column635"/>
+    <tableColumn id="636" xr3:uid="{9B3BA747-F1B6-4F49-801F-BFCAC0E99BD0}" name="Column636"/>
+    <tableColumn id="637" xr3:uid="{E15A1C63-DF83-B04F-9BD8-73ACD0D1B9F1}" name="Column637"/>
+    <tableColumn id="638" xr3:uid="{2AECE270-05E8-AF41-AA42-C25A6632D403}" name="Column638"/>
+    <tableColumn id="639" xr3:uid="{6D100C8D-C866-D649-8DEE-AD82ADC3057F}" name="Column639"/>
+    <tableColumn id="640" xr3:uid="{56FB7B2B-87FE-884B-9D83-F2536718F880}" name="Column640"/>
+    <tableColumn id="641" xr3:uid="{A6CF299C-74A9-7C4B-95D4-5EEEBB7C7045}" name="Column641"/>
+    <tableColumn id="642" xr3:uid="{879AE8A6-DA9B-0347-A204-AA8B69898100}" name="Column642"/>
+    <tableColumn id="643" xr3:uid="{6463CABC-7960-894D-B4D8-C452325CD465}" name="Column643"/>
+    <tableColumn id="644" xr3:uid="{76658C3A-F06B-8849-AB36-467DA1789A1B}" name="Column644"/>
+    <tableColumn id="645" xr3:uid="{B1BA4140-4AA5-FD4C-9CBD-372FE5DF47FD}" name="Column645"/>
+    <tableColumn id="646" xr3:uid="{7DB7C010-7895-0C49-896A-74FC4F410CDD}" name="Column646"/>
+    <tableColumn id="647" xr3:uid="{5438EC02-6A9C-044F-8552-A04328251BD7}" name="Column647"/>
+    <tableColumn id="648" xr3:uid="{297D96B8-3DA1-1146-8A01-D99BA0557A16}" name="Column648"/>
+    <tableColumn id="649" xr3:uid="{5284807B-74C8-1341-98CB-B212324BC5C5}" name="Column649"/>
+    <tableColumn id="650" xr3:uid="{96427370-D155-304C-BFCD-7C6FA811F36F}" name="Column650"/>
+    <tableColumn id="651" xr3:uid="{5644C22E-1F26-334C-9768-BC4C00479928}" name="Column651"/>
+    <tableColumn id="652" xr3:uid="{54208430-B5D9-4345-92F2-F59F07954C9B}" name="Column652"/>
+    <tableColumn id="653" xr3:uid="{A656295B-5BB8-244A-86A0-BE16DB1AC937}" name="Column653"/>
+    <tableColumn id="654" xr3:uid="{E7614759-538B-0E40-8553-DDCF45290E74}" name="Column654"/>
+    <tableColumn id="655" xr3:uid="{2D1C3E83-3722-FB47-87D9-D6624A823513}" name="Column655"/>
+    <tableColumn id="656" xr3:uid="{C48D8D0F-85F0-E048-BFC2-32BBACE013EE}" name="Column656"/>
+    <tableColumn id="657" xr3:uid="{89EC59DF-B0FB-3046-89A7-AA4571B996DD}" name="Column657"/>
+    <tableColumn id="658" xr3:uid="{A5BB33FC-5755-EC45-A120-F86772498089}" name="Column658"/>
+    <tableColumn id="659" xr3:uid="{2AECCF8F-61B5-D140-A36B-E0F84BEF6F4D}" name="Column659"/>
+    <tableColumn id="660" xr3:uid="{F835C4D7-A7A0-E140-BFD7-37729D9ECBFB}" name="Column660"/>
+    <tableColumn id="661" xr3:uid="{D178F682-EF38-C346-B3D4-3975F1176330}" name="Column661"/>
+    <tableColumn id="662" xr3:uid="{A089568E-E797-F34A-8148-8F33A2D63D57}" name="Column662"/>
+    <tableColumn id="663" xr3:uid="{A4DFDE05-0094-7746-AD2A-C17243204F1D}" name="Column663"/>
+    <tableColumn id="664" xr3:uid="{D1914782-EDF2-FC4F-A395-4ED4649D9C8A}" name="Column664"/>
+    <tableColumn id="665" xr3:uid="{178A1910-9C44-6D4A-BBE3-183266C0D4AF}" name="Column665"/>
+    <tableColumn id="666" xr3:uid="{D3242501-4CEE-3748-91FB-D73CC91F8F8A}" name="Column666"/>
+    <tableColumn id="667" xr3:uid="{9A340C0F-27DE-EC45-9DAE-91BB42880D85}" name="Column667"/>
+    <tableColumn id="668" xr3:uid="{4D2C380A-C0DE-9A4E-823A-66757AC03154}" name="Column668"/>
+    <tableColumn id="669" xr3:uid="{32A9810B-1423-9040-BE65-2E1126E8E9F5}" name="Column669"/>
+    <tableColumn id="670" xr3:uid="{B6B48B36-9969-8E45-BFC4-5C249C545ADD}" name="Column670"/>
+    <tableColumn id="671" xr3:uid="{DF643C3A-B5C6-844B-A09A-26ACF216F0B5}" name="Column671"/>
+    <tableColumn id="672" xr3:uid="{223F808C-8FEA-7C48-A7F8-ACAC8B4AAF10}" name="Column672"/>
+    <tableColumn id="673" xr3:uid="{A1A0D04C-1DC7-A848-ACA9-4C459ADAEDB7}" name="Column673"/>
+    <tableColumn id="674" xr3:uid="{E5BA3989-F7B6-4A4E-AF33-289E9661412D}" name="Column674"/>
+    <tableColumn id="675" xr3:uid="{FE78E8C1-4C78-CF4A-895D-12B2B58F4729}" name="Column675"/>
+    <tableColumn id="676" xr3:uid="{BD9F938D-4107-A44B-86BC-A0C471667666}" name="Column676"/>
+    <tableColumn id="677" xr3:uid="{4D5B419A-9BF0-3A4F-A912-BAC0D5DB96D8}" name="Column677"/>
+    <tableColumn id="678" xr3:uid="{5DC140D1-764F-A349-B30E-B454AD849322}" name="Column678"/>
+    <tableColumn id="679" xr3:uid="{78728989-83E5-9441-B26D-16DE3047509A}" name="Column679"/>
+    <tableColumn id="680" xr3:uid="{7244AA8F-2A1C-C84B-9722-804C785B63A5}" name="Column680"/>
+    <tableColumn id="681" xr3:uid="{82150A64-863A-FF4C-A320-CFCF6FD925BD}" name="Column681"/>
+    <tableColumn id="682" xr3:uid="{921F57BD-0E66-694A-AA97-A34941B1373F}" name="Column682"/>
+    <tableColumn id="683" xr3:uid="{53F169FD-C54C-CE40-B4A5-000A04B35D9D}" name="Column683"/>
+    <tableColumn id="684" xr3:uid="{D4B020D8-236F-B647-8CA0-8B14A22910FB}" name="Column684"/>
+    <tableColumn id="685" xr3:uid="{56DEE10A-9D6A-5945-B1AB-9A32653C4854}" name="Column685"/>
+    <tableColumn id="686" xr3:uid="{B6366979-10BD-2C4C-90A9-44534BE5D532}" name="Column686"/>
+    <tableColumn id="687" xr3:uid="{AF8256A2-B02E-334C-9485-67D740A81A4B}" name="Column687"/>
+    <tableColumn id="688" xr3:uid="{762C4947-8AE4-7C42-BE44-1E0156D889F5}" name="Column688"/>
+    <tableColumn id="689" xr3:uid="{460908E8-7AA9-9941-A09C-16397275BB0B}" name="Column689"/>
+    <tableColumn id="690" xr3:uid="{A2CBBBF0-BA93-B74D-AA30-4D3E275066B4}" name="Column690"/>
+    <tableColumn id="691" xr3:uid="{2D2CD332-6175-AF4C-B00A-CB472CE8941F}" name="Column691"/>
+    <tableColumn id="692" xr3:uid="{E53B81B0-6879-934D-8C8D-C6F5BC0BDE0A}" name="Column692"/>
+    <tableColumn id="693" xr3:uid="{80D945EC-EB44-8349-85E6-2F2F5B6A6C50}" name="Column693"/>
+    <tableColumn id="694" xr3:uid="{7256C445-8DE4-6D4A-BCF8-CE1E8670D020}" name="Column694"/>
+    <tableColumn id="695" xr3:uid="{BC534F48-31E9-474A-B79A-6DC6C7A96D6E}" name="Column695"/>
+    <tableColumn id="696" xr3:uid="{DE48A723-3AFC-2A49-A787-511BAF220894}" name="Column696"/>
+    <tableColumn id="697" xr3:uid="{F8A6B42D-9A1B-F843-B28D-DBFDE74D3662}" name="Column697"/>
+    <tableColumn id="698" xr3:uid="{0F9C704B-3890-4342-9789-50B3F3945007}" name="Column698"/>
+    <tableColumn id="699" xr3:uid="{6A2AA4A4-D1D7-8F44-9669-ADFB96B84D98}" name="Column699"/>
+    <tableColumn id="700" xr3:uid="{C789590E-0508-B948-8B4B-2BABDD9B38C3}" name="Column700"/>
+    <tableColumn id="701" xr3:uid="{86D6E2CB-E589-9B48-BD8D-8752034F7452}" name="Column701"/>
+    <tableColumn id="702" xr3:uid="{C1857F4C-BFFC-F840-8CD5-E7A9A73C9E15}" name="Column702"/>
+    <tableColumn id="703" xr3:uid="{A92C5FEF-A092-C441-819A-3BAE66D904C8}" name="Column703"/>
+    <tableColumn id="704" xr3:uid="{20215496-E190-6E44-803F-53104969E0FC}" name="Column704"/>
+    <tableColumn id="705" xr3:uid="{C09E3BED-FBBE-2241-AB1D-ECC877E3FEB6}" name="Column705"/>
+    <tableColumn id="706" xr3:uid="{E953B3CA-EC05-C64A-8822-356C3DD21918}" name="Column706"/>
+    <tableColumn id="707" xr3:uid="{71D20B44-A221-F547-AE62-7AC5A0D7BE7D}" name="Column707"/>
+    <tableColumn id="708" xr3:uid="{346FBCBB-2ADA-0446-A8B4-5F45B2A567CA}" name="Column708"/>
+    <tableColumn id="709" xr3:uid="{F72CC5BA-A27D-774F-80E7-2AB99922D2AA}" name="Column709"/>
+    <tableColumn id="710" xr3:uid="{A7AEB27F-E748-C64A-8DFE-0DFE1CF66B44}" name="Column710"/>
+    <tableColumn id="711" xr3:uid="{71FF5278-0BE6-AE46-9ED3-30F3DF4AD674}" name="Column711"/>
+    <tableColumn id="712" xr3:uid="{B0774719-9AC2-1845-8F9E-BC50F8D75F29}" name="Column712"/>
+    <tableColumn id="713" xr3:uid="{C5698CA2-F488-2D4E-87AA-351A7D8FFEA5}" name="Column713"/>
+    <tableColumn id="714" xr3:uid="{EDD09596-0594-384F-A81A-87488578BB86}" name="Column714"/>
+    <tableColumn id="715" xr3:uid="{7C98ADDD-8FA4-3641-88EA-7B34ADB0AF71}" name="Column715"/>
+    <tableColumn id="716" xr3:uid="{CF692E42-EBC6-4341-94A3-EC5B27EB7F19}" name="Column716"/>
+    <tableColumn id="717" xr3:uid="{1E3F996A-41DA-014B-A644-E67300FFF0B3}" name="Column717"/>
+    <tableColumn id="718" xr3:uid="{D4023528-94AB-9F4A-9969-79B0AECB1C6D}" name="Column718"/>
+    <tableColumn id="719" xr3:uid="{1E9BEC22-7663-D748-BDAB-097302B0EC96}" name="Column719"/>
+    <tableColumn id="720" xr3:uid="{41AE68E3-20A2-4C4B-BD43-7382981A6B66}" name="Column720"/>
+    <tableColumn id="721" xr3:uid="{FCFE9706-6602-D54F-ADCD-8ABB93EB122A}" name="Column721"/>
+    <tableColumn id="722" xr3:uid="{D67CBBF7-9B43-CD4A-AFC9-395518AEB3A1}" name="Column722"/>
+    <tableColumn id="723" xr3:uid="{A718316F-5925-D54E-9C7E-9C89C975201F}" name="Column723"/>
+    <tableColumn id="724" xr3:uid="{8CA7EB6C-F3BE-0949-BB4E-4B47B497880C}" name="Column724"/>
+    <tableColumn id="725" xr3:uid="{DF546981-4D33-8246-8385-7C9A2BD171BA}" name="Column725"/>
+    <tableColumn id="726" xr3:uid="{32869666-228B-2D41-893B-268A380C7F40}" name="Column726"/>
+    <tableColumn id="727" xr3:uid="{5DA66715-474E-4346-9272-B14DD2FDBB02}" name="Column727"/>
+    <tableColumn id="728" xr3:uid="{C4B65893-DA6D-A947-8E24-100AD61B9C87}" name="Column728"/>
+    <tableColumn id="729" xr3:uid="{C0276F09-0BA1-2149-BA55-C028F366052F}" name="Column729"/>
+    <tableColumn id="730" xr3:uid="{58AC9966-567B-0C40-8D55-863C8114927A}" name="Column730"/>
+    <tableColumn id="731" xr3:uid="{29F1E339-F06E-C443-9C4D-D02D63BB31E0}" name="Column731"/>
+    <tableColumn id="732" xr3:uid="{AB13562E-FA49-9F49-BC4F-D26A3942E4E2}" name="Column732"/>
+    <tableColumn id="733" xr3:uid="{93255FEB-6EF3-294F-98D3-2DC24C0CC4CA}" name="Column733"/>
+    <tableColumn id="734" xr3:uid="{99DB8681-4842-C245-93CD-73DB82D7ED7E}" name="Column734"/>
+    <tableColumn id="735" xr3:uid="{D1E1475D-4DB2-D847-ABE6-2D2A187E8B58}" name="Column735"/>
+    <tableColumn id="736" xr3:uid="{C2D77E61-17EF-7740-8EC6-8BA42E8E5959}" name="Column736"/>
+    <tableColumn id="737" xr3:uid="{F4E08517-8623-324A-8079-F1D762FA0FC2}" name="Column737"/>
+    <tableColumn id="738" xr3:uid="{25F77594-9F77-1D43-B5A7-655EA5B47405}" name="Column738"/>
+    <tableColumn id="739" xr3:uid="{0358FC73-68B5-0E40-8715-067198C68C3C}" name="Column739"/>
+    <tableColumn id="740" xr3:uid="{28940D2D-BA2F-AF4A-8949-46EC433F9E58}" name="Column740"/>
+    <tableColumn id="741" xr3:uid="{2D04C6C4-190F-F44F-A656-4D3E2CE2FCF9}" name="Column741"/>
+    <tableColumn id="742" xr3:uid="{98DE75DC-A73E-7947-9EA8-64F7D0140479}" name="Column742"/>
+    <tableColumn id="743" xr3:uid="{46D038E8-2DB0-CE4F-B487-D7224BDBB2A2}" name="Column743"/>
+    <tableColumn id="744" xr3:uid="{3434713A-5AD9-6F42-BD6E-B5F5D628B8EB}" name="Column744"/>
+    <tableColumn id="745" xr3:uid="{0A25AB8A-5BB5-394A-BE3F-65B6981200E1}" name="Column745"/>
+    <tableColumn id="746" xr3:uid="{16FB1DF5-32B4-C642-990A-620223564B32}" name="Column746"/>
+    <tableColumn id="747" xr3:uid="{99B5708C-5902-E34B-9596-4AF52B7BB129}" name="Column747"/>
+    <tableColumn id="748" xr3:uid="{A20E8888-EF2C-1B4F-AEA0-F442A46377D2}" name="Column748"/>
+    <tableColumn id="749" xr3:uid="{5B89FD55-A49D-F946-B56F-099E82402433}" name="Column749"/>
+    <tableColumn id="750" xr3:uid="{D7867866-B435-E24F-A6CF-B1AC3DACD9D3}" name="Column750"/>
+    <tableColumn id="751" xr3:uid="{54701B1E-919B-6344-BC0E-E23D4AF3F623}" name="Column751"/>
+    <tableColumn id="752" xr3:uid="{A228A7FD-AB7B-B645-BF15-D5631C80F0AE}" name="Column752"/>
+    <tableColumn id="753" xr3:uid="{2195FE5F-8A54-A945-85B6-4464DF65D00B}" name="Column753"/>
+    <tableColumn id="754" xr3:uid="{55CCC896-7E33-4240-B141-23DFD04FCE58}" name="Column754"/>
+    <tableColumn id="755" xr3:uid="{40AE0549-DB35-854F-ACCB-984FE8373F9F}" name="Column755"/>
+    <tableColumn id="756" xr3:uid="{03CCA46D-BFB4-DD47-B221-44F9574AD150}" name="Column756"/>
+    <tableColumn id="757" xr3:uid="{C0521A3B-0BA7-CE49-AC93-3472F6A2A9E8}" name="Column757"/>
+    <tableColumn id="758" xr3:uid="{2288D9DB-D110-6C4F-8A59-BB0829E3B9E4}" name="Column758"/>
+    <tableColumn id="759" xr3:uid="{630F98C2-8DC9-8149-A2C6-6D29667B9F73}" name="Column759"/>
+    <tableColumn id="760" xr3:uid="{B4311896-E8EC-8D4D-B371-FD3EA6D7D89C}" name="Column760"/>
+    <tableColumn id="761" xr3:uid="{7CDC6FA0-B4B7-984F-ADB2-61A6A5A6BBFA}" name="Column761"/>
+    <tableColumn id="762" xr3:uid="{AD8881B4-D81D-F149-A6D8-B6AB3527F852}" name="Column762"/>
+    <tableColumn id="763" xr3:uid="{4005EA15-ECAD-8548-914D-5083E1D66737}" name="Column763"/>
+    <tableColumn id="764" xr3:uid="{10F088A9-2C0F-2141-940D-AE5B702B030A}" name="Column764"/>
+    <tableColumn id="765" xr3:uid="{A4EC053A-948C-D24D-80AA-D9EE49DF7383}" name="Column765"/>
+    <tableColumn id="766" xr3:uid="{C6F715A8-A90B-DD4F-881B-C2805F8E9667}" name="Column766"/>
+    <tableColumn id="767" xr3:uid="{62491610-262E-E24A-B567-6806049CCCF6}" name="Column767"/>
+    <tableColumn id="768" xr3:uid="{35DA861D-0537-3146-BDF2-4DFD43BEFA19}" name="Column768"/>
+    <tableColumn id="769" xr3:uid="{F4ACD75D-D0CD-6244-B368-4FB5180CF581}" name="Column769"/>
+    <tableColumn id="770" xr3:uid="{D74D3E12-ECE3-8D45-B6D2-AE9664ADFC50}" name="Column770"/>
+    <tableColumn id="771" xr3:uid="{FAB5FC13-8B03-7348-A839-CB5C8F996308}" name="Column771"/>
+    <tableColumn id="772" xr3:uid="{E8EC5FEE-201F-304E-910B-E034220702A5}" name="Column772"/>
+    <tableColumn id="773" xr3:uid="{00B82B75-862B-AA42-BE33-0FC1D02A5C8C}" name="Column773"/>
+    <tableColumn id="774" xr3:uid="{9A377D66-0ACA-E84A-BFDE-C65EBD92992C}" name="Column774"/>
+    <tableColumn id="775" xr3:uid="{707F9564-2081-7043-BDB4-8D29AEC4193C}" name="Column775"/>
+    <tableColumn id="776" xr3:uid="{8A950193-B88C-4D48-9EA1-D4BD2C901A0F}" name="Column776"/>
+    <tableColumn id="777" xr3:uid="{5146322C-EED2-6941-81C9-701FCA1F5112}" name="Column777"/>
+    <tableColumn id="778" xr3:uid="{DC55D756-DA99-C344-AE1B-BFB80A520AC2}" name="Column778"/>
+    <tableColumn id="779" xr3:uid="{F4D416C8-BC3F-E24A-9129-65891601C9B7}" name="Column779"/>
+    <tableColumn id="780" xr3:uid="{634772A9-A5C7-F244-AA7E-C908B12FEAE7}" name="Column780"/>
+    <tableColumn id="781" xr3:uid="{826CFD1F-6FC1-5144-91F3-035B93AD98F6}" name="Column781"/>
+    <tableColumn id="782" xr3:uid="{9A6FEF84-F1C9-044E-BDB9-D071E5DC1F55}" name="Column782"/>
+    <tableColumn id="783" xr3:uid="{BFF074E3-CBCD-814E-BB05-CA704D68D1D3}" name="Column783"/>
+    <tableColumn id="784" xr3:uid="{0A7AF67C-F223-3F4C-9C5D-204EF1AC7003}" name="Column784"/>
+    <tableColumn id="785" xr3:uid="{45B8EC0D-C9C6-5743-BF96-80CCF03D54E7}" name="Column785"/>
+    <tableColumn id="786" xr3:uid="{36C27CFF-11E1-7441-A556-4ED9CDF13A62}" name="Column786"/>
+    <tableColumn id="787" xr3:uid="{B4007635-6216-A34C-8B68-EB62559FFCAA}" name="Column787"/>
+    <tableColumn id="788" xr3:uid="{AF98F86D-6751-D84B-AC65-3308A98AA189}" name="Column788"/>
+    <tableColumn id="789" xr3:uid="{71AD3DE0-48DA-A64C-B263-BF31C7631701}" name="Column789"/>
+    <tableColumn id="790" xr3:uid="{7364D27E-9BF0-3445-9F84-80294EF0DB67}" name="Column790"/>
+    <tableColumn id="791" xr3:uid="{A9DFCEA8-24F6-9D4C-9024-1F2BA4087D4E}" name="Column791"/>
+    <tableColumn id="792" xr3:uid="{9D12583A-10AB-0741-A0C3-C530253494B9}" name="Column792"/>
+    <tableColumn id="793" xr3:uid="{21194333-AF2E-5B45-B3AC-5368DD1B2A8D}" name="Column793"/>
+    <tableColumn id="794" xr3:uid="{45EF5F92-749E-2240-99DF-A482C029FFDB}" name="Column794"/>
+    <tableColumn id="795" xr3:uid="{F584DB8E-8207-F844-9E90-11124AB624FA}" name="Column795"/>
+    <tableColumn id="796" xr3:uid="{8AF2E9DA-3079-004B-953C-3379DF6D0ADB}" name="Column796"/>
+    <tableColumn id="797" xr3:uid="{9677168E-F672-654D-949B-52F8069659A5}" name="Column797"/>
+    <tableColumn id="798" xr3:uid="{D9B12463-5BE2-9845-A2BB-CBC4101FC139}" name="Column798"/>
+    <tableColumn id="799" xr3:uid="{56D4DC28-AC53-2041-BFFA-CDD143C9E955}" name="Column799"/>
+    <tableColumn id="800" xr3:uid="{0BE28DC6-85B8-2446-BD69-3F6C2314B029}" name="Column800"/>
+    <tableColumn id="801" xr3:uid="{16BB33E2-A684-4849-B4D1-F4E25C11B73F}" name="Column801"/>
+    <tableColumn id="802" xr3:uid="{14D42F6D-FFB4-FD43-AA31-8BA1E7681292}" name="Column802"/>
+    <tableColumn id="803" xr3:uid="{24E69446-C416-8C40-B323-5E3359E463FD}" name="Column803"/>
+    <tableColumn id="804" xr3:uid="{6B9F9F23-63E7-604C-9D29-5DFB9CA5D7A2}" name="Column804"/>
+    <tableColumn id="805" xr3:uid="{EA371D6E-731A-8342-81B0-1F01BEC3CC22}" name="Column805"/>
+    <tableColumn id="806" xr3:uid="{7132B476-F2A1-7540-8FFC-1B42D6151DF6}" name="Column806"/>
+    <tableColumn id="807" xr3:uid="{90D0A05E-BF4F-E747-8CE9-6E9E2768C34A}" name="Column807"/>
+    <tableColumn id="808" xr3:uid="{1FFE9FB0-E890-7B41-9058-0221ABE626BF}" name="Column808"/>
+    <tableColumn id="809" xr3:uid="{9A131F8D-6E4A-024B-BDB0-9038941B6E0C}" name="Column809"/>
+    <tableColumn id="810" xr3:uid="{978CFE7F-5CDD-8545-B8D0-263C23756FBB}" name="Column810"/>
+    <tableColumn id="811" xr3:uid="{BBCE2B54-E5CD-8B46-BD18-893167B06690}" name="Column811"/>
+    <tableColumn id="812" xr3:uid="{ED9F379E-6DD5-4342-B7D5-76B59FF273DE}" name="Column812"/>
+    <tableColumn id="813" xr3:uid="{52B9B973-E16A-6044-9060-B69E225138EE}" name="Column813"/>
+    <tableColumn id="814" xr3:uid="{C1AC5F84-9E3C-6941-BD95-DBB7FFD97B79}" name="Column814"/>
+    <tableColumn id="815" xr3:uid="{57DC1473-38C2-3C40-A7FF-48603752CDA9}" name="Column815"/>
+    <tableColumn id="816" xr3:uid="{56A0FC5F-AA11-6A41-9297-CB05E11F175A}" name="Column816"/>
+    <tableColumn id="817" xr3:uid="{AA43B61D-3F00-9346-ABA5-7E709A54379C}" name="Column817"/>
+    <tableColumn id="818" xr3:uid="{6C732439-D106-E640-BD0A-8AD899C57456}" name="Column818"/>
+    <tableColumn id="819" xr3:uid="{B924EE86-05C5-D941-9F2F-A5E39757666E}" name="Column819"/>
+    <tableColumn id="820" xr3:uid="{3BBEFEEC-7542-2C47-87AE-0862B19E4E71}" name="Column820"/>
+    <tableColumn id="821" xr3:uid="{A6CBD4D6-2A86-7F40-9744-A2C32A57AC58}" name="Column821"/>
+    <tableColumn id="822" xr3:uid="{752280E2-5831-9843-BABF-6343E50276B0}" name="Column822"/>
+    <tableColumn id="823" xr3:uid="{0E47AAE9-6F1C-D649-BA4B-1E3F470A595C}" name="Column823"/>
+    <tableColumn id="824" xr3:uid="{3CCAF7F9-5560-DE47-A2AF-F382DA1CFA4F}" name="Column824"/>
+    <tableColumn id="825" xr3:uid="{FF5F63E4-A27C-6D4C-8163-27216FAA5315}" name="Column825"/>
+    <tableColumn id="826" xr3:uid="{C6650718-18BC-5243-8DA9-28DC61635565}" name="Column826"/>
+    <tableColumn id="827" xr3:uid="{C99A8E34-0AEF-C44B-B6E8-15BDDA5B9434}" name="Column827"/>
+    <tableColumn id="828" xr3:uid="{69107B31-3240-7049-9F19-35BF7C58CD89}" name="Column828"/>
+    <tableColumn id="829" xr3:uid="{82691B30-8607-3648-9EC8-B9DE2648C655}" name="Column829"/>
+    <tableColumn id="830" xr3:uid="{A7165802-A1E5-A44F-A794-A3005E47AA00}" name="Column830"/>
+    <tableColumn id="831" xr3:uid="{C4A254EA-92A8-1F45-AE8E-0B7BC659D0F6}" name="Column831"/>
+    <tableColumn id="832" xr3:uid="{3A5D1364-2A90-B541-90EF-2C2C874D1946}" name="Column832"/>
+    <tableColumn id="833" xr3:uid="{3E482CBD-1542-6646-83FC-FD77D113C9E2}" name="Column833"/>
+    <tableColumn id="834" xr3:uid="{911BCC17-5004-FD42-BA81-66149C91405F}" name="Column834"/>
+    <tableColumn id="835" xr3:uid="{DEDAD238-9607-8949-8799-5A1077015C77}" name="Column835"/>
+    <tableColumn id="836" xr3:uid="{DE579DC8-0EB5-2649-AA69-24752918E4B6}" name="Column836"/>
+    <tableColumn id="837" xr3:uid="{82664A4D-A566-C84B-87C7-8498E39237FE}" name="Column837"/>
+    <tableColumn id="838" xr3:uid="{EF2FBFB7-6C8E-784E-A239-BA8515D5944C}" name="Column838"/>
+    <tableColumn id="839" xr3:uid="{48F88CDE-A832-E04C-9690-D378C6F8E09F}" name="Column839"/>
+    <tableColumn id="840" xr3:uid="{32B7C7A0-753E-9A49-8284-4C8664C8EFD7}" name="Column840"/>
+    <tableColumn id="841" xr3:uid="{6E740D4C-6BE7-0F4A-95A9-1BCF96178361}" name="Column841"/>
+    <tableColumn id="842" xr3:uid="{FC7FAAE6-671E-3444-BD11-68FF2A8608D6}" name="Column842"/>
+    <tableColumn id="843" xr3:uid="{BF4C86C0-5F19-844E-92AB-0DA4D40C629B}" name="Column843"/>
+    <tableColumn id="844" xr3:uid="{23F17FC5-0384-7942-9D7E-984D48E26DAB}" name="Column844"/>
+    <tableColumn id="845" xr3:uid="{E29BEFE3-94FD-024F-8030-0EC7632CCEC3}" name="Column845"/>
+    <tableColumn id="846" xr3:uid="{6DCDEDB0-8657-3449-A83B-C4B3D09A1FF4}" name="Column846"/>
+    <tableColumn id="847" xr3:uid="{23C0AD23-5A9E-4942-A94F-DA6DE54DC5C5}" name="Column847"/>
+    <tableColumn id="848" xr3:uid="{F79901CB-B1CB-F74C-A6FF-09030678C0C0}" name="Column848"/>
+    <tableColumn id="849" xr3:uid="{2635767F-3F25-504F-8077-B9EEBCDDFB15}" name="Column849"/>
+    <tableColumn id="850" xr3:uid="{5EB05278-4C1B-214B-A506-DCB3EE271212}" name="Column850"/>
+    <tableColumn id="851" xr3:uid="{31DB4845-C657-4342-B00D-3980DCF7CA30}" name="Column851"/>
+    <tableColumn id="852" xr3:uid="{9BBC5731-B3EE-2F4E-9107-6C9B88DFCB00}" name="Column852"/>
+    <tableColumn id="853" xr3:uid="{07C5E228-94A0-E543-82BF-AD680D186672}" name="Column853"/>
+    <tableColumn id="854" xr3:uid="{0AC65749-EFF5-5E42-B3F2-3A64F2CCCB56}" name="Column854"/>
+    <tableColumn id="855" xr3:uid="{EEBE6BD7-674A-D445-84F1-3BC5EF894594}" name="Column855"/>
+    <tableColumn id="856" xr3:uid="{A5CA8383-8FFB-B342-9F11-C0DCC7C2E13C}" name="Column856"/>
+    <tableColumn id="857" xr3:uid="{E92AECE3-9F0B-F14C-99F1-8598BBAFB2AB}" name="Column857"/>
+    <tableColumn id="858" xr3:uid="{82346665-1FE8-0341-B37F-093A34E207E7}" name="Column858"/>
+    <tableColumn id="859" xr3:uid="{0F35B2C0-BBE3-A542-A4C4-EC50A7368CFE}" name="Column859"/>
+    <tableColumn id="860" xr3:uid="{FA441090-FBBD-5C4B-B2F7-27125EDFD89D}" name="Column860"/>
+    <tableColumn id="861" xr3:uid="{3219C12A-A273-294A-B9D5-7D3041781D6F}" name="Column861"/>
+    <tableColumn id="862" xr3:uid="{F44F4E80-7088-C54B-ACE3-EBD4154A19EE}" name="Column862"/>
+    <tableColumn id="863" xr3:uid="{377E3FA7-324E-1341-BF54-6F6151A39CCB}" name="Column863"/>
+    <tableColumn id="864" xr3:uid="{42DE4038-F9B7-AC40-9A12-10D53645A268}" name="Column864"/>
+    <tableColumn id="865" xr3:uid="{F8F8C4ED-0D6B-4544-B899-09E4218088F2}" name="Column865"/>
+    <tableColumn id="866" xr3:uid="{3A72323A-1FDB-4748-896F-DAED5493DBCB}" name="Column866"/>
+    <tableColumn id="867" xr3:uid="{E4A9752D-970A-8443-83E5-BE270AF53129}" name="Column867"/>
+    <tableColumn id="868" xr3:uid="{3806A30E-4443-EC4E-9309-6A284F51354D}" name="Column868"/>
+    <tableColumn id="869" xr3:uid="{2BF426AF-F0A0-624A-97E3-4A734190691F}" name="Column869"/>
+    <tableColumn id="870" xr3:uid="{87C84B9D-C896-4D46-81A0-AA89AC3135EC}" name="Column870"/>
+    <tableColumn id="871" xr3:uid="{BAEEA70E-D6A3-5843-8F4B-610F54DE43EC}" name="Column871"/>
+    <tableColumn id="872" xr3:uid="{8EC0404D-3210-7045-81CD-5C5157994D19}" name="Column872"/>
+    <tableColumn id="873" xr3:uid="{2FA913AA-2AA0-D049-8357-9CEF4D257CF8}" name="Column873"/>
+    <tableColumn id="874" xr3:uid="{3F6C7536-6495-5641-A3E6-A8E2FD282AA8}" name="Column874"/>
+    <tableColumn id="875" xr3:uid="{218E51B6-5E58-D44C-95CA-15E94EF24557}" name="Column875"/>
+    <tableColumn id="876" xr3:uid="{7C917363-EA72-5D47-9DF8-A3AA90465FD2}" name="Column876"/>
+    <tableColumn id="877" xr3:uid="{3D03B473-1AC3-F149-8421-35009003FB3A}" name="Column877"/>
+    <tableColumn id="878" xr3:uid="{8FDAE8D5-2209-B745-9302-4182DA9D9DF5}" name="Column878"/>
+    <tableColumn id="879" xr3:uid="{FF567CCF-8241-0D46-873C-CF351FA231E8}" name="Column879"/>
+    <tableColumn id="880" xr3:uid="{BA4088D1-571B-214A-A897-67C7222FB01B}" name="Column880"/>
+    <tableColumn id="881" xr3:uid="{1FDAC0CB-5FD7-3445-A42C-13D829D78AAA}" name="Column881"/>
+    <tableColumn id="882" xr3:uid="{10467C44-FAC3-3B45-9216-66BF65F5C220}" name="Column882"/>
+    <tableColumn id="883" xr3:uid="{42B4616F-159A-7A46-AD77-B5E29C56B53A}" name="Column883"/>
+    <tableColumn id="884" xr3:uid="{D6EE226B-BD28-404D-A643-173484523A36}" name="Column884"/>
+    <tableColumn id="885" xr3:uid="{AD8BA913-AC34-DE48-A3C4-0CB68C13E585}" name="Column885"/>
+    <tableColumn id="886" xr3:uid="{0391E3A1-E3F4-9A40-A5D2-160488D49513}" name="Column886"/>
+    <tableColumn id="887" xr3:uid="{E3DF09F2-00D0-944D-87C1-A15A5B52FA5E}" name="Column887"/>
+    <tableColumn id="888" xr3:uid="{76E67BC4-DA49-5A43-8CDE-9994B75CA019}" name="Column888"/>
+    <tableColumn id="889" xr3:uid="{223BA178-7A42-C44B-BE72-B2CE8770FD71}" name="Column889"/>
+    <tableColumn id="890" xr3:uid="{53F1A513-1793-8D49-8709-723B6AFA841A}" name="Column890"/>
+    <tableColumn id="891" xr3:uid="{F3470B07-D4F4-1340-8C4E-78E4DDF53054}" name="Column891"/>
+    <tableColumn id="892" xr3:uid="{79E0C49E-A063-754E-AB6B-EF20ACED0CBC}" name="Column892"/>
+    <tableColumn id="893" xr3:uid="{2358DC3B-74CB-AF42-B06C-75D656293360}" name="Column893"/>
+    <tableColumn id="894" xr3:uid="{8CD148CE-2EDD-CA4B-83E9-864800E7BDE9}" name="Column894"/>
+    <tableColumn id="895" xr3:uid="{6138A8FD-58BF-BF41-8934-ADE4D83DD79E}" name="Column895"/>
+    <tableColumn id="896" xr3:uid="{71C9DBFA-CD6C-3841-84B4-F0706EA7DACD}" name="Column896"/>
+    <tableColumn id="897" xr3:uid="{7E6C76F2-2010-C243-BBF5-6AEB099423D6}" name="Column897"/>
+    <tableColumn id="898" xr3:uid="{395531D6-D581-B34A-9D99-BED189D0C02A}" name="Column898"/>
+    <tableColumn id="899" xr3:uid="{6A2588CE-D738-FA4A-9134-8B2CAED73FBD}" name="Column899"/>
+    <tableColumn id="900" xr3:uid="{7587B462-7DC4-8B45-818F-37CE645BF744}" name="Column900"/>
+    <tableColumn id="901" xr3:uid="{20FC78FA-CC85-7643-8C56-FD62CCA4865E}" name="Column901"/>
+    <tableColumn id="902" xr3:uid="{A950FE47-29B1-B24B-B4CC-2E81978BE893}" name="Column902"/>
+    <tableColumn id="903" xr3:uid="{8F9E1510-94EA-5D4C-BAE2-BAAD3341354E}" name="Column903"/>
+    <tableColumn id="904" xr3:uid="{EFA26B5B-D29E-2244-BD98-F2A00FEA2D77}" name="Column904"/>
+    <tableColumn id="905" xr3:uid="{8E5CD036-717C-D24A-8543-84B54B31228E}" name="Column905"/>
+    <tableColumn id="906" xr3:uid="{9F7646E4-EB71-5445-91A7-C13F51912736}" name="Column906"/>
+    <tableColumn id="907" xr3:uid="{CA60AF18-766B-B948-8688-6E05762BAD2B}" name="Column907"/>
+    <tableColumn id="908" xr3:uid="{B0227707-D6D5-D645-A90E-426C07082E2B}" name="Column908"/>
+    <tableColumn id="909" xr3:uid="{8371B258-1692-0746-97C8-B98E449B3FCD}" name="Column909"/>
+    <tableColumn id="910" xr3:uid="{8AEE9730-9F5A-BD4D-89B4-9CF5B9793153}" name="Column910"/>
+    <tableColumn id="911" xr3:uid="{E05996C4-3EC9-F742-96EF-1B8F8E6BCE91}" name="Column911"/>
+    <tableColumn id="912" xr3:uid="{EDC36B20-CE19-1B49-99C4-7EA169482DF2}" name="Column912"/>
+    <tableColumn id="913" xr3:uid="{A078B6D4-BF48-C34B-A68B-1DEB53E83C17}" name="Column913"/>
+    <tableColumn id="914" xr3:uid="{3B1FCC92-258D-5142-B8CC-409C8CE003A1}" name="Column914"/>
+    <tableColumn id="915" xr3:uid="{4F1BF201-8634-004F-98B9-2DDB1662E57F}" name="Column915"/>
+    <tableColumn id="916" xr3:uid="{6F13F815-F2ED-C844-896A-AA73FFED1D4A}" name="Column916"/>
+    <tableColumn id="917" xr3:uid="{C3218AB9-380B-E047-A7CA-9C8D21FC98B2}" name="Column917"/>
+    <tableColumn id="918" xr3:uid="{2D4C91C4-1C09-A046-A0A7-FDF762C7E9E2}" name="Column918"/>
+    <tableColumn id="919" xr3:uid="{2F4E543C-17E3-4F47-A07A-9F7913EDD1E6}" name="Column919"/>
+    <tableColumn id="920" xr3:uid="{6C6254CA-340C-7B4E-8467-A8E0E2D31835}" name="Column920"/>
+    <tableColumn id="921" xr3:uid="{D10DD72E-55C0-174F-8D21-2519BB32CF04}" name="Column921"/>
+    <tableColumn id="922" xr3:uid="{69ECC40D-C462-5A46-9715-57C5437BBFFB}" name="Column922"/>
+    <tableColumn id="923" xr3:uid="{A5962A80-05CC-8B4B-B23A-A9A99B19CE6A}" name="Column923"/>
+    <tableColumn id="924" xr3:uid="{30D04DC4-20BF-9943-B7D3-32D34B5438B3}" name="Column924"/>
+    <tableColumn id="925" xr3:uid="{2C24ABA9-61E2-CB47-98B2-6DDB14D35827}" name="Column925"/>
+    <tableColumn id="926" xr3:uid="{2E9813DA-87A3-DC47-B03C-131262142D22}" name="Column926"/>
+    <tableColumn id="927" xr3:uid="{1E278ABD-BDD7-6942-9480-DE830E115B49}" name="Column927"/>
+    <tableColumn id="928" xr3:uid="{86251F64-DBE0-DC49-B223-367CB65EFC40}" name="Column928"/>
+    <tableColumn id="929" xr3:uid="{43350A65-D076-CA4B-87FB-52E5AAEB8CEC}" name="Column929"/>
+    <tableColumn id="930" xr3:uid="{E7811594-1B83-6746-B03E-571489EBD2A8}" name="Column930"/>
+    <tableColumn id="931" xr3:uid="{B0CBB0E3-08E0-9543-9239-F1024454BDAA}" name="Column931"/>
+    <tableColumn id="932" xr3:uid="{25421A8A-E149-8A47-B843-5BF4D5A0F6AF}" name="Column932"/>
+    <tableColumn id="933" xr3:uid="{B87904FD-7430-F341-AE48-575681452F50}" name="Column933"/>
+    <tableColumn id="934" xr3:uid="{D228801A-669F-7541-88CE-ADB60799E73C}" name="Column934"/>
+    <tableColumn id="935" xr3:uid="{AA0BC8DF-E2F8-FC41-9F98-4ADE2779FEE6}" name="Column935"/>
+    <tableColumn id="936" xr3:uid="{1984EF50-6B90-C74A-9E17-935C1F9E65DC}" name="Column936"/>
+    <tableColumn id="937" xr3:uid="{A76B92B8-CD24-CF4C-ABF0-553558D87BE4}" name="Column937"/>
+    <tableColumn id="938" xr3:uid="{CD13B720-8CE6-E841-81A9-815DDB40EC89}" name="Column938"/>
+    <tableColumn id="939" xr3:uid="{64464E34-475B-3842-83D3-F4C8753F6D43}" name="Column939"/>
+    <tableColumn id="940" xr3:uid="{C19AABD3-A4B1-0F49-B8B6-2763C3C14B93}" name="Column940"/>
+    <tableColumn id="941" xr3:uid="{854DC39C-AEB0-7646-AB15-B1FF6F2324A3}" name="Column941"/>
+    <tableColumn id="942" xr3:uid="{B1C39173-2D99-334F-A3E9-C0B8A4BCE28D}" name="Column942"/>
+    <tableColumn id="943" xr3:uid="{A565F786-0562-1E47-9153-CABABD1915D8}" name="Column943"/>
+    <tableColumn id="944" xr3:uid="{5D0036C3-D7B1-F74A-AEF4-C8151AC5F89D}" name="Column944"/>
+    <tableColumn id="945" xr3:uid="{D47F4C1C-480F-4246-BF69-512901C86287}" name="Column945"/>
+    <tableColumn id="946" xr3:uid="{ABC99E85-30C9-3042-A213-FE65F0D2A131}" name="Column946"/>
+    <tableColumn id="947" xr3:uid="{1F61B1E3-5B7B-D848-B191-0600959DE11D}" name="Column947"/>
+    <tableColumn id="948" xr3:uid="{CEFB0908-3E05-3743-8520-F9040FD9F0BE}" name="Column948"/>
+    <tableColumn id="949" xr3:uid="{CAA6E9F8-5664-5544-BE6D-20F7EAD29BF0}" name="Column949"/>
+    <tableColumn id="950" xr3:uid="{26702BD1-3BC8-7F44-BE28-42DC76D491E6}" name="Column950"/>
+    <tableColumn id="951" xr3:uid="{78E00341-551C-434F-A2F4-2A366EA6978D}" name="Column951"/>
+    <tableColumn id="952" xr3:uid="{DCF778DE-C697-644F-BEAE-5DCA3E8FC01C}" name="Column952"/>
+    <tableColumn id="953" xr3:uid="{5C7E2AA0-AB94-494C-99DD-6BE0A4A31F55}" name="Column953"/>
+    <tableColumn id="954" xr3:uid="{7E7FB5F6-4C19-1C4C-9090-B9B98478E83F}" name="Column954"/>
+    <tableColumn id="955" xr3:uid="{4DC35DB7-8A0A-F449-8AB9-6139035C0F3F}" name="Column955"/>
+    <tableColumn id="956" xr3:uid="{B840B78F-9060-2745-90BB-C1B3904E5715}" name="Column956"/>
+    <tableColumn id="957" xr3:uid="{D6541D66-FC1A-FC48-92CB-6EFB89310B87}" name="Column957"/>
+    <tableColumn id="958" xr3:uid="{D88FF03A-6B37-6D48-8A4F-AF5E4D0FD414}" name="Column958"/>
+    <tableColumn id="959" xr3:uid="{4240A394-BD75-274C-B92A-6214D29FAF42}" name="Column959"/>
+    <tableColumn id="960" xr3:uid="{84CAFA05-CF06-4D4C-A2F4-171B8185E4F2}" name="Column960"/>
+    <tableColumn id="961" xr3:uid="{D1ABBA05-7771-CC4D-A16A-B3FA394A8B89}" name="Column961"/>
+    <tableColumn id="962" xr3:uid="{0427FC7F-7993-BA4E-9C75-680ABEDA55AF}" name="Column962"/>
+    <tableColumn id="963" xr3:uid="{1E32E24F-A963-D24C-B1B6-68CAE08CD922}" name="Column963"/>
+    <tableColumn id="964" xr3:uid="{722D2238-63A7-9744-AAD4-B5CDD8531696}" name="Column964"/>
+    <tableColumn id="965" xr3:uid="{0A6BC0C3-46CE-4D49-AB6B-65F4799173AC}" name="Column965"/>
+    <tableColumn id="966" xr3:uid="{73B7F386-3C3A-E641-AF5A-738EECC9821B}" name="Column966"/>
+    <tableColumn id="967" xr3:uid="{CC5E0998-B424-324C-9A93-C45BB5C8AAE1}" name="Column967"/>
+    <tableColumn id="968" xr3:uid="{1E44200C-D1AF-2141-B34B-839824E02DE9}" name="Column968"/>
+    <tableColumn id="969" xr3:uid="{B8FF806D-0B2A-F745-9269-07C06B4F53A6}" name="Column969"/>
+    <tableColumn id="970" xr3:uid="{A3E74022-5701-BC46-A6F2-1C435D459648}" name="Column970"/>
+    <tableColumn id="971" xr3:uid="{A2278DBB-8B47-9C4D-B0C3-3EC263E6231B}" name="Column971"/>
+    <tableColumn id="972" xr3:uid="{E830A0A4-0472-8648-9F1E-B11DCAE635B1}" name="Column972"/>
+    <tableColumn id="973" xr3:uid="{C6503211-45FA-CD44-8B73-3FC49448B99C}" name="Column973"/>
+    <tableColumn id="974" xr3:uid="{CDAB081A-B91D-5849-BFD6-0BF36614C62F}" name="Column974"/>
+    <tableColumn id="975" xr3:uid="{52FD908B-66F8-0E44-B0AA-0F6049B417F8}" name="Column975"/>
+    <tableColumn id="976" xr3:uid="{2B0CA407-6CBE-5644-9471-2581C3914DFD}" name="Column976"/>
+    <tableColumn id="977" xr3:uid="{71D141FD-D5DF-6840-BAAE-FCD3412C063A}" name="Column977"/>
+    <tableColumn id="978" xr3:uid="{48C91C8A-7267-3643-9C77-A2B6B69B1367}" name="Column978"/>
+    <tableColumn id="979" xr3:uid="{FAFF941E-112C-1A41-BE3D-B7AA58AF1D94}" name="Column979"/>
+    <tableColumn id="980" xr3:uid="{B8994765-7418-5443-9D43-8CD97D988365}" name="Column980"/>
+    <tableColumn id="981" xr3:uid="{0B1E88D1-7644-6149-8BBF-7D2890EA6677}" name="Column981"/>
+    <tableColumn id="982" xr3:uid="{D7B975EB-F740-4B4E-88BC-F87AC44B6EB6}" name="Column982"/>
+    <tableColumn id="983" xr3:uid="{55CC5311-2375-7A40-9FB9-1F94D0ACFB66}" name="Column983"/>
+    <tableColumn id="984" xr3:uid="{303FFE07-947F-DA43-89E8-1D758040F889}" name="Column984"/>
+    <tableColumn id="985" xr3:uid="{E086E6AF-5B6C-564F-89EE-E23DF43EFAC5}" name="Column985"/>
+    <tableColumn id="986" xr3:uid="{8D48CBED-E071-5548-8D10-C90817184067}" name="Column986"/>
+    <tableColumn id="987" xr3:uid="{73C79174-3832-8144-A0B2-707D00AF899B}" name="Column987"/>
+    <tableColumn id="988" xr3:uid="{711A990C-0FBE-C34F-801E-FAC098895714}" name="Column988"/>
+    <tableColumn id="989" xr3:uid="{D7722C24-2C11-EC42-800D-E42866BC6B1B}" name="Column989"/>
+    <tableColumn id="990" xr3:uid="{204104B8-B248-6F4D-A777-19E15DAE1871}" name="Column990"/>
+    <tableColumn id="991" xr3:uid="{ED4BDB2A-AE28-7E4A-A5DF-B10773450378}" name="Column991"/>
+    <tableColumn id="992" xr3:uid="{94F81485-E9CF-5E47-96C6-5A50EB56B6AE}" name="Column992"/>
+    <tableColumn id="993" xr3:uid="{F3E7C2C3-60FB-DB4A-8E6A-01BAF53B1C00}" name="Column993"/>
+    <tableColumn id="994" xr3:uid="{3802992A-B962-B346-90C7-59A5ED3B3D20}" name="Column994"/>
+    <tableColumn id="995" xr3:uid="{20FFE974-24CD-444E-ABAE-07CDE21246BE}" name="Column995"/>
+    <tableColumn id="996" xr3:uid="{DD9CE7E2-BB4E-EF48-8810-F7DBC2151EAF}" name="Column996"/>
+    <tableColumn id="997" xr3:uid="{6375A4EF-EB45-274C-8E51-4090E72E3EDE}" name="Column997"/>
+    <tableColumn id="998" xr3:uid="{0F6936BE-ADCC-534A-931E-F3F82A87E759}" name="Column998"/>
+    <tableColumn id="999" xr3:uid="{B42D7F2C-7C53-324B-AD1A-9175DF8DCD7B}" name="Column999"/>
+    <tableColumn id="1000" xr3:uid="{57053EB1-6234-2A43-B4DA-9342F0287CB5}" name="Column1000"/>
+    <tableColumn id="1001" xr3:uid="{E58DEA85-2CB4-2344-9095-BA98F1DFB8E6}" name="Column1001"/>
+    <tableColumn id="1002" xr3:uid="{0F19E453-A384-C147-B8AB-721F84DAE71A}" name="Column1002"/>
+    <tableColumn id="1003" xr3:uid="{7BD813FB-44D8-9A4D-AA52-35020D66B14F}" name="Column1003"/>
+    <tableColumn id="1004" xr3:uid="{4EB9BFD7-1741-4146-93FF-3B0421B5C868}" name="Column1004"/>
+    <tableColumn id="1005" xr3:uid="{103C6987-9BF5-7F4F-A754-9FEDE56488BA}" name="Column1005"/>
+    <tableColumn id="1006" xr3:uid="{083DCEF0-0D78-EF49-93A7-0252FB67CDD6}" name="Column1006"/>
+    <tableColumn id="1007" xr3:uid="{861C9E25-5A75-814F-A72A-3E75845C5F61}" name="Column1007"/>
+    <tableColumn id="1008" xr3:uid="{CA251257-8D71-EE4C-8689-B1BA6E26B1A1}" name="Column1008"/>
+    <tableColumn id="1009" xr3:uid="{A52F504E-3A46-714A-A140-335DF745A765}" name="Column1009"/>
+    <tableColumn id="1010" xr3:uid="{540C0382-0A89-454A-9495-30EDFDA5EFAD}" name="Column1010"/>
+    <tableColumn id="1011" xr3:uid="{AE9626C3-9B67-634B-97CE-AE38AC63BB07}" name="Column1011"/>
+    <tableColumn id="1012" xr3:uid="{399B189F-BD65-8546-8E21-34C7E1A11B75}" name="Column1012"/>
+    <tableColumn id="1013" xr3:uid="{E1672035-1D38-1446-B4DD-9FBD89F614C7}" name="Column1013"/>
+    <tableColumn id="1014" xr3:uid="{7CB80CED-F9DF-AB40-A583-86521F65FA3A}" name="Column1014"/>
+    <tableColumn id="1015" xr3:uid="{A1C004BB-7D87-DC40-B0F0-548E64197B86}" name="Column1015"/>
+    <tableColumn id="1016" xr3:uid="{7E2F8D0A-ED42-414E-938C-A97CA2800DB0}" name="Column1016"/>
+    <tableColumn id="1017" xr3:uid="{382AF4CA-A2BE-AE43-B466-3207F5BB0ECB}" name="Column1017"/>
+    <tableColumn id="1018" xr3:uid="{48D8093D-B3A5-4D42-ADB2-520FA2D64B8D}" name="Column1018"/>
+    <tableColumn id="1019" xr3:uid="{9AC5B852-C9A8-1A4E-83D8-752B29DE1ED8}" name="Column1019"/>
+    <tableColumn id="1020" xr3:uid="{4C5B9EC8-77CA-1446-86E8-B231D99EA8DE}" name="Column1020"/>
+    <tableColumn id="1021" xr3:uid="{14C12B86-BA30-6440-AC73-E511530CA37A}" name="Column1021"/>
+    <tableColumn id="1022" xr3:uid="{939C0D4F-3846-D24C-A1C9-5B90E264A492}" name="Column1022"/>
+    <tableColumn id="1023" xr3:uid="{94B31ABD-9F6D-D84A-8E93-BE34D624221A}" name="Column1023"/>
+    <tableColumn id="1024" xr3:uid="{8CE15AB7-7EB1-7C47-B9C6-8509DD1DA37E}" name="Column1024"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3752,12 +3839,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E049C026-4124-484D-A741-C8F032735A27}">
-  <dimension ref="A1:BL168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F33281D-4F86-224D-82CF-E71299C93FE7}">
+  <dimension ref="A1:BL170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
@@ -3766,6 +3853,7 @@
     <col min="5" max="5" width="63.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.33203125" style="2" customWidth="1"/>
     <col min="7" max="64" width="13.33203125" style="2" customWidth="1"/>
+    <col min="65" max="65" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -5732,7 +5820,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14">
+    <row r="129" spans="1:5" ht="15">
       <c r="A129" s="4" t="s">
         <v>523</v>
       </c>
@@ -5747,7 +5835,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14">
+    <row r="130" spans="1:5" ht="15">
       <c r="A130" s="4" t="s">
         <v>527</v>
       </c>
@@ -5762,7 +5850,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14">
+    <row r="131" spans="1:5" ht="15">
       <c r="A131" s="4" t="s">
         <v>531</v>
       </c>
@@ -5777,7 +5865,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14">
+    <row r="132" spans="1:5" ht="15">
       <c r="A132" s="4" t="s">
         <v>535</v>
       </c>
@@ -5792,7 +5880,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15">
+    <row r="133" spans="1:5" ht="16">
       <c r="A133" s="8" t="s">
         <v>539</v>
       </c>
@@ -5806,7 +5894,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15">
+    <row r="134" spans="1:5" ht="16">
       <c r="A134" s="8" t="s">
         <v>543</v>
       </c>
@@ -5820,7 +5908,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15">
+    <row r="135" spans="1:5" ht="17">
       <c r="A135" s="8" t="s">
         <v>547</v>
       </c>
@@ -5834,7 +5922,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15">
+    <row r="136" spans="1:5" ht="16">
       <c r="A136" s="8" t="s">
         <v>551</v>
       </c>
@@ -5848,7 +5936,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15">
+    <row r="137" spans="1:5" ht="17">
       <c r="A137" s="8" t="s">
         <v>555</v>
       </c>
@@ -5862,7 +5950,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15">
+    <row r="138" spans="1:5" ht="16">
       <c r="A138" s="8" t="s">
         <v>559</v>
       </c>
@@ -5876,7 +5964,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15">
+    <row r="139" spans="1:5" ht="16">
       <c r="A139" s="8" t="s">
         <v>563</v>
       </c>
@@ -5890,7 +5978,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15">
+    <row r="140" spans="1:5" ht="16">
       <c r="A140" s="8" t="s">
         <v>567</v>
       </c>
@@ -5904,7 +5992,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15">
+    <row r="141" spans="1:5" ht="16">
       <c r="A141" s="8" t="s">
         <v>571</v>
       </c>
@@ -5918,7 +6006,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14">
+    <row r="142" spans="1:5" ht="15">
       <c r="A142" s="2" t="s">
         <v>575</v>
       </c>
@@ -5935,7 +6023,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14">
+    <row r="143" spans="1:5" ht="15">
       <c r="A143" s="2" t="s">
         <v>580</v>
       </c>
@@ -5949,7 +6037,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14">
+    <row r="144" spans="1:5" ht="15">
       <c r="A144" s="2" t="s">
         <v>584</v>
       </c>
@@ -5963,7 +6051,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14">
+    <row r="145" spans="1:5" ht="15">
       <c r="A145" s="2" t="s">
         <v>588</v>
       </c>
@@ -5977,7 +6065,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14">
+    <row r="146" spans="1:5" ht="15">
       <c r="A146" s="2" t="s">
         <v>592</v>
       </c>
@@ -5991,7 +6079,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14">
+    <row r="147" spans="1:5" ht="15">
       <c r="A147" s="2" t="s">
         <v>596</v>
       </c>
@@ -6005,7 +6093,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14">
+    <row r="148" spans="1:5" ht="15">
       <c r="A148" s="2" t="s">
         <v>600</v>
       </c>
@@ -6019,7 +6107,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14">
+    <row r="149" spans="1:5" ht="15">
       <c r="A149" s="2" t="s">
         <v>604</v>
       </c>
@@ -6033,7 +6121,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14">
+    <row r="150" spans="1:5" ht="15">
       <c r="A150" s="2" t="s">
         <v>608</v>
       </c>
@@ -6047,7 +6135,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14">
+    <row r="151" spans="1:5" ht="15">
       <c r="A151" s="2" t="s">
         <v>612</v>
       </c>
@@ -6061,7 +6149,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14">
+    <row r="152" spans="1:5" ht="15">
       <c r="A152" s="2" t="s">
         <v>616</v>
       </c>
@@ -6075,7 +6163,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14">
+    <row r="153" spans="1:5" ht="15">
       <c r="A153" s="2" t="s">
         <v>620</v>
       </c>
@@ -6089,7 +6177,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14">
+    <row r="154" spans="1:5" ht="15">
       <c r="A154" s="2" t="s">
         <v>624</v>
       </c>
@@ -6103,7 +6191,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14">
+    <row r="155" spans="1:5" ht="15">
       <c r="A155" s="2" t="s">
         <v>628</v>
       </c>
@@ -6117,7 +6205,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14">
+    <row r="156" spans="1:5" ht="15">
       <c r="A156" s="2" t="s">
         <v>632</v>
       </c>
@@ -6131,7 +6219,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="2" t="s">
         <v>636</v>
       </c>
@@ -6141,11 +6229,11 @@
       <c r="D157" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="9" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15">
+    <row r="158" spans="1:5" ht="16">
       <c r="A158" s="2" t="s">
         <v>640</v>
       </c>
@@ -6155,11 +6243,11 @@
       <c r="D158" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="9" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15">
+    <row r="159" spans="1:5" ht="16">
       <c r="A159" s="2" t="s">
         <v>644</v>
       </c>
@@ -6172,25 +6260,25 @@
       <c r="D159" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="9" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15">
+    <row r="160" spans="1:5" ht="16">
       <c r="A160" s="2" t="s">
         <v>648</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="E160" s="10" t="s">
+      <c r="E160" s="9" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14">
+    <row r="161" spans="1:5" ht="15">
       <c r="A161" s="2" t="s">
         <v>652</v>
       </c>
@@ -6201,7 +6289,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14">
+    <row r="162" spans="1:5" ht="15">
       <c r="A162" s="2" t="s">
         <v>655</v>
       </c>
@@ -6215,7 +6303,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="14">
+    <row r="163" spans="1:5" ht="15">
       <c r="A163" s="2" t="s">
         <v>659</v>
       </c>
@@ -6229,7 +6317,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14">
+    <row r="164" spans="1:5" ht="15">
       <c r="A164" s="2" t="s">
         <v>663</v>
       </c>
@@ -6243,7 +6331,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="14">
+    <row r="165" spans="1:5" ht="15">
       <c r="A165" s="2" t="s">
         <v>667</v>
       </c>
@@ -6257,7 +6345,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="14">
+    <row r="166" spans="1:5" ht="15">
       <c r="A166" s="2" t="s">
         <v>671</v>
       </c>
@@ -6271,7 +6359,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="14">
+    <row r="167" spans="1:5" ht="15">
       <c r="A167" s="2" t="s">
         <v>675</v>
       </c>
@@ -6285,7 +6373,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14">
+    <row r="168" spans="1:5" ht="15">
       <c r="A168" s="2" t="s">
         <v>679</v>
       </c>
@@ -6302,22 +6390,52 @@
         <v>683</v>
       </c>
     </row>
+    <row r="169" spans="1:5" ht="17">
+      <c r="A169" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="17">
+      <c r="A170" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E62" r:id="rId1" xr:uid="{3D7E363A-336B-C840-AE20-B65DAB93C970}"/>
-    <hyperlink ref="E124" r:id="rId2" xr:uid="{227BA071-35B3-5B4D-A2EC-7C8DEA8FCB16}"/>
-    <hyperlink ref="E125" r:id="rId3" xr:uid="{C2AECFE0-31D7-314E-A562-5C7C33D5B13D}"/>
-    <hyperlink ref="E136" r:id="rId4" xr:uid="{6A4776D3-FAB6-0A46-B3E4-2CC16619F332}"/>
-    <hyperlink ref="E137" r:id="rId5" xr:uid="{D21F0286-4973-B54C-9F06-47F2707F2049}"/>
-    <hyperlink ref="E138" r:id="rId6" xr:uid="{C16FAF50-08CF-724A-81BB-083E7E0E4C29}"/>
-    <hyperlink ref="E139" r:id="rId7" xr:uid="{AD91432C-FE4B-034D-9AFA-D639B4F30A8B}"/>
-    <hyperlink ref="E141" r:id="rId8" xr:uid="{F435CE2B-A289-2241-BF78-8ECC482770D9}"/>
-    <hyperlink ref="E157" r:id="rId9" xr:uid="{3AB9D5B8-3AC4-C144-9826-102CA6D1D9B5}"/>
+    <hyperlink ref="E62" r:id="rId1" xr:uid="{CA667A1D-923E-594E-B24E-8E95613DF6D2}"/>
+    <hyperlink ref="E124" r:id="rId2" xr:uid="{449FADC9-C466-3A4B-9CB7-E9128DE332EB}"/>
+    <hyperlink ref="E125" r:id="rId3" xr:uid="{70099FF5-7DCC-104F-9131-F133F2D1A268}"/>
+    <hyperlink ref="E136" r:id="rId4" xr:uid="{9BF2681F-5496-7B47-81EC-63008726CB9F}"/>
+    <hyperlink ref="E137" r:id="rId5" xr:uid="{46468856-3A3B-6849-B44F-81F569CE11CD}"/>
+    <hyperlink ref="E138" r:id="rId6" xr:uid="{0D33449A-4E86-344B-B3ED-8DDDCD3B2C1A}"/>
+    <hyperlink ref="E139" r:id="rId7" xr:uid="{21D36D50-1BA0-5444-A60B-501AC15FF625}"/>
+    <hyperlink ref="E141" r:id="rId8" xr:uid="{40C3AE7C-AAF7-0349-8E1B-303C8FD5F7BA}"/>
+    <hyperlink ref="E157" r:id="rId9" xr:uid="{F88EBBA1-D5A3-6242-9D40-520AEC787C69}"/>
+    <hyperlink ref="E169" r:id="rId10" xr:uid="{56039E6D-F703-6740-B4F1-EC6ABA4566AF}"/>
+    <hyperlink ref="E170" r:id="rId11" xr:uid="{46D0B718-B42D-164B-8479-D2B6CCD75230}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/cci/cci-platform.xlsx
+++ b/data/cci/cci-platform.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFF290D-AE04-4045-BEA4-1CD4B79AEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673FCBE3-C655-4DB4-B69F-3E0E97105678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{1C9BF221-BF04-2F46-91C8-1781F5B972F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1C9BF221-BF04-2F46-91C8-1781F5B972F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="706">
   <si>
     <t>URI</t>
   </si>
@@ -1421,9 +1421,6 @@
   </si>
   <si>
     <t>http://www.wmo-sat.info/oscar/satellites/view/341</t>
-  </si>
-  <si>
-    <t>plat_odin</t>
   </si>
   <si>
     <t>ODIN</t>
@@ -2180,6 +2177,51 @@
   </si>
   <si>
     <t>https://space.oscar.wmo.int/satellites/view/sentinel_6b</t>
+  </si>
+  <si>
+    <t>plat_erbs</t>
+  </si>
+  <si>
+    <t>ERBS</t>
+  </si>
+  <si>
+    <t>Earth Radiation Budget Satellite</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satellites/view/erbs</t>
+  </si>
+  <si>
+    <t>plat_uars</t>
+  </si>
+  <si>
+    <t>UARS</t>
+  </si>
+  <si>
+    <t>Upper Atmosphere Research Satellite</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satellites/view/uars</t>
+  </si>
+  <si>
+    <t>plat_meteor_3m</t>
+  </si>
+  <si>
+    <t>Meteor-3M</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satellites/view/meteor_3m</t>
+  </si>
+  <si>
+    <t>ISS Sage-III</t>
+  </si>
+  <si>
+    <t>Stratospheric Aerosol and Gas Experiment III on the International Space Station</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satellites/view/iss_sage_iii</t>
+  </si>
+  <si>
+    <t>plat_iss_SAGEIII</t>
   </si>
 </sst>
 </file>
@@ -2429,28 +2471,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="7" xr:uid="{38CCD445-3D93-374F-BB12-845CF953AC85}"/>
@@ -3840,23 +3877,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F33281D-4F86-224D-82CF-E71299C93FE7}">
-  <dimension ref="A1:BL170"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="94.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.33203125" style="2" customWidth="1"/>
-    <col min="7" max="64" width="13.33203125" style="2" customWidth="1"/>
-    <col min="65" max="65" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" customWidth="1"/>
+    <col min="7" max="64" width="13.28515625" customWidth="1"/>
+    <col min="65" max="65" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3873,2549 +3912,2605 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.5" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="3" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="3" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="3" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3" t="s">
+      <c r="C70" s="3"/>
+      <c r="D70" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="5"/>
+      <c r="D72" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="5"/>
+      <c r="D73" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4" t="s">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4" t="s">
+      <c r="C93" s="3"/>
+      <c r="D93" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4" t="s">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4" t="s">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4" t="s">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4" t="s">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4" t="s">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4" t="s">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4" t="s">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4" t="s">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4" t="s">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4" t="s">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4" t="s">
+      <c r="C106" s="3"/>
+      <c r="D106" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4" t="s">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4" t="s">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4" t="s">
+      <c r="C109" s="3"/>
+      <c r="D109" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4" t="s">
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4" t="s">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4" t="s">
+      <c r="C112" s="3"/>
+      <c r="D112" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:5">
+      <c r="A113" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4" t="s">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4" t="s">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4" t="s">
+      <c r="E115" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E115" s="4" t="s">
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="16">
-      <c r="A116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E116" s="4" t="s">
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="16">
-      <c r="A117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E117" s="4" t="s">
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="16">
-      <c r="A118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E118" s="4" t="s">
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="16">
-      <c r="A119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4" t="s">
+      <c r="E119" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E119" s="4" t="s">
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="16">
-      <c r="A120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="3"/>
+      <c r="D120" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E120" s="4" t="s">
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="16">
-      <c r="A121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4" t="s">
+      <c r="E121" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E121" s="4" t="s">
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="16">
-      <c r="A122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3"/>
+      <c r="D122" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E122" s="4" t="s">
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="16">
-      <c r="A123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="C123" s="3"/>
+      <c r="D123" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4" t="s">
+      <c r="E123" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E123" s="4" t="s">
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="16">
-      <c r="A124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="3"/>
+      <c r="D124" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4" t="s">
+      <c r="E124" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E124" s="4" t="s">
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="16">
-      <c r="A125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4" t="s">
+      <c r="E125" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E125" s="4" t="s">
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="16">
-      <c r="A126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" s="4" t="s">
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="16">
-      <c r="A127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C127" s="3"/>
+      <c r="D127" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4" t="s">
+      <c r="E127" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E127" s="4" t="s">
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="16">
-      <c r="A128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4" t="s">
+      <c r="E128" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="E128" s="4" t="s">
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="15">
-      <c r="A129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="C129" s="3"/>
+      <c r="D129" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4" t="s">
+      <c r="E129" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E129" s="4" t="s">
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="3" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="15">
-      <c r="A130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="3"/>
+      <c r="D130" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4" t="s">
+      <c r="E130" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E130" s="4" t="s">
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="3" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="15">
-      <c r="A131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4" t="s">
+      <c r="E131" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="E131" s="4" t="s">
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="15">
-      <c r="A132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="3"/>
+      <c r="D132" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4" t="s">
+      <c r="E132" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="E132" s="4" t="s">
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="6" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="16">
-      <c r="A133" s="8" t="s">
+      <c r="B133" t="s">
         <v>539</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="D133" t="s">
         <v>540</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" t="s">
         <v>541</v>
       </c>
-      <c r="E133" s="2" t="s">
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="6" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="16">
-      <c r="A134" s="8" t="s">
+      <c r="B134" t="s">
         <v>543</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="D134" t="s">
         <v>544</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" t="s">
         <v>545</v>
       </c>
-      <c r="E134" s="2" t="s">
+    </row>
+    <row r="135" spans="1:5" ht="17.25">
+      <c r="A135" s="6" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="17">
-      <c r="A135" s="8" t="s">
+      <c r="B135" t="s">
         <v>547</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="D135" t="s">
         <v>548</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" t="s">
         <v>549</v>
       </c>
-      <c r="E135" s="2" t="s">
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="16">
-      <c r="A136" s="8" t="s">
+      <c r="B136" t="s">
         <v>551</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="D136" t="s">
         <v>552</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="E136" t="s">
         <v>553</v>
       </c>
-      <c r="E136" s="2" t="s">
+    </row>
+    <row r="137" spans="1:5" ht="17.25">
+      <c r="A137" s="6" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="17">
-      <c r="A137" s="8" t="s">
+      <c r="B137" t="s">
         <v>555</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="D137" t="s">
         <v>556</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" t="s">
         <v>557</v>
       </c>
-      <c r="E137" s="2" t="s">
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="6" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="16">
-      <c r="A138" s="8" t="s">
+      <c r="B138" t="s">
         <v>559</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="D138" t="s">
         <v>560</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" t="s">
         <v>561</v>
       </c>
-      <c r="E138" s="2" t="s">
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="6" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="16">
-      <c r="A139" s="8" t="s">
+      <c r="B139" t="s">
         <v>563</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="D139" t="s">
         <v>564</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" t="s">
         <v>565</v>
       </c>
-      <c r="E139" s="2" t="s">
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="6" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="16">
-      <c r="A140" s="8" t="s">
+      <c r="B140" t="s">
         <v>567</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="D140" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="E140" t="s">
         <v>569</v>
       </c>
-      <c r="E140" s="2" t="s">
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="6" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="16">
-      <c r="A141" s="8" t="s">
+      <c r="B141" t="s">
         <v>571</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="D141" t="s">
         <v>572</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" t="s">
         <v>573</v>
       </c>
-      <c r="E141" s="2" t="s">
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="15">
-      <c r="A142" s="2" t="s">
+      <c r="B142" t="s">
         <v>575</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" t="s">
         <v>576</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" t="s">
         <v>577</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" t="s">
         <v>578</v>
       </c>
-      <c r="E142" s="2" t="s">
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="15">
-      <c r="A143" s="2" t="s">
+      <c r="B143" t="s">
         <v>580</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="D143" t="s">
         <v>581</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" t="s">
         <v>582</v>
       </c>
-      <c r="E143" s="2" t="s">
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="15">
-      <c r="A144" s="2" t="s">
+      <c r="B144" t="s">
         <v>584</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="D144" t="s">
         <v>585</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" t="s">
         <v>586</v>
       </c>
-      <c r="E144" s="2" t="s">
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="15">
-      <c r="A145" s="2" t="s">
+      <c r="B145" t="s">
         <v>588</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="D145" t="s">
         <v>589</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" t="s">
         <v>590</v>
       </c>
-      <c r="E145" s="2" t="s">
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="15">
-      <c r="A146" s="2" t="s">
+      <c r="B146" t="s">
         <v>592</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="D146" t="s">
         <v>593</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" t="s">
         <v>594</v>
       </c>
-      <c r="E146" s="2" t="s">
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="15">
-      <c r="A147" s="2" t="s">
+      <c r="B147" t="s">
         <v>596</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="D147" t="s">
         <v>597</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" t="s">
         <v>598</v>
       </c>
-      <c r="E147" s="2" t="s">
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="15">
-      <c r="A148" s="2" t="s">
+      <c r="B148" t="s">
         <v>600</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="D148" t="s">
         <v>601</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" t="s">
         <v>602</v>
       </c>
-      <c r="E148" s="2" t="s">
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="15">
-      <c r="A149" s="2" t="s">
+      <c r="B149" t="s">
         <v>604</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="D149" t="s">
         <v>605</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" t="s">
         <v>606</v>
       </c>
-      <c r="E149" s="2" t="s">
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="15">
-      <c r="A150" s="2" t="s">
+      <c r="B150" t="s">
         <v>608</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="D150" t="s">
         <v>609</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" t="s">
         <v>610</v>
       </c>
-      <c r="E150" s="2" t="s">
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="15">
-      <c r="A151" s="2" t="s">
+      <c r="B151" t="s">
         <v>612</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="D151" t="s">
         <v>613</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" t="s">
         <v>614</v>
       </c>
-      <c r="E151" t="s">
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="15">
-      <c r="A152" s="2" t="s">
+      <c r="B152" t="s">
         <v>616</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="D152" t="s">
         <v>617</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" t="s">
         <v>618</v>
       </c>
-      <c r="E152" s="2" t="s">
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="15">
-      <c r="A153" s="2" t="s">
+      <c r="B153" t="s">
         <v>620</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="D153" t="s">
         <v>621</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" t="s">
         <v>622</v>
       </c>
-      <c r="E153" s="2" t="s">
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="15">
-      <c r="A154" s="2" t="s">
+      <c r="B154" t="s">
         <v>624</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="D154" t="s">
         <v>625</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" t="s">
         <v>626</v>
       </c>
-      <c r="E154" s="2" t="s">
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="15">
-      <c r="A155" s="2" t="s">
+      <c r="B155" t="s">
         <v>628</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="D155" t="s">
         <v>629</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" t="s">
         <v>630</v>
       </c>
-      <c r="E155" s="2" t="s">
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="15">
-      <c r="A156" s="2" t="s">
+      <c r="B156" t="s">
         <v>632</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="D156" t="s">
         <v>633</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" t="s">
         <v>634</v>
       </c>
-      <c r="E156" s="2" t="s">
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="16">
-      <c r="A157" s="2" t="s">
+      <c r="B157" t="s">
         <v>636</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="D157" t="s">
         <v>637</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="E157" s="9" t="s">
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="16">
-      <c r="A158" s="2" t="s">
+      <c r="B158" t="s">
         <v>640</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="D158" t="s">
         <v>641</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="E158" s="9" t="s">
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="16">
-      <c r="A159" s="2" t="s">
+      <c r="B159" t="s">
         <v>644</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="C159" t="s">
         <v>645</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" t="s">
+        <v>644</v>
+      </c>
+      <c r="E159" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E159" s="9" t="s">
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="16">
-      <c r="A160" s="2" t="s">
+      <c r="B160" t="s">
         <v>648</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="D160" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="E160" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="E160" s="9" t="s">
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="15">
-      <c r="A161" s="2" t="s">
+      <c r="B161" t="s">
         <v>652</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="D161" t="s">
         <v>653</v>
       </c>
-      <c r="D161" s="2" t="s">
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="15">
-      <c r="A162" s="2" t="s">
+      <c r="B162" t="s">
         <v>655</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="D162" t="s">
         <v>656</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" t="s">
         <v>657</v>
       </c>
-      <c r="E162" s="2" t="s">
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="15">
-      <c r="A163" s="2" t="s">
+      <c r="B163" t="s">
         <v>659</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="D163" t="s">
         <v>660</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" t="s">
         <v>661</v>
       </c>
-      <c r="E163" s="2" t="s">
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="15">
-      <c r="A164" s="2" t="s">
+      <c r="B164" t="s">
         <v>663</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="D164" t="s">
         <v>664</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" t="s">
         <v>665</v>
       </c>
-      <c r="E164" s="2" t="s">
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="15">
-      <c r="A165" s="2" t="s">
+      <c r="B165" t="s">
         <v>667</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="D165" t="s">
         <v>668</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" t="s">
         <v>669</v>
       </c>
-      <c r="E165" s="2" t="s">
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="15">
-      <c r="A166" s="2" t="s">
+      <c r="B166" t="s">
         <v>671</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="D166" t="s">
         <v>672</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" t="s">
         <v>673</v>
       </c>
-      <c r="E166" s="2" t="s">
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="15">
-      <c r="A167" s="2" t="s">
+      <c r="B167" t="s">
         <v>675</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="D167" t="s">
         <v>676</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" t="s">
         <v>677</v>
       </c>
-      <c r="E167" s="2" t="s">
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="15">
-      <c r="A168" s="2" t="s">
+      <c r="B168" t="s">
         <v>679</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" t="s">
         <v>680</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="D168" t="s">
         <v>681</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" t="s">
         <v>682</v>
       </c>
-      <c r="E168" s="2" t="s">
+    </row>
+    <row r="169" spans="1:5" ht="17.25">
+      <c r="A169" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="17">
-      <c r="A169" s="2" t="s">
+      <c r="B169" t="s">
         <v>684</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="D169" t="s">
         <v>685</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="E169" s="10" t="s">
+    </row>
+    <row r="170" spans="1:5" ht="17.25">
+      <c r="A170" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="17">
-      <c r="A170" s="2" t="s">
+      <c r="B170" t="s">
         <v>688</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="D170" t="s">
         <v>689</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="E170" s="10" t="s">
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
         <v>691</v>
+      </c>
+      <c r="B171" t="s">
+        <v>692</v>
+      </c>
+      <c r="D171" t="s">
+        <v>693</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>695</v>
+      </c>
+      <c r="B172" t="s">
+        <v>696</v>
+      </c>
+      <c r="D172" t="s">
+        <v>697</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>699</v>
+      </c>
+      <c r="B173" t="s">
+        <v>700</v>
+      </c>
+      <c r="D173" t="s">
+        <v>700</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>705</v>
+      </c>
+      <c r="B174" t="s">
+        <v>702</v>
+      </c>
+      <c r="D174" t="s">
+        <v>703</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -6429,13 +6524,11 @@
     <hyperlink ref="E139" r:id="rId7" xr:uid="{21D36D50-1BA0-5444-A60B-501AC15FF625}"/>
     <hyperlink ref="E141" r:id="rId8" xr:uid="{40C3AE7C-AAF7-0349-8E1B-303C8FD5F7BA}"/>
     <hyperlink ref="E157" r:id="rId9" xr:uid="{F88EBBA1-D5A3-6242-9D40-520AEC787C69}"/>
-    <hyperlink ref="E169" r:id="rId10" xr:uid="{56039E6D-F703-6740-B4F1-EC6ABA4566AF}"/>
-    <hyperlink ref="E170" r:id="rId11" xr:uid="{46D0B718-B42D-164B-8479-D2B6CCD75230}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/cci/cci-platform.xlsx
+++ b/data/cci/cci-platform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsl11288\DOCUME~1\Moba\slash\RemoteFiles\262446_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673FCBE3-C655-4DB4-B69F-3E0E97105678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA7177-40B0-4065-AF33-66A2695A1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1C9BF221-BF04-2F46-91C8-1781F5B972F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1C9BF221-BF04-2F46-91C8-1781F5B972F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="710">
   <si>
     <t>URI</t>
   </si>
@@ -2222,6 +2222,18 @@
   </si>
   <si>
     <t>plat_iss_SAGEIII</t>
+  </si>
+  <si>
+    <t>plat_noaa_20</t>
+  </si>
+  <si>
+    <t>NOAA-20</t>
+  </si>
+  <si>
+    <t>NASA NOAA Environmental satellite 20</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/satellites/view/noaa_20</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2431,6 +2443,34 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -2471,7 +2511,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2487,7 +2527,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="7" xr:uid="{38CCD445-3D93-374F-BB12-845CF953AC85}"/>
@@ -3877,22 +3918,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F33281D-4F86-224D-82CF-E71299C93FE7}">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="94.28515625" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" customWidth="1"/>
-    <col min="6" max="6" width="54.28515625" customWidth="1"/>
-    <col min="7" max="64" width="13.28515625" customWidth="1"/>
-    <col min="65" max="65" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="94.26953125" customWidth="1"/>
+    <col min="5" max="5" width="63.7265625" customWidth="1"/>
+    <col min="6" max="6" width="54.26953125" customWidth="1"/>
+    <col min="7" max="64" width="13.26953125" customWidth="1"/>
+    <col min="65" max="65" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4302,7 +4343,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" customHeight="1">
+    <row r="28" spans="1:5" ht="15.65" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>109</v>
       </c>
@@ -5947,7 +5988,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17.25">
+    <row r="135" spans="1:5" ht="16.5">
       <c r="A135" s="6" t="s">
         <v>546</v>
       </c>
@@ -5975,7 +6016,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17.25">
+    <row r="137" spans="1:5" ht="16.5">
       <c r="A137" s="6" t="s">
         <v>554</v>
       </c>
@@ -6429,7 +6470,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="17.25">
+    <row r="169" spans="1:5" ht="16.5">
       <c r="A169" t="s">
         <v>683</v>
       </c>
@@ -6439,11 +6480,11 @@
       <c r="D169" t="s">
         <v>685</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="E169" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="17.25">
+    <row r="170" spans="1:5" ht="16.5">
       <c r="A170" t="s">
         <v>687</v>
       </c>
@@ -6453,7 +6494,7 @@
       <c r="D170" t="s">
         <v>689</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E170" t="s">
         <v>690</v>
       </c>
     </row>
@@ -6467,7 +6508,7 @@
       <c r="D171" t="s">
         <v>693</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E171" t="s">
         <v>694</v>
       </c>
     </row>
@@ -6481,7 +6522,7 @@
       <c r="D172" t="s">
         <v>697</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E172" t="s">
         <v>698</v>
       </c>
     </row>
@@ -6495,7 +6536,7 @@
       <c r="D173" t="s">
         <v>700</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E173" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6509,8 +6550,23 @@
       <c r="D174" t="s">
         <v>703</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" t="s">
         <v>704</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/data/cci/cci-platform.xlsx
+++ b/data/cci/cci-platform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsl11288\DOCUME~1\Moba\slash\RemoteFiles\262446_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA7177-40B0-4065-AF33-66A2695A1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{68AA7177-40B0-4065-AF33-66A2695A1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D2E51E-9744-42BB-94C1-0C6C6B52FF64}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1C9BF221-BF04-2F46-91C8-1781F5B972F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1C9BF221-BF04-2F46-91C8-1781F5B972F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="711">
   <si>
     <t>URI</t>
   </si>
@@ -2234,6 +2234,9 @@
   </si>
   <si>
     <t>https://space.oscar.wmo.int/satellites/view/noaa_20</t>
+  </si>
+  <si>
+    <t>plat_odin</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2531,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="7" xr:uid="{38CCD445-3D93-374F-BB12-845CF953AC85}"/>
@@ -3920,20 +3923,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F33281D-4F86-224D-82CF-E71299C93FE7}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="94.26953125" customWidth="1"/>
-    <col min="5" max="5" width="63.7265625" customWidth="1"/>
-    <col min="6" max="6" width="54.26953125" customWidth="1"/>
-    <col min="7" max="64" width="13.26953125" customWidth="1"/>
-    <col min="65" max="65" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" customWidth="1"/>
+    <col min="7" max="64" width="13.28515625" customWidth="1"/>
+    <col min="65" max="65" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4343,7 +4346,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.65" customHeight="1">
+    <row r="28" spans="1:5" ht="15.6" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>109</v>
       </c>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>463</v>
+        <v>710</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>467</v>
@@ -5988,7 +5991,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.5">
+    <row r="135" spans="1:5" ht="17.25">
       <c r="A135" s="6" t="s">
         <v>546</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.5">
+    <row r="137" spans="1:5" ht="17.25">
       <c r="A137" s="6" t="s">
         <v>554</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16.5">
+    <row r="169" spans="1:5" ht="17.25">
       <c r="A169" t="s">
         <v>683</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16.5">
+    <row r="170" spans="1:5" ht="17.25">
       <c r="A170" t="s">
         <v>687</v>
       </c>
